--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI185"/>
+  <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20043,6 +20043,214 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>342.85</v>
+      </c>
+      <c r="C186" t="n">
+        <v>344.1845454545455</v>
+      </c>
+      <c r="D186" t="n">
+        <v>345.2933333333333</v>
+      </c>
+      <c r="E186" t="n">
+        <v>354.0013043478261</v>
+      </c>
+      <c r="F186" t="n">
+        <v>369.6445454545454</v>
+      </c>
+      <c r="G186" t="n">
+        <v>376.5433333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>397.2207692307693</v>
+      </c>
+      <c r="I186" t="n">
+        <v>409.9333333333333</v>
+      </c>
+      <c r="J186" t="n">
+        <v>399.6607692307692</v>
+      </c>
+      <c r="K186" t="n">
+        <v>392.1907692307692</v>
+      </c>
+      <c r="L186" t="n">
+        <v>390.0107692307692</v>
+      </c>
+      <c r="M186" t="n">
+        <v>383.0566666666667</v>
+      </c>
+      <c r="N186" t="n">
+        <v>384.36</v>
+      </c>
+      <c r="O186" t="n">
+        <v>373.5066666666667</v>
+      </c>
+      <c r="P186" t="n">
+        <v>372.2466666666666</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>365.04</v>
+      </c>
+      <c r="R186" t="n">
+        <v>361.9611764705882</v>
+      </c>
+      <c r="S186" t="n">
+        <v>359.6888888888889</v>
+      </c>
+      <c r="T186" t="n">
+        <v>360.9488888888889</v>
+      </c>
+      <c r="U186" t="n">
+        <v>364.2511764705882</v>
+      </c>
+      <c r="V186" t="n">
+        <v>366.83</v>
+      </c>
+      <c r="W186" t="n">
+        <v>373.8588888888889</v>
+      </c>
+      <c r="X186" t="n">
+        <v>372.1311764705882</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>370.8911764705882</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>365.5511764705882</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>363.7</v>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>349.43</v>
+      </c>
+      <c r="C187" t="n">
+        <v>349.3618181818182</v>
+      </c>
+      <c r="D187" t="n">
+        <v>352.04</v>
+      </c>
+      <c r="E187" t="n">
+        <v>357.224347826087</v>
+      </c>
+      <c r="F187" t="n">
+        <v>366.7818181818182</v>
+      </c>
+      <c r="G187" t="n">
+        <v>378.66</v>
+      </c>
+      <c r="H187" t="n">
+        <v>396.7569230769231</v>
+      </c>
+      <c r="I187" t="n">
+        <v>410.52</v>
+      </c>
+      <c r="J187" t="n">
+        <v>399.1069230769231</v>
+      </c>
+      <c r="K187" t="n">
+        <v>388.3569230769231</v>
+      </c>
+      <c r="L187" t="n">
+        <v>387.2769230769231</v>
+      </c>
+      <c r="M187" t="n">
+        <v>375</v>
+      </c>
+      <c r="N187" t="n">
+        <v>369.795</v>
+      </c>
+      <c r="O187" t="n">
+        <v>368.52</v>
+      </c>
+      <c r="P187" t="n">
+        <v>365.94</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>358.555</v>
+      </c>
+      <c r="R187" t="n">
+        <v>354.6988235294117</v>
+      </c>
+      <c r="S187" t="n">
+        <v>343.5433333333333</v>
+      </c>
+      <c r="T187" t="n">
+        <v>346.8433333333333</v>
+      </c>
+      <c r="U187" t="n">
+        <v>346.8688235294118</v>
+      </c>
+      <c r="V187" t="n">
+        <v>353.47</v>
+      </c>
+      <c r="W187" t="n">
+        <v>365.2233333333333</v>
+      </c>
+      <c r="X187" t="n">
+        <v>367.9488235294118</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>362.7188235294118</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>353.9988235294118</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>357.47</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>360.13</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>363.73</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>359.6185714285714</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>361.3122222222222</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>362.39</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>362.47</v>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20054,7 +20262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21912,6 +22120,26 @@
       </c>
       <c r="B185" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
@@ -22080,28 +22308,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1364983926903481</v>
+        <v>-0.07499774491708039</v>
       </c>
       <c r="J2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K2" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001809495020494878</v>
+        <v>0.0005541397016626259</v>
       </c>
       <c r="M2" t="n">
-        <v>19.59036073504062</v>
+        <v>19.60059460777842</v>
       </c>
       <c r="N2" t="n">
-        <v>572.3224975475026</v>
+        <v>572.3575291095156</v>
       </c>
       <c r="O2" t="n">
-        <v>23.92326268608658</v>
+        <v>23.92399484010803</v>
       </c>
       <c r="P2" t="n">
-        <v>325.3774920752424</v>
+        <v>324.7829463266281</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22151,28 +22379,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3161644771748402</v>
+        <v>-0.2581976656921169</v>
       </c>
       <c r="J3" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K3" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01151075787457889</v>
+        <v>0.007797465442637486</v>
       </c>
       <c r="M3" t="n">
-        <v>17.84520447806944</v>
+        <v>17.89031368694787</v>
       </c>
       <c r="N3" t="n">
-        <v>490.0584265464632</v>
+        <v>491.1521771462477</v>
       </c>
       <c r="O3" t="n">
-        <v>22.13726330300255</v>
+        <v>22.16195336937265</v>
       </c>
       <c r="P3" t="n">
-        <v>330.4725723666073</v>
+        <v>329.9369819481062</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22228,28 +22456,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4127518989642146</v>
+        <v>-0.3589633205000783</v>
       </c>
       <c r="J4" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K4" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02494427221481221</v>
+        <v>0.01917202083213121</v>
       </c>
       <c r="M4" t="n">
-        <v>16.02308300188857</v>
+        <v>16.06165601977125</v>
       </c>
       <c r="N4" t="n">
-        <v>374.9006756382244</v>
+        <v>376.4867419534174</v>
       </c>
       <c r="O4" t="n">
-        <v>19.3623520172066</v>
+        <v>19.40326627022928</v>
       </c>
       <c r="P4" t="n">
-        <v>336.5641384970051</v>
+        <v>336.0644535821737</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22299,28 +22527,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.4695449426410676</v>
+        <v>-0.416299870574532</v>
       </c>
       <c r="J5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04022760075916176</v>
+        <v>0.03212604485421866</v>
       </c>
       <c r="M5" t="n">
-        <v>14.35938558855652</v>
+        <v>14.4282420152458</v>
       </c>
       <c r="N5" t="n">
-        <v>299.4511174213106</v>
+        <v>301.7202240696755</v>
       </c>
       <c r="O5" t="n">
-        <v>17.30465594634319</v>
+        <v>17.37009568395279</v>
       </c>
       <c r="P5" t="n">
-        <v>345.1863107650329</v>
+        <v>344.7008464943458</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22376,28 +22604,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5314222091412221</v>
+        <v>-0.4755890630875467</v>
       </c>
       <c r="J6" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K6" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05597646206156348</v>
+        <v>0.04541473732781753</v>
       </c>
       <c r="M6" t="n">
-        <v>13.45143234578263</v>
+        <v>13.53250061587067</v>
       </c>
       <c r="N6" t="n">
-        <v>276.9753746308225</v>
+        <v>280.4596629536755</v>
       </c>
       <c r="O6" t="n">
-        <v>16.64257716313259</v>
+        <v>16.7469299560748</v>
       </c>
       <c r="P6" t="n">
-        <v>357.6062344609919</v>
+        <v>357.1032170195497</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22447,28 +22675,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.5108222393320356</v>
+        <v>-0.4653269387259258</v>
       </c>
       <c r="J7" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06073472260767632</v>
+        <v>0.05122325965573693</v>
       </c>
       <c r="M7" t="n">
-        <v>12.07630601231976</v>
+        <v>12.13208102656766</v>
       </c>
       <c r="N7" t="n">
-        <v>233.7153637686731</v>
+        <v>235.5252958501426</v>
       </c>
       <c r="O7" t="n">
-        <v>15.28775208356916</v>
+        <v>15.34683341442601</v>
       </c>
       <c r="P7" t="n">
-        <v>370.6732393867825</v>
+        <v>370.2603619600188</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22524,28 +22752,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4591375248782251</v>
+        <v>-0.4100801175664653</v>
       </c>
       <c r="J8" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06064514002098986</v>
+        <v>0.04893152252394106</v>
       </c>
       <c r="M8" t="n">
-        <v>11.05449778807806</v>
+        <v>11.17083827491502</v>
       </c>
       <c r="N8" t="n">
-        <v>188.3095197533326</v>
+        <v>191.2293866112614</v>
       </c>
       <c r="O8" t="n">
-        <v>13.72259158298215</v>
+        <v>13.82857138721355</v>
       </c>
       <c r="P8" t="n">
-        <v>387.5973280864381</v>
+        <v>387.1524013933609</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22601,28 +22829,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3696970027472001</v>
+        <v>-0.3174557027078097</v>
       </c>
       <c r="J9" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K9" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03886815398217647</v>
+        <v>0.02884095389947816</v>
       </c>
       <c r="M9" t="n">
-        <v>10.98673221205147</v>
+        <v>11.11042952767667</v>
       </c>
       <c r="N9" t="n">
-        <v>194.452862553905</v>
+        <v>198.0584689610367</v>
       </c>
       <c r="O9" t="n">
-        <v>13.94463561925893</v>
+        <v>14.07332473017789</v>
       </c>
       <c r="P9" t="n">
-        <v>396.9940245156496</v>
+        <v>396.5198209785275</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22678,28 +22906,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3459768760757568</v>
+        <v>-0.2993564652806586</v>
       </c>
       <c r="J10" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K10" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03877137242557549</v>
+        <v>0.02917379086598448</v>
       </c>
       <c r="M10" t="n">
-        <v>9.957507677887365</v>
+        <v>10.07175532572699</v>
       </c>
       <c r="N10" t="n">
-        <v>172.8161112824964</v>
+        <v>175.9223320825884</v>
       </c>
       <c r="O10" t="n">
-        <v>13.14595417923311</v>
+        <v>13.26357161863231</v>
       </c>
       <c r="P10" t="n">
-        <v>386.8752449283692</v>
+        <v>386.4512505628781</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22755,28 +22983,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3505122363278213</v>
+        <v>-0.3073315408742108</v>
       </c>
       <c r="J11" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K11" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04540889731777442</v>
+        <v>0.03506860836978121</v>
       </c>
       <c r="M11" t="n">
-        <v>9.448862851090281</v>
+        <v>9.561652845821147</v>
       </c>
       <c r="N11" t="n">
-        <v>149.6914661103463</v>
+        <v>152.5174767079706</v>
       </c>
       <c r="O11" t="n">
-        <v>12.23484638687165</v>
+        <v>12.34979662617853</v>
       </c>
       <c r="P11" t="n">
-        <v>379.0491247209174</v>
+        <v>378.6534653732418</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22832,28 +23060,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3160941930706231</v>
+        <v>-0.2622457371286335</v>
       </c>
       <c r="J12" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K12" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03888613943469843</v>
+        <v>0.02648186765431071</v>
       </c>
       <c r="M12" t="n">
-        <v>9.357181513109689</v>
+        <v>9.54582792938162</v>
       </c>
       <c r="N12" t="n">
-        <v>142.9540961762782</v>
+        <v>148.2246046214875</v>
       </c>
       <c r="O12" t="n">
-        <v>11.95634125375645</v>
+        <v>12.17475275401877</v>
       </c>
       <c r="P12" t="n">
-        <v>371.8179798394846</v>
+        <v>371.3251939465489</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22909,28 +23137,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2737424458470044</v>
+        <v>-0.228410298779944</v>
       </c>
       <c r="J13" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K13" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03167614564457</v>
+        <v>0.0219511410155272</v>
       </c>
       <c r="M13" t="n">
-        <v>8.950684787628019</v>
+        <v>9.085173549690968</v>
       </c>
       <c r="N13" t="n">
-        <v>132.9571770773442</v>
+        <v>136.5950898109872</v>
       </c>
       <c r="O13" t="n">
-        <v>11.53070583604248</v>
+        <v>11.68739020530192</v>
       </c>
       <c r="P13" t="n">
-        <v>364.8549979574526</v>
+        <v>364.4392470008176</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22986,28 +23214,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.158284405378902</v>
+        <v>-0.1117058236477437</v>
       </c>
       <c r="J14" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01280118313544232</v>
+        <v>0.006247747865058662</v>
       </c>
       <c r="M14" t="n">
-        <v>7.997972020531636</v>
+        <v>8.15713226832318</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5894174303922</v>
+        <v>115.0598380298654</v>
       </c>
       <c r="O14" t="n">
-        <v>10.51615031417829</v>
+        <v>10.72659489446047</v>
       </c>
       <c r="P14" t="n">
-        <v>359.5944657129518</v>
+        <v>359.1648945629521</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -23063,28 +23291,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1369470830710554</v>
+        <v>-0.1024304074921887</v>
       </c>
       <c r="J15" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K15" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008847335828598757</v>
+        <v>0.00497056817117425</v>
       </c>
       <c r="M15" t="n">
-        <v>8.599018257725161</v>
+        <v>8.668661068230035</v>
       </c>
       <c r="N15" t="n">
-        <v>120.2586735859984</v>
+        <v>121.7601544196323</v>
       </c>
       <c r="O15" t="n">
-        <v>10.96625157407938</v>
+        <v>11.03449837643888</v>
       </c>
       <c r="P15" t="n">
-        <v>358.5757058236657</v>
+        <v>358.2571751456297</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -23140,28 +23368,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.09317744507624406</v>
+        <v>-0.06452040149075118</v>
       </c>
       <c r="J16" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004770947503681233</v>
+        <v>0.002303488799121789</v>
       </c>
       <c r="M16" t="n">
-        <v>8.064339972955866</v>
+        <v>8.117320490225069</v>
       </c>
       <c r="N16" t="n">
-        <v>103.6627677069102</v>
+        <v>104.525912630372</v>
       </c>
       <c r="O16" t="n">
-        <v>10.18149142841608</v>
+        <v>10.22379149975057</v>
       </c>
       <c r="P16" t="n">
-        <v>358.237897637687</v>
+        <v>357.973516347883</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -23217,28 +23445,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06738420533405032</v>
+        <v>-0.0437374435353449</v>
       </c>
       <c r="J17" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K17" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002382521898077528</v>
+        <v>0.001015932216541171</v>
       </c>
       <c r="M17" t="n">
-        <v>8.365508076429274</v>
+        <v>8.389570622603499</v>
       </c>
       <c r="N17" t="n">
-        <v>108.4956011522134</v>
+        <v>108.7045923565256</v>
       </c>
       <c r="O17" t="n">
-        <v>10.41612217440893</v>
+        <v>10.42614945013381</v>
       </c>
       <c r="P17" t="n">
-        <v>352.5366415957723</v>
+        <v>352.3177759408954</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -23294,28 +23522,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.003602730087189798</v>
+        <v>0.02025365742834617</v>
       </c>
       <c r="J18" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K18" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L18" t="n">
-        <v>6.904474839308783e-06</v>
+        <v>0.0002203861902498883</v>
       </c>
       <c r="M18" t="n">
-        <v>8.140589465537152</v>
+        <v>8.157515652882696</v>
       </c>
       <c r="N18" t="n">
-        <v>105.4690281367718</v>
+        <v>105.7271552246592</v>
       </c>
       <c r="O18" t="n">
-        <v>10.26981149470485</v>
+        <v>10.28237108962029</v>
       </c>
       <c r="P18" t="n">
-        <v>347.5229892383026</v>
+        <v>347.2984459341977</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -23371,28 +23599,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1066232721229151</v>
+        <v>0.1195922978362161</v>
       </c>
       <c r="J19" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K19" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005332940807702413</v>
+        <v>0.006796438159465623</v>
       </c>
       <c r="M19" t="n">
-        <v>8.575209866741307</v>
+        <v>8.571634517122538</v>
       </c>
       <c r="N19" t="n">
-        <v>117.3710108011978</v>
+        <v>117.1560226359281</v>
       </c>
       <c r="O19" t="n">
-        <v>10.83379023247164</v>
+        <v>10.82386357249241</v>
       </c>
       <c r="P19" t="n">
-        <v>342.9996981872434</v>
+        <v>342.8765295154811</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -23448,28 +23676,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09992205727403139</v>
+        <v>0.116307557166852</v>
       </c>
       <c r="J20" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K20" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003698412122250194</v>
+        <v>0.005083697674672205</v>
       </c>
       <c r="M20" t="n">
-        <v>9.52142685219555</v>
+        <v>9.508818245871351</v>
       </c>
       <c r="N20" t="n">
-        <v>147.6619784515147</v>
+        <v>147.1734914507183</v>
       </c>
       <c r="O20" t="n">
-        <v>12.15162451903097</v>
+        <v>12.13150821005856</v>
       </c>
       <c r="P20" t="n">
-        <v>343.814244009683</v>
+        <v>343.6577833111365</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -23525,28 +23753,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06341072309664267</v>
+        <v>0.07786097057045109</v>
       </c>
       <c r="J21" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K21" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001435140093790199</v>
+        <v>0.002195231269318643</v>
       </c>
       <c r="M21" t="n">
-        <v>9.655872405149189</v>
+        <v>9.645618460735673</v>
       </c>
       <c r="N21" t="n">
-        <v>153.901981982835</v>
+        <v>153.5045193367823</v>
       </c>
       <c r="O21" t="n">
-        <v>12.40572375892817</v>
+        <v>12.38969407761073</v>
       </c>
       <c r="P21" t="n">
-        <v>347.2625597914155</v>
+        <v>347.1252702866762</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -23602,28 +23830,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.08420610001367909</v>
+        <v>-0.06682326134905453</v>
       </c>
       <c r="J22" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00231838355325209</v>
+        <v>0.001484948896482763</v>
       </c>
       <c r="M22" t="n">
-        <v>10.07235597843962</v>
+        <v>10.05216103160834</v>
       </c>
       <c r="N22" t="n">
-        <v>170.0918581154984</v>
+        <v>169.4008134566259</v>
       </c>
       <c r="O22" t="n">
-        <v>13.04192693260848</v>
+        <v>13.01540677261475</v>
       </c>
       <c r="P22" t="n">
-        <v>354.1311762802406</v>
+        <v>353.9663671311653</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -23679,28 +23907,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06678808012203163</v>
+        <v>-0.04364773919123</v>
       </c>
       <c r="J23" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K23" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001383558416666264</v>
+        <v>0.0006003271339715122</v>
       </c>
       <c r="M23" t="n">
-        <v>10.36944025077506</v>
+        <v>10.38295310194348</v>
       </c>
       <c r="N23" t="n">
-        <v>179.4687616669774</v>
+        <v>178.9335527657906</v>
       </c>
       <c r="O23" t="n">
-        <v>13.39659515201446</v>
+        <v>13.37660468002963</v>
       </c>
       <c r="P23" t="n">
-        <v>360.40271799733</v>
+        <v>360.1830034791541</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -23756,28 +23984,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02246305133631363</v>
+        <v>0.002890929050564421</v>
       </c>
       <c r="J24" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K24" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001423118398942158</v>
+        <v>2.392319555566402e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>10.90853705388539</v>
+        <v>10.93422937959513</v>
       </c>
       <c r="N24" t="n">
-        <v>199.1248613122662</v>
+        <v>198.5028055660559</v>
       </c>
       <c r="O24" t="n">
-        <v>14.11116087755597</v>
+        <v>14.08910236906723</v>
       </c>
       <c r="P24" t="n">
-        <v>358.5883811461413</v>
+        <v>358.3475389954174</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -23833,28 +24061,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02873608387547861</v>
+        <v>0.05733981740249873</v>
       </c>
       <c r="J25" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K25" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002201844768916494</v>
+        <v>0.0008875451180084815</v>
       </c>
       <c r="M25" t="n">
-        <v>11.15731666222423</v>
+        <v>11.1972803257425</v>
       </c>
       <c r="N25" t="n">
-        <v>210.0464797512679</v>
+        <v>209.821678052665</v>
       </c>
       <c r="O25" t="n">
-        <v>14.4929803612393</v>
+        <v>14.48522274777523</v>
       </c>
       <c r="P25" t="n">
-        <v>352.668711634049</v>
+        <v>352.3974919866274</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -23910,28 +24138,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0845759767682473</v>
+        <v>0.106260339540164</v>
       </c>
       <c r="J26" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001484370615807862</v>
+        <v>0.00238173159066557</v>
       </c>
       <c r="M26" t="n">
-        <v>12.47564989158333</v>
+        <v>12.43954569700668</v>
       </c>
       <c r="N26" t="n">
-        <v>274.4241770588579</v>
+        <v>272.9084226958281</v>
       </c>
       <c r="O26" t="n">
-        <v>16.56575313889646</v>
+        <v>16.51994015412368</v>
       </c>
       <c r="P26" t="n">
-        <v>347.1811651224129</v>
+        <v>346.9788484817387</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -23987,28 +24215,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2165613562599419</v>
+        <v>0.2403438270764785</v>
       </c>
       <c r="J27" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K27" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L27" t="n">
-        <v>0.008537148797493899</v>
+        <v>0.01067464727508005</v>
       </c>
       <c r="M27" t="n">
-        <v>13.49856200207658</v>
+        <v>13.48453815592553</v>
       </c>
       <c r="N27" t="n">
-        <v>311.8703927417719</v>
+        <v>310.0025307109578</v>
       </c>
       <c r="O27" t="n">
-        <v>17.65985256851744</v>
+        <v>17.60688872887421</v>
       </c>
       <c r="P27" t="n">
-        <v>342.7459679284486</v>
+        <v>342.523167062826</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -24064,28 +24292,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4028562071197063</v>
+        <v>0.4093067342022532</v>
       </c>
       <c r="J28" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K28" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02864781908375591</v>
+        <v>0.02986464605691863</v>
       </c>
       <c r="M28" t="n">
-        <v>13.87239124725114</v>
+        <v>13.82991483075713</v>
       </c>
       <c r="N28" t="n">
-        <v>312.5662336922292</v>
+        <v>311.0018583197406</v>
       </c>
       <c r="O28" t="n">
-        <v>17.67954280212668</v>
+        <v>17.63524477629218</v>
       </c>
       <c r="P28" t="n">
-        <v>341.1568267877814</v>
+        <v>341.0959847610358</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -24141,28 +24369,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4073978508507929</v>
+        <v>0.4140686059516263</v>
       </c>
       <c r="J29" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K29" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02566330452595689</v>
+        <v>0.02677915949507792</v>
       </c>
       <c r="M29" t="n">
-        <v>14.34958135458504</v>
+        <v>14.30544103249337</v>
       </c>
       <c r="N29" t="n">
-        <v>356.836505857617</v>
+        <v>355.0105714579833</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8901166184229</v>
+        <v>18.8417242166948</v>
       </c>
       <c r="P29" t="n">
-        <v>343.5645469855212</v>
+        <v>343.5014045077222</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -24218,28 +24446,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5947254235194096</v>
+        <v>0.5974916724552634</v>
       </c>
       <c r="J30" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K30" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0514985640171175</v>
+        <v>0.05255890973827371</v>
       </c>
       <c r="M30" t="n">
-        <v>14.90994139278975</v>
+        <v>14.84064996808875</v>
       </c>
       <c r="N30" t="n">
-        <v>375.0879863164549</v>
+        <v>372.9302790403747</v>
       </c>
       <c r="O30" t="n">
-        <v>19.36718839471684</v>
+        <v>19.31140282424803</v>
       </c>
       <c r="P30" t="n">
-        <v>346.0450413694218</v>
+        <v>346.0193689255791</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -24295,28 +24523,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4778900965150614</v>
+        <v>0.4798920581714301</v>
       </c>
       <c r="J31" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K31" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03315277279593254</v>
+        <v>0.03382065232378284</v>
       </c>
       <c r="M31" t="n">
-        <v>15.27535792750226</v>
+        <v>15.19762984941835</v>
       </c>
       <c r="N31" t="n">
-        <v>379.0890767942199</v>
+        <v>376.8644594053646</v>
       </c>
       <c r="O31" t="n">
-        <v>19.47020998331091</v>
+        <v>19.4129971772873</v>
       </c>
       <c r="P31" t="n">
-        <v>345.628846306099</v>
+        <v>345.6100168349602</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -24372,28 +24600,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4108757185001733</v>
+        <v>0.416202466010104</v>
       </c>
       <c r="J32" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K32" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02382092672243685</v>
+        <v>0.02471907433546527</v>
       </c>
       <c r="M32" t="n">
-        <v>15.54307641576064</v>
+        <v>15.48435124950549</v>
       </c>
       <c r="N32" t="n">
-        <v>389.1318318101214</v>
+        <v>386.9432926218377</v>
       </c>
       <c r="O32" t="n">
-        <v>19.72642470926045</v>
+        <v>19.67087422108732</v>
       </c>
       <c r="P32" t="n">
-        <v>346.14383000148</v>
+        <v>346.0933470054856</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -24449,28 +24677,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.471574293326238</v>
+        <v>0.4735856094915624</v>
       </c>
       <c r="J33" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K33" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03128285993424618</v>
+        <v>0.03193217405894289</v>
       </c>
       <c r="M33" t="n">
-        <v>15.73873420389206</v>
+        <v>15.65848388826947</v>
       </c>
       <c r="N33" t="n">
-        <v>390.5904133282255</v>
+        <v>388.2972335070498</v>
       </c>
       <c r="O33" t="n">
-        <v>19.76336037540745</v>
+        <v>19.70525903171663</v>
       </c>
       <c r="P33" t="n">
-        <v>348.5858201459213</v>
+        <v>348.5670458946956</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -24526,28 +24754,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3507824917944289</v>
+        <v>0.3487538767011466</v>
       </c>
       <c r="J34" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K34" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01680514203612804</v>
+        <v>0.01682925519068479</v>
       </c>
       <c r="M34" t="n">
-        <v>16.41319819479908</v>
+        <v>16.32159856976319</v>
       </c>
       <c r="N34" t="n">
-        <v>405.9165396636411</v>
+        <v>403.4741578186571</v>
       </c>
       <c r="O34" t="n">
-        <v>20.1473705396918</v>
+        <v>20.08666616984155</v>
       </c>
       <c r="P34" t="n">
-        <v>355.2377929737531</v>
+        <v>355.2568040453629</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -24584,7 +24812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI185"/>
+  <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55349,6 +55577,332 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>-34.42601673476511,172.96361250130167</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>-34.42599224960227,172.96451044648938</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>-34.425969800106635,172.96540843232404</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-34.42587882842146,172.96630504374497</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>-34.42572532109657,172.96720039944623</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>-34.42565066292474,172.9680973356794</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>-34.42545261683022,172.96897041317237</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>-34.42525402618326,172.9697330688746</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>-34.425051477709424,172.97053015633165</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>-34.424804810218234,172.97138104253682</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>-34.42451475780685,172.97220798128905</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>-34.42426385668052,172.9730565329129</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>-34.42394523492671,172.9738677027182</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>-34.423726505836676,172.9747334590083</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>-34.42342362272414,172.97554867156742</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>-34.42311267762063,172.9763639913834</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>-34.42276791199166,172.97715980788843</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>-34.42241683815271,172.97795125124236</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>-34.42203814308785,172.97872354139892</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>-34.42164347753334,172.97948475745704</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>-34.421254467339445,172.9802498962782</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>-34.4208335742918,172.9809859372713</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>-34.4204088490024,172.98170704829394</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>-34.41993666517004,172.98239596764387</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>-34.41949095488255,172.98311587361562</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>-34.41902136714971,172.9838110511038</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>-34.42595740258249,172.96361131256884</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-34.425945565884234,172.9645095108488</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-34.425908965092795,172.9654072126417</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-34.425849766087524,172.96630446087374</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-34.42575113444067,172.96720091733297</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-34.42563157684499,172.96809695262897</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-34.42545678763664,172.9689707999155</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-34.425248948460634,172.96973127543478</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>-34.425056019845094,172.970532663569</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>-34.42483625181121,172.97139839835614</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>-34.42453717818348,172.97222035750872</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>-34.424329929543504,172.9730930060828</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>-34.42406468246076,172.97393364016537</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>-34.42376730335491,172.97475629125142</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>-34.423474057266375,172.9755803973552</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>-34.423163385259244,172.97639915487116</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>-34.4228246977586,172.97719918659527</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>-34.42254308304929,172.97803879788356</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>-34.422148436570765,172.97880002676683</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>-34.421779392420504,172.97957901116555</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>-34.42135893064717,172.98032233951113</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>-34.42089863127726,172.9810375953859</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>-34.42043827105035,172.9817355270355</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>-34.41999258986225,172.98245389257528</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>-34.41957000912135,172.98319775573452</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>-34.419074127479725,172.98386569890715</t>
+        </is>
+      </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>-34.41858174117508,172.98453726527592</t>
+        </is>
+      </c>
+      <c r="AC187" t="inlineStr">
+        <is>
+          <t>-34.418081277359065,172.98520046793539</t>
+        </is>
+      </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>-34.417574309849186,172.98585763414914</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>-34.41706451032673,172.98651152895607</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>-34.41651246113291,172.98711163607706</t>
+        </is>
+      </c>
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>-34.415964371407206,172.9877163877809</t>
+        </is>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>-34.41542241691796,172.9883290782322</t>
+        </is>
+      </c>
+      <c r="AI187" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -22153,7 +22153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22244,35 +22244,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22331,27 +22336,28 @@
       <c r="P2" t="n">
         <v>324.7829463266281</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.9636744423328 -34.429108229212424, 172.96350667648758 -34.420734470089414)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.9636744423328</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.42910822921242</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.9635066764876</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.42073447008941</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.9635905594102</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.42492134965092</v>
       </c>
     </row>
@@ -22402,27 +22408,28 @@
       <c r="P3" t="n">
         <v>329.9369819481062</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.96457265005697 -34.42909577744341, 172.9644048263665 -34.42072201862039)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.964572650057</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.42909577744341</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.9644048263665</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.42072201862039</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.9644887382117</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.4249088980319</v>
       </c>
     </row>
@@ -22479,27 +22486,28 @@
       <c r="P4" t="n">
         <v>336.0644535821737</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.96547085778118 -34.4290833256721, 172.96530297624528 -34.420709567150375)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.9654708577812</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.4290833256721</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.9653029762453</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.42070956715038</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.9653869170132</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.42489644641124</v>
       </c>
     </row>
@@ -22550,27 +22558,28 @@
       <c r="P5" t="n">
         <v>344.7008464943458</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.96636906550518 -34.4290708738985, 172.96620112612433 -34.42069711567941)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.9663690655052</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.4290708738985</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.9662011261243</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.42069711567941</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.9662850958148</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.42488399478896</v>
       </c>
     </row>
@@ -22627,27 +22636,28 @@
       <c r="P6" t="n">
         <v>357.1032170195497</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.96726727322928 -34.429058422122594, 172.9670992760034 -34.42068466420747)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.9672672732293</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.42905842212259</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.9670992760034</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.42068466420747</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.9671832746163</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.42487154316503</v>
       </c>
     </row>
@@ -22698,27 +22708,28 @@
       <c r="P7" t="n">
         <v>370.2603619600188</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.9681654809533 -34.42904597034441, 172.9679974258825 -34.42067221273453)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.9681654809533</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.42904597034441</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.9679974258825</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.42067221273453</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.9680814534179</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.42485909153947</v>
       </c>
     </row>
@@ -22775,27 +22786,28 @@
       <c r="P8" t="n">
         <v>387.1524013933609</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.96930161976687 -34.42902434041126, 172.96852733190866 -34.4206739618878)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.9693016197669</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.42902434041126</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.9685273319087</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.4206739618878</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.9689144758378</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.42484915114953</v>
       </c>
     </row>
@@ -22852,27 +22864,28 @@
       <c r="P9" t="n">
         <v>396.5198209785275</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.97098628791008 -34.42880207743268, 172.968147047684 -34.42076331139009)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.9709862879101</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.42880207743268</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.968147047684</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.42076331139009</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.969566667797</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.42478269441138</v>
       </c>
     </row>
@@ -22929,27 +22942,28 @@
       <c r="P10" t="n">
         <v>386.4512505628781</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.97233947366436 -34.428329112759435, 172.96813434628677 -34.42071095545873)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.9723394736644</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.42832911275944</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.9681343462868</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.42071095545873</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.9702369099756</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.42452003410908</v>
       </c>
     </row>
@@ -23006,27 +23020,28 @@
       <c r="P11" t="n">
         <v>378.6534653732418</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.97315655722386 -34.42802117572284, 172.96895139187592 -34.420403026340225)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.9731565572239</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.42802117572284</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.9689513918759</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.42040302634022</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.9710539745499</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.42421210103153</v>
       </c>
     </row>
@@ -23083,27 +23098,28 @@
       <c r="P12" t="n">
         <v>371.3251939465489</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.97397364078287 -34.42771323755169, 172.96976843746603 -34.420095096087955)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.9739736407829</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.42771323755169</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.969768437466</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.42009509608796</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.9718710391244</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.42390416681982</v>
       </c>
     </row>
@@ -23160,27 +23176,28 @@
       <c r="P13" t="n">
         <v>364.4392470008176</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.97479072434137 -34.42740529824605, 172.97058548305725 -34.41978716470193)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.9747907243414</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.42740529824605</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.9705854830572</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.41978716470193</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.9726881036993</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.42359623147399</v>
       </c>
     </row>
@@ -23237,27 +23254,28 @@
       <c r="P14" t="n">
         <v>359.1648945629521</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.9756078078993 -34.427097357805856, 172.97140252864943 -34.419479232182134)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.9756078078993</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.42709735780586</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.9714025286494</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.41947923218213</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.9735051682744</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.42328829499399</v>
       </c>
     </row>
@@ -23314,27 +23332,28 @@
       <c r="P15" t="n">
         <v>358.2571751456297</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.9764436798073 -34.42678227106004, 172.97219049461572 -34.4191823643458)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.9764436798073</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.42678227106004</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.9721904946157</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.4191823643458</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.9743170872115</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.42298231770292</v>
       </c>
     </row>
@@ -23391,27 +23410,28 @@
       <c r="P16" t="n">
         <v>357.973516347883</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.97742132962057 -34.426400472147115, 172.97274812311656 -34.4189713132017)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.9774213296206</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.42640047214712</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.9727481231166</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.4189713132017</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.9750847263686</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.42268589267441</v>
       </c>
     </row>
@@ -23468,27 +23488,28 @@
       <c r="P17" t="n">
         <v>352.3177759408954</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.97834340664323 -34.425966989154404, 172.97330597710916 -34.41870258239794)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.9783434066432</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.4259669891544</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.9733059771092</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.41870258239794</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.9758246918762</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.42233478577617</v>
       </c>
     </row>
@@ -23545,27 +23566,28 @@
       <c r="P18" t="n">
         <v>347.2984459341977</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.97912253728688 -34.42559814161761, 172.97408507845634 -34.41833374391877)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.9791225372869</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.42559814161761</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.9740850784563</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.41833374391877</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.9766038078716</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.4219659427682</v>
       </c>
     </row>
@@ -23622,27 +23644,28 @@
       <c r="P19" t="n">
         <v>342.8765295154811</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.97990166792985 -34.425229292453444, 172.97486417980483 -34.41796490381263)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.9799016679299</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.42522929245344</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.9748641798048</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.41796490381263</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.9773829238673</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.42159709813303</v>
       </c>
     </row>
@@ -23699,27 +23722,28 @@
       <c r="P20" t="n">
         <v>343.6577833111365</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.98068079857242 -34.42486044166185, 172.97564328115425 -34.417596062079646)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.9806807985724</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.42486044166185</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>172.9756432811542</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.41759606207965</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>172.9781620398633</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.42122825187074</v>
       </c>
     </row>
@@ -23776,27 +23800,28 @@
       <c r="P21" t="n">
         <v>347.1252702866762</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.98145992921437 -34.424491589242855, 172.97642238250478 -34.41722721871984)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.9814599292144</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.42449158924286</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>172.9764223825048</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.41722721871984</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>172.9789411558596</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.42085940398135</v>
       </c>
     </row>
@@ -23853,27 +23878,28 @@
       <c r="P22" t="n">
         <v>353.9663671311653</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.98223905985589 -34.424122735196406, 172.97720148385625 -34.41685837373317)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.9822390598559</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.42412273519641</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>172.9772014838562</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.41685837373317</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>172.9797202718561</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.42049055446479</v>
       </c>
     </row>
@@ -23930,27 +23956,28 @@
       <c r="P23" t="n">
         <v>360.1830034791541</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (172.9832224439744 -34.42365006413656, 172.97766444896374 -34.41665031319407)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>172.9832224439744</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.42365006413656</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>172.9776644489637</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.41665031319407</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>172.9804434464691</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.42015018866532</v>
       </c>
     </row>
@@ -24007,27 +24034,28 @@
       <c r="P24" t="n">
         <v>358.3475389954174</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (172.9842410654661 -34.42302669371794, 172.97791353527003 -34.41648943808315)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>172.9842410654661</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.42302669371794</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>172.97791353527</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.41648943808315</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>172.9810773003681</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.41975806590054</v>
       </c>
     </row>
@@ -24084,27 +24112,28 @@
       <c r="P25" t="n">
         <v>352.3974919866274</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (172.98502488993046 -34.422474703506786, 172.97843806097646 -34.416115188760784)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>172.9850248899305</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.42247470350679</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>172.9784380609765</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.41611518876078</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>172.9817314754534</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.41929494613379</v>
       </c>
     </row>
@@ -24161,27 +24190,28 @@
       <c r="P26" t="n">
         <v>346.9788484817387</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (172.98570694473742 -34.42199244160451, 172.97912010678905 -34.415632937240105)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>172.9857069447374</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.42199244160451</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>172.9791201067891</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.4156329372401</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>172.9824135257632</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.41881268942231</v>
       </c>
     </row>
@@ -24238,27 +24268,28 @@
       <c r="P27" t="n">
         <v>342.523167062826</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (172.98638899954392 -34.421510176920705, 172.97980215260256 -34.41515068293805)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>172.9863889995439</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.42151017692071</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>172.9798021526026</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.41515068293805</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>172.9830955760733</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.41833042992938</v>
       </c>
     </row>
@@ -24315,27 +24346,28 @@
       <c r="P28" t="n">
         <v>341.0959847610358</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (172.98707105434997 -34.42102790945545, 172.98048419841695 -34.41466842585463)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>172.98707105435</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.42102790945545</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>172.9804841984169</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.41466842585463</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>172.9837776263835</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.41784816765504</v>
       </c>
     </row>
@@ -24392,27 +24424,28 @@
       <c r="P29" t="n">
         <v>343.5014045077222</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (172.9877531091556 -34.42054563920872, 172.98116624423216 -34.41418616598992)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>172.9877531091556</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.42054563920872</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>172.9811662442322</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.41418616598992</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>172.9844596766939</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.41736590259931</v>
       </c>
     </row>
@@ -24469,27 +24502,28 @@
       <c r="P30" t="n">
         <v>346.0193689255791</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (172.98858104310048 -34.41995468789839, 172.9816224969445 -34.41387222520641)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>172.9885810431005</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.41995468789839</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>172.9816224969445</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.41387222520641</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>172.9851017700225</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.4169134565524</v>
       </c>
     </row>
@@ -24546,27 +24580,28 @@
       <c r="P31" t="n">
         <v>345.6100168349602</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (172.9893571181961 -34.419290933425394, 172.98200257481793 -34.41353627180109)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>172.9893571181961</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.41929093342539</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>172.9820025748179</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.41353627180109</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>172.985679846507</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.41641360261325</v>
       </c>
     </row>
@@ -24623,27 +24658,28 @@
       <c r="P32" t="n">
         <v>346.0933470054856</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (172.9899864659031 -34.418735367923446, 172.9825910874708 -34.41301665782468)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>172.9899864659031</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.41873536792345</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>172.9825910874708</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.41301665782468</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>172.9862887766869</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.41587601287407</v>
       </c>
     </row>
@@ -24700,27 +24736,28 @@
       <c r="P33" t="n">
         <v>348.5670458946956</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (172.99059978483163 -34.418193899961516, 172.98320441015105 -34.41247520034833)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>172.9905997848316</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.41819389996152</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>172.983204410151</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.41247520034833</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>172.9869020974913</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.41533455015492</v>
       </c>
     </row>
@@ -24777,27 +24814,28 @@
       <c r="P34" t="n">
         <v>355.2568040453629</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (172.99121310375978 -34.417652428493795, 172.98381773283202 -34.411933739366006)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>172.9912131037598</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-34.4176524284938</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>172.983817732832</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-34.41193373936601</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>172.9875154182959</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-34.4147930839299</v>
       </c>
     </row>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI187"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20251,6 +20251,222 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="C188" t="n">
+        <v>358.8127272727273</v>
+      </c>
+      <c r="D188" t="n">
+        <v>361.21</v>
+      </c>
+      <c r="E188" t="n">
+        <v>364.4421739130435</v>
+      </c>
+      <c r="F188" t="n">
+        <v>365.9927272727273</v>
+      </c>
+      <c r="G188" t="n">
+        <v>383.21</v>
+      </c>
+      <c r="H188" t="n">
+        <v>397.3253846153846</v>
+      </c>
+      <c r="I188" t="n">
+        <v>412.63</v>
+      </c>
+      <c r="J188" t="n">
+        <v>408.3953846153846</v>
+      </c>
+      <c r="K188" t="n">
+        <v>397.2153846153847</v>
+      </c>
+      <c r="L188" t="n">
+        <v>382.0453846153847</v>
+      </c>
+      <c r="M188" t="n">
+        <v>383.11</v>
+      </c>
+      <c r="N188" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="O188" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="P188" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>364.07</v>
+      </c>
+      <c r="R188" t="n">
+        <v>354.2929411764706</v>
+      </c>
+      <c r="S188" t="n">
+        <v>358.0366666666667</v>
+      </c>
+      <c r="T188" t="n">
+        <v>358.8166666666667</v>
+      </c>
+      <c r="U188" t="n">
+        <v>366.6329411764706</v>
+      </c>
+      <c r="V188" t="n">
+        <v>369.81</v>
+      </c>
+      <c r="W188" t="n">
+        <v>381.8366666666667</v>
+      </c>
+      <c r="X188" t="n">
+        <v>376.3329411764706</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>368.0829411764706</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>371.0729411764706</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>369.77</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>375.98</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>366.9314285714286</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>368.6744444444445</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>366.64</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>368.62</v>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>359.1004347826087</v>
+      </c>
+      <c r="F189" t="n">
+        <v>366.3081818181818</v>
+      </c>
+      <c r="G189" t="n">
+        <v>374.85</v>
+      </c>
+      <c r="H189" t="n">
+        <v>388.2246153846153</v>
+      </c>
+      <c r="I189" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="J189" t="n">
+        <v>396.4546153846154</v>
+      </c>
+      <c r="K189" t="n">
+        <v>389.8646153846154</v>
+      </c>
+      <c r="L189" t="n">
+        <v>375.4646153846153</v>
+      </c>
+      <c r="M189" t="n">
+        <v>364.37</v>
+      </c>
+      <c r="N189" t="n">
+        <v>356.115</v>
+      </c>
+      <c r="O189" t="n">
+        <v>350.85</v>
+      </c>
+      <c r="P189" t="n">
+        <v>354.8200000000001</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>345.595</v>
+      </c>
+      <c r="R189" t="n">
+        <v>341.015294117647</v>
+      </c>
+      <c r="S189" t="n">
+        <v>341.9666666666667</v>
+      </c>
+      <c r="T189" t="n">
+        <v>342.7266666666667</v>
+      </c>
+      <c r="U189" t="n">
+        <v>349.4852941176471</v>
+      </c>
+      <c r="V189" t="n">
+        <v>356.62</v>
+      </c>
+      <c r="W189" t="n">
+        <v>362.3166666666667</v>
+      </c>
+      <c r="X189" t="n">
+        <v>373.6852941176471</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>384.2752941176471</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>365.5552941176471</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>360.27</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>371.57</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>371.08</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>360.83</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>357.7542857142857</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>349.7544444444445</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>354.57</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>351.85</v>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20262,7 +20478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22140,6 +22356,26 @@
       </c>
       <c r="B187" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -22313,28 +22549,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07499774491708039</v>
+        <v>-0.02957749705245881</v>
       </c>
       <c r="J2" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005541397016626259</v>
+        <v>8.603727456302224e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>19.60059460777842</v>
+        <v>19.67635839914769</v>
       </c>
       <c r="N2" t="n">
-        <v>572.3575291095156</v>
+        <v>577.2609143644576</v>
       </c>
       <c r="O2" t="n">
-        <v>23.92399484010803</v>
+        <v>24.0262546886621</v>
       </c>
       <c r="P2" t="n">
-        <v>324.7829463266281</v>
+        <v>324.3419971688508</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22385,28 +22621,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2581976656921169</v>
+        <v>-0.2164829996102112</v>
       </c>
       <c r="J3" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K3" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007797465442637486</v>
+        <v>0.005479883346018122</v>
       </c>
       <c r="M3" t="n">
-        <v>17.89031368694787</v>
+        <v>17.9724982193384</v>
       </c>
       <c r="N3" t="n">
-        <v>491.1521771462477</v>
+        <v>495.7975412776756</v>
       </c>
       <c r="O3" t="n">
-        <v>22.16195336937265</v>
+        <v>22.26651165489726</v>
       </c>
       <c r="P3" t="n">
-        <v>329.9369819481062</v>
+        <v>329.549945478384</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22463,28 +22699,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3589633205000783</v>
+        <v>-0.3186464040849853</v>
       </c>
       <c r="J4" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K4" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01917202083213121</v>
+        <v>0.01508450040084686</v>
       </c>
       <c r="M4" t="n">
-        <v>16.06165601977125</v>
+        <v>16.14136537462119</v>
       </c>
       <c r="N4" t="n">
-        <v>376.4867419534174</v>
+        <v>381.2657033051685</v>
       </c>
       <c r="O4" t="n">
-        <v>19.40326627022928</v>
+        <v>19.52602630606567</v>
       </c>
       <c r="P4" t="n">
-        <v>336.0644535821737</v>
+        <v>335.6884493874538</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22535,28 +22771,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.416299870574532</v>
+        <v>-0.3523527398069189</v>
       </c>
       <c r="J5" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K5" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03212604485421866</v>
+        <v>0.02314710426073863</v>
       </c>
       <c r="M5" t="n">
-        <v>14.4282420152458</v>
+        <v>14.55866596619747</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7202240696755</v>
+        <v>307.1077838909449</v>
       </c>
       <c r="O5" t="n">
-        <v>17.37009568395279</v>
+        <v>17.5244909738042</v>
       </c>
       <c r="P5" t="n">
-        <v>344.7008464943458</v>
+        <v>344.1150994723049</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22613,28 +22849,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4755890630875467</v>
+        <v>-0.4279308693685869</v>
       </c>
       <c r="J6" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K6" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04541473732781753</v>
+        <v>0.03734160358020977</v>
       </c>
       <c r="M6" t="n">
-        <v>13.53250061587067</v>
+        <v>13.57803992370988</v>
       </c>
       <c r="N6" t="n">
-        <v>280.4596629536755</v>
+        <v>282.2992618592741</v>
       </c>
       <c r="O6" t="n">
-        <v>16.7469299560748</v>
+        <v>16.80176365323813</v>
       </c>
       <c r="P6" t="n">
-        <v>357.1032170195497</v>
+        <v>356.6715692741576</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22685,28 +22921,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4653269387259258</v>
+        <v>-0.4195114544360636</v>
       </c>
       <c r="J7" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05122325965573693</v>
+        <v>0.04217616866852536</v>
       </c>
       <c r="M7" t="n">
-        <v>12.13208102656766</v>
+        <v>12.20165501940754</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5252958501426</v>
+        <v>237.8291565132215</v>
       </c>
       <c r="O7" t="n">
-        <v>15.34683341442601</v>
+        <v>15.4217105573027</v>
       </c>
       <c r="P7" t="n">
-        <v>370.2603619600188</v>
+        <v>369.8425793997531</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22763,28 +22999,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4100801175664653</v>
+        <v>-0.3736869958176796</v>
       </c>
       <c r="J8" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04893152252394106</v>
+        <v>0.04131401283840652</v>
       </c>
       <c r="M8" t="n">
-        <v>11.17083827491502</v>
+        <v>11.22578709387763</v>
       </c>
       <c r="N8" t="n">
-        <v>191.2293866112614</v>
+        <v>192.184668428188</v>
       </c>
       <c r="O8" t="n">
-        <v>13.82857138721355</v>
+        <v>13.86306850694275</v>
       </c>
       <c r="P8" t="n">
-        <v>387.1524013933609</v>
+        <v>386.8207069427344</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22841,28 +23077,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3174557027078097</v>
+        <v>-0.2730671795211277</v>
       </c>
       <c r="J9" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K9" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02884095389947816</v>
+        <v>0.02153616761641164</v>
       </c>
       <c r="M9" t="n">
-        <v>11.11042952767667</v>
+        <v>11.19855808157834</v>
       </c>
       <c r="N9" t="n">
-        <v>198.0584689610367</v>
+        <v>200.4333845145399</v>
       </c>
       <c r="O9" t="n">
-        <v>14.07332473017789</v>
+        <v>14.15744978852264</v>
       </c>
       <c r="P9" t="n">
-        <v>396.5198209785275</v>
+        <v>396.114941380656</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22919,28 +23155,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2993564652806586</v>
+        <v>-0.2490622206795511</v>
       </c>
       <c r="J10" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02917379086598448</v>
+        <v>0.02010963946957356</v>
       </c>
       <c r="M10" t="n">
-        <v>10.07175532572699</v>
+        <v>10.2180561803317</v>
       </c>
       <c r="N10" t="n">
-        <v>175.9223320825884</v>
+        <v>180.5290293547267</v>
       </c>
       <c r="O10" t="n">
-        <v>13.26357161863231</v>
+        <v>13.43610915982476</v>
       </c>
       <c r="P10" t="n">
-        <v>386.4512505628781</v>
+        <v>385.9915110117204</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22997,28 +23233,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3073315408742108</v>
+        <v>-0.2598193741142829</v>
       </c>
       <c r="J11" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03506860836978121</v>
+        <v>0.0249593035045137</v>
       </c>
       <c r="M11" t="n">
-        <v>9.561652845821147</v>
+        <v>9.703310270312722</v>
       </c>
       <c r="N11" t="n">
-        <v>152.5174767079706</v>
+        <v>156.6157271336155</v>
       </c>
       <c r="O11" t="n">
-        <v>12.34979662617853</v>
+        <v>12.51462053494294</v>
       </c>
       <c r="P11" t="n">
-        <v>378.6534653732418</v>
+        <v>378.215741930776</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23075,28 +23311,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2622457371286335</v>
+        <v>-0.2324370250623156</v>
       </c>
       <c r="J12" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K12" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02648186765431071</v>
+        <v>0.02108463481360201</v>
       </c>
       <c r="M12" t="n">
-        <v>9.54582792938162</v>
+        <v>9.602553362102585</v>
       </c>
       <c r="N12" t="n">
-        <v>148.2246046214875</v>
+        <v>148.858971705386</v>
       </c>
       <c r="O12" t="n">
-        <v>12.17475275401877</v>
+        <v>12.20077750413415</v>
       </c>
       <c r="P12" t="n">
-        <v>371.3251939465489</v>
+        <v>371.050974221023</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23153,28 +23389,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.228410298779944</v>
+        <v>-0.1967608883150943</v>
       </c>
       <c r="J13" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K13" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0219511410155272</v>
+        <v>0.01634121486854778</v>
       </c>
       <c r="M13" t="n">
-        <v>9.085173549690968</v>
+        <v>9.150331981400969</v>
       </c>
       <c r="N13" t="n">
-        <v>136.5950898109872</v>
+        <v>138.5675454862011</v>
       </c>
       <c r="O13" t="n">
-        <v>11.68739020530192</v>
+        <v>11.77147167885991</v>
       </c>
       <c r="P13" t="n">
-        <v>364.4392470008176</v>
+        <v>364.1473696392218</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23231,28 +23467,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1117058236477437</v>
+        <v>-0.09096369883152879</v>
       </c>
       <c r="J14" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006247747865058662</v>
+        <v>0.004170159436709731</v>
       </c>
       <c r="M14" t="n">
-        <v>8.15713226832318</v>
+        <v>8.18530914179331</v>
       </c>
       <c r="N14" t="n">
-        <v>115.0598380298654</v>
+        <v>115.951432194373</v>
       </c>
       <c r="O14" t="n">
-        <v>10.72659489446047</v>
+        <v>10.76807467444264</v>
       </c>
       <c r="P14" t="n">
-        <v>359.1648945629521</v>
+        <v>358.97250969674</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23309,28 +23545,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1024304074921887</v>
+        <v>-0.08832139982910706</v>
       </c>
       <c r="J15" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00497056817117425</v>
+        <v>0.003727062549171878</v>
       </c>
       <c r="M15" t="n">
-        <v>8.668661068230035</v>
+        <v>8.695160720055927</v>
       </c>
       <c r="N15" t="n">
-        <v>121.7601544196323</v>
+        <v>122.3632369182724</v>
       </c>
       <c r="O15" t="n">
-        <v>11.03449837643888</v>
+        <v>11.0617917589454</v>
       </c>
       <c r="P15" t="n">
-        <v>358.2571751456297</v>
+        <v>358.1263661140467</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23387,28 +23623,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.06452040149075118</v>
+        <v>-0.04834742096883633</v>
       </c>
       <c r="J16" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002303488799121789</v>
+        <v>0.001305448935902676</v>
       </c>
       <c r="M16" t="n">
-        <v>8.117320490225069</v>
+        <v>8.128900597044115</v>
       </c>
       <c r="N16" t="n">
-        <v>104.525912630372</v>
+        <v>104.9365625312075</v>
       </c>
       <c r="O16" t="n">
-        <v>10.22379149975057</v>
+        <v>10.24385486675829</v>
       </c>
       <c r="P16" t="n">
-        <v>357.973516347883</v>
+        <v>357.8235261040038</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23465,28 +23701,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0437374435353449</v>
+        <v>-0.03611640097923607</v>
       </c>
       <c r="J17" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K17" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001015932216541171</v>
+        <v>0.0007021384464318547</v>
       </c>
       <c r="M17" t="n">
-        <v>8.389570622603499</v>
+        <v>8.398455679589292</v>
       </c>
       <c r="N17" t="n">
-        <v>108.7045923565256</v>
+        <v>108.5844567365486</v>
       </c>
       <c r="O17" t="n">
-        <v>10.42614945013381</v>
+        <v>10.42038659247096</v>
       </c>
       <c r="P17" t="n">
-        <v>352.3177759408954</v>
+        <v>352.2469102823697</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23543,28 +23779,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02025365742834617</v>
+        <v>0.0198924487318137</v>
       </c>
       <c r="J18" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002203861902498883</v>
+        <v>0.000216611839215175</v>
       </c>
       <c r="M18" t="n">
-        <v>8.157515652882696</v>
+        <v>8.140350325146496</v>
       </c>
       <c r="N18" t="n">
-        <v>105.7271552246592</v>
+        <v>105.022871041261</v>
       </c>
       <c r="O18" t="n">
-        <v>10.28237108962029</v>
+        <v>10.24806669773675</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2984459341977</v>
+        <v>347.3019441329023</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23621,28 +23857,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1195922978362161</v>
+        <v>0.1283586512315228</v>
       </c>
       <c r="J19" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K19" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006796438159465623</v>
+        <v>0.007943292268396407</v>
       </c>
       <c r="M19" t="n">
-        <v>8.571634517122538</v>
+        <v>8.568000996024837</v>
       </c>
       <c r="N19" t="n">
-        <v>117.1560226359281</v>
+        <v>116.7353003775794</v>
       </c>
       <c r="O19" t="n">
-        <v>10.82386357249241</v>
+        <v>10.80441115367142</v>
       </c>
       <c r="P19" t="n">
-        <v>342.8765295154811</v>
+        <v>342.7925583097401</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23699,28 +23935,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.116307557166852</v>
+        <v>0.1251152131915263</v>
       </c>
       <c r="J20" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K20" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005083697674672205</v>
+        <v>0.005978442188153021</v>
       </c>
       <c r="M20" t="n">
-        <v>9.508818245871351</v>
+        <v>9.497659559848403</v>
       </c>
       <c r="N20" t="n">
-        <v>147.1734914507183</v>
+        <v>146.4333266381377</v>
       </c>
       <c r="O20" t="n">
-        <v>12.13150821005856</v>
+        <v>12.10096387227636</v>
       </c>
       <c r="P20" t="n">
-        <v>343.6577833111365</v>
+        <v>343.5730914180589</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23777,28 +24013,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07786097057045109</v>
+        <v>0.09684697848109834</v>
       </c>
       <c r="J21" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K21" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002195231269318643</v>
+        <v>0.003434047234405768</v>
       </c>
       <c r="M21" t="n">
-        <v>9.645618460735673</v>
+        <v>9.636824219807012</v>
       </c>
       <c r="N21" t="n">
-        <v>153.5045193367823</v>
+        <v>153.4741505319816</v>
       </c>
       <c r="O21" t="n">
-        <v>12.38969407761073</v>
+        <v>12.38846844981177</v>
       </c>
       <c r="P21" t="n">
-        <v>347.1252702866762</v>
+        <v>346.9433014011665</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23855,28 +24091,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06682326134905453</v>
+        <v>-0.04396326910116946</v>
       </c>
       <c r="J22" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K22" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001484948896482763</v>
+        <v>0.0006511630716371508</v>
       </c>
       <c r="M22" t="n">
-        <v>10.05216103160834</v>
+        <v>10.06322844852138</v>
       </c>
       <c r="N22" t="n">
-        <v>169.4008134566259</v>
+        <v>169.2906176127196</v>
       </c>
       <c r="O22" t="n">
-        <v>13.01540677261475</v>
+        <v>13.01117279927984</v>
       </c>
       <c r="P22" t="n">
-        <v>353.9663671311653</v>
+        <v>353.7479908484282</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23933,28 +24169,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04364773919123</v>
+        <v>-0.01651005252417125</v>
       </c>
       <c r="J23" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K23" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006003271339715122</v>
+        <v>8.650302322121828e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>10.38295310194348</v>
+        <v>10.42588337183563</v>
       </c>
       <c r="N23" t="n">
-        <v>178.9335527657906</v>
+        <v>179.8264776091503</v>
       </c>
       <c r="O23" t="n">
-        <v>13.37660468002963</v>
+        <v>13.40993950803471</v>
       </c>
       <c r="P23" t="n">
-        <v>360.1830034791541</v>
+        <v>359.923785521087</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24011,28 +24247,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002890929050564421</v>
+        <v>0.03706219087064633</v>
       </c>
       <c r="J24" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K24" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L24" t="n">
-        <v>2.392319555566402e-06</v>
+        <v>0.0003958748407267842</v>
       </c>
       <c r="M24" t="n">
-        <v>10.93422937959513</v>
+        <v>11.01117549897773</v>
       </c>
       <c r="N24" t="n">
-        <v>198.5028055660559</v>
+        <v>199.2773452985428</v>
       </c>
       <c r="O24" t="n">
-        <v>14.08910236906723</v>
+        <v>14.11656280043208</v>
       </c>
       <c r="P24" t="n">
-        <v>358.3475389954174</v>
+        <v>358.0210754133959</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24089,28 +24325,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05733981740249873</v>
+        <v>0.1038971578036221</v>
       </c>
       <c r="J25" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K25" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008875451180084815</v>
+        <v>0.002889344589747322</v>
       </c>
       <c r="M25" t="n">
-        <v>11.1972803257425</v>
+        <v>11.33895553012014</v>
       </c>
       <c r="N25" t="n">
-        <v>209.821678052665</v>
+        <v>213.608579709566</v>
       </c>
       <c r="O25" t="n">
-        <v>14.48522274777523</v>
+        <v>14.61535424509328</v>
       </c>
       <c r="P25" t="n">
-        <v>352.3974919866274</v>
+        <v>351.9532115454783</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24167,28 +24403,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.106260339540164</v>
+        <v>0.1441253735743443</v>
       </c>
       <c r="J26" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00238173159066557</v>
+        <v>0.004409581779578509</v>
       </c>
       <c r="M26" t="n">
-        <v>12.43954569700668</v>
+        <v>12.48570093476323</v>
       </c>
       <c r="N26" t="n">
-        <v>272.9084226958281</v>
+        <v>273.6812188612649</v>
       </c>
       <c r="O26" t="n">
-        <v>16.51994015412368</v>
+        <v>16.54331341845596</v>
       </c>
       <c r="P26" t="n">
-        <v>346.9788484817387</v>
+        <v>346.6230656223017</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24245,28 +24481,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2403438270764785</v>
+        <v>0.2746012504139909</v>
       </c>
       <c r="J27" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01067464727508005</v>
+        <v>0.01403662740784639</v>
       </c>
       <c r="M27" t="n">
-        <v>13.48453815592553</v>
+        <v>13.52983262253154</v>
       </c>
       <c r="N27" t="n">
-        <v>310.0025307109578</v>
+        <v>310.0164010364559</v>
       </c>
       <c r="O27" t="n">
-        <v>17.60688872887421</v>
+        <v>17.60728261363621</v>
       </c>
       <c r="P27" t="n">
-        <v>342.523167062826</v>
+        <v>342.2002084232046</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24323,28 +24559,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4093067342022532</v>
+        <v>0.448424992471801</v>
       </c>
       <c r="J28" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K28" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02986464605691863</v>
+        <v>0.03599080041049296</v>
       </c>
       <c r="M28" t="n">
-        <v>13.82991483075713</v>
+        <v>13.89850341816</v>
       </c>
       <c r="N28" t="n">
-        <v>311.0018583197406</v>
+        <v>311.3761271411716</v>
       </c>
       <c r="O28" t="n">
-        <v>17.63524477629218</v>
+        <v>17.64585297289909</v>
       </c>
       <c r="P28" t="n">
-        <v>341.0959847610358</v>
+        <v>340.7263798393133</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24401,28 +24637,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4140686059516263</v>
+        <v>0.4483528099520484</v>
       </c>
       <c r="J29" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K29" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02677915949507792</v>
+        <v>0.03170135152337539</v>
       </c>
       <c r="M29" t="n">
-        <v>14.30544103249337</v>
+        <v>14.33624478733767</v>
       </c>
       <c r="N29" t="n">
-        <v>355.0105714579833</v>
+        <v>353.9172506335769</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8417242166948</v>
+        <v>18.81268855410031</v>
       </c>
       <c r="P29" t="n">
-        <v>343.5014045077222</v>
+        <v>343.1763285784197</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24479,28 +24715,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5974916724552634</v>
+        <v>0.6127206829818127</v>
       </c>
       <c r="J30" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K30" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05255890973827371</v>
+        <v>0.05620467018508324</v>
       </c>
       <c r="M30" t="n">
-        <v>14.84064996808875</v>
+        <v>14.7746939273572</v>
       </c>
       <c r="N30" t="n">
-        <v>372.9302790403747</v>
+        <v>369.8469970252995</v>
       </c>
       <c r="O30" t="n">
-        <v>19.31140282424803</v>
+        <v>19.23140652748258</v>
       </c>
       <c r="P30" t="n">
-        <v>346.0193689255791</v>
+        <v>345.8778830172537</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24557,28 +24793,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4798920581714301</v>
+        <v>0.4895670654093584</v>
       </c>
       <c r="J31" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K31" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03382065232378284</v>
+        <v>0.03592634544158557</v>
       </c>
       <c r="M31" t="n">
-        <v>15.19762984941835</v>
+        <v>15.08528904962328</v>
       </c>
       <c r="N31" t="n">
-        <v>376.8644594053646</v>
+        <v>372.9281419430662</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4129971772873</v>
+        <v>19.31134749164507</v>
       </c>
       <c r="P31" t="n">
-        <v>345.6100168349602</v>
+        <v>345.5189191261682</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24635,28 +24871,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.416202466010104</v>
+        <v>0.421644624523246</v>
       </c>
       <c r="J32" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K32" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02471907433546527</v>
+        <v>0.02588549185110167</v>
       </c>
       <c r="M32" t="n">
-        <v>15.48435124950549</v>
+        <v>15.42014838052408</v>
       </c>
       <c r="N32" t="n">
-        <v>386.9432926218377</v>
+        <v>383.514578589242</v>
       </c>
       <c r="O32" t="n">
-        <v>19.67087422108732</v>
+        <v>19.5835282466986</v>
       </c>
       <c r="P32" t="n">
-        <v>346.0933470054856</v>
+        <v>346.0417978139379</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -24713,28 +24949,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4735856094915624</v>
+        <v>0.4734123916389796</v>
       </c>
       <c r="J33" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K33" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03193217405894289</v>
+        <v>0.03264732744000998</v>
       </c>
       <c r="M33" t="n">
-        <v>15.65848388826947</v>
+        <v>15.54578369838629</v>
       </c>
       <c r="N33" t="n">
-        <v>388.2972335070498</v>
+        <v>384.1825158912666</v>
       </c>
       <c r="O33" t="n">
-        <v>19.70525903171663</v>
+        <v>19.60057437656526</v>
       </c>
       <c r="P33" t="n">
-        <v>348.5670458946956</v>
+        <v>348.5687362286336</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -24791,28 +25027,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3487538767011466</v>
+        <v>0.339788591023872</v>
       </c>
       <c r="J34" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K34" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01682925519068479</v>
+        <v>0.01635202341481157</v>
       </c>
       <c r="M34" t="n">
-        <v>16.32159856976319</v>
+        <v>16.21632887865899</v>
       </c>
       <c r="N34" t="n">
-        <v>403.4741578186571</v>
+        <v>399.6639709940578</v>
       </c>
       <c r="O34" t="n">
-        <v>20.08666616984155</v>
+        <v>19.99159750980541</v>
       </c>
       <c r="P34" t="n">
-        <v>355.2568040453629</v>
+        <v>355.3410602114604</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -24850,7 +25086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI187"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55941,6 +56177,348 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>-34.425870027376334,172.96360956199115</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-34.42586034657993,172.9645078028761</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>-34.425826278766195,172.9654055548648</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-34.425784682611265,172.9663031555676</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>-34.42575824970982,172.96720106008493</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-34.42559054928755,172.96809612922192</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>-34.425451676150814,172.96897032594674</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>-34.42523068596934,172.96972482516725</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>-34.4249798444376,172.97049061514502</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>-34.4247636030543,172.97135829612552</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>-34.424580082226306,172.97224404088956</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>-34.424263419292885,172.97305629146882</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>-34.42401256512392,172.97390487031896</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>-34.423724105982515,172.97473211593584</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>-34.423416398748294,172.9755441273377</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>-34.423120262264234,172.97636925099258</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>-34.4228278714322,172.97720138741556</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>-34.42242975716754,172.97796021013573</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>-34.4220548152607,172.97873510305763</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>-34.42162485419824,172.97947184264947</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>-34.421231166385965,172.98023373755768</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>-34.42077347273353,172.9809382140713</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>-34.420379290389626,172.98167843739265</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>-34.41995588236749,172.98241587216427</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>-34.4194531687159,172.98307673586007</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>-34.418970180709834,172.98375803358581</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>-34.41850119812127,172.98445384065178</t>
+        </is>
+      </c>
+      <c r="AC188" t="inlineStr">
+        <is>
+          <t>-34.418015310301044,172.98513214060867</t>
+        </is>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>-34.41749414043602,172.98576591561482</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>-34.41701923523465,172.98645366535692</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>-34.41646716570843,172.98705305913649</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>-34.41593822376471,172.98768257308285</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>-34.41538457989344,172.9882801465187</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-34.42583284932354,172.96630412159303</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-34.425755405241624,172.96720100301707</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-34.42566593178849,172.96809764211986</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>-34.42553350834038,172.96897791394366</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>-34.42530711146342,172.96975181848555</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>-34.425077771627365,172.9705446704539</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>-34.424823887140136,172.97139157303238</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>-34.424634051354275,172.97227383232558</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>-34.42441710634007,172.97314112902487</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>-34.42417687207726,172.97399557128543</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>-34.42391186725169,172.97483719632356</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>-34.42356298411266,172.97563633678627</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>-34.42326472231278,172.9764694277511</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>-34.42293169193228,172.97727338303656</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>-34.42255541127566,172.97804734711545</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>-34.42218062540379,172.97882234884392</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>-34.421758933900186,172.97956482365043</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>-34.42133430045514,172.98030525894222</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>-34.42092052899144,172.98105498315837</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>-34.42039791608217,172.9816964659031</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>-34.419845075494656,172.98230110234127</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>-34.41949092670494,172.9831158444301</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>-34.41904483899869,172.98383536263427</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>-34.418485253737586,172.98443732585557</t>
+        </is>
+      </c>
+      <c r="AC189" t="inlineStr">
+        <is>
+          <t>-34.41800634589492,172.98512285547193</t>
+        </is>
+      </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>-34.417593288720454,172.98587934713393</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>-34.41707605241941,172.98652628028407</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>-34.416583569286566,172.98720359475197</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>-34.4160124830447,172.9877786068803</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>-34.41548775495277,172.988413575051</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI189"/>
+  <dimension ref="A1:AI190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20467,6 +20467,117 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>338.91</v>
+      </c>
+      <c r="C190" t="n">
+        <v>337.2809090909091</v>
+      </c>
+      <c r="D190" t="n">
+        <v>338.34</v>
+      </c>
+      <c r="E190" t="n">
+        <v>339.7943478260869</v>
+      </c>
+      <c r="F190" t="n">
+        <v>353.8909090909091</v>
+      </c>
+      <c r="G190" t="n">
+        <v>367.44</v>
+      </c>
+      <c r="H190" t="n">
+        <v>391.8061538461538</v>
+      </c>
+      <c r="I190" t="n">
+        <v>395.37</v>
+      </c>
+      <c r="J190" t="n">
+        <v>386.5361538461539</v>
+      </c>
+      <c r="K190" t="n">
+        <v>383.4761538461539</v>
+      </c>
+      <c r="L190" t="n">
+        <v>371.9361538461538</v>
+      </c>
+      <c r="M190" t="n">
+        <v>362.61</v>
+      </c>
+      <c r="N190" t="n">
+        <v>357.615</v>
+      </c>
+      <c r="O190" t="n">
+        <v>354</v>
+      </c>
+      <c r="P190" t="n">
+        <v>357.45</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>345.745</v>
+      </c>
+      <c r="R190" t="n">
+        <v>347.1935294117647</v>
+      </c>
+      <c r="S190" t="n">
+        <v>340.74</v>
+      </c>
+      <c r="T190" t="n">
+        <v>342.6</v>
+      </c>
+      <c r="U190" t="n">
+        <v>346.2435294117647</v>
+      </c>
+      <c r="V190" t="n">
+        <v>351.03</v>
+      </c>
+      <c r="W190" t="n">
+        <v>356.08</v>
+      </c>
+      <c r="X190" t="n">
+        <v>348.3935294117647</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>348.6535294117647</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>343.1835294117647</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>345.59</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>350.83</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>352.9014285714285</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>353.24</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>354.85</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>359.08</v>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20478,7 +20589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22376,6 +22487,16 @@
       </c>
       <c r="B189" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -22549,28 +22670,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02957749705245881</v>
+        <v>-0.01039769131093831</v>
       </c>
       <c r="J2" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K2" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L2" t="n">
-        <v>8.603727456302224e-05</v>
+        <v>1.074666384293099e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>19.67635839914769</v>
+        <v>19.63442239688546</v>
       </c>
       <c r="N2" t="n">
-        <v>577.2609143644576</v>
+        <v>574.900740452443</v>
       </c>
       <c r="O2" t="n">
-        <v>24.0262546886621</v>
+        <v>23.9770878225952</v>
       </c>
       <c r="P2" t="n">
-        <v>324.3419971688508</v>
+        <v>324.1538424113031</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22621,28 +22742,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2164829996102112</v>
+        <v>-0.2008607154982441</v>
       </c>
       <c r="J3" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K3" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005479883346018122</v>
+        <v>0.004773119531083614</v>
       </c>
       <c r="M3" t="n">
-        <v>17.9724982193384</v>
+        <v>17.93221675186121</v>
       </c>
       <c r="N3" t="n">
-        <v>495.7975412776756</v>
+        <v>493.7967595964842</v>
       </c>
       <c r="O3" t="n">
-        <v>22.26651165489726</v>
+        <v>22.2215381915043</v>
       </c>
       <c r="P3" t="n">
-        <v>329.549945478384</v>
+        <v>329.4035328733135</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22699,28 +22820,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3186464040849853</v>
+        <v>-0.3059105728317654</v>
       </c>
       <c r="J4" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01508450040084686</v>
+        <v>0.01407621316637553</v>
       </c>
       <c r="M4" t="n">
-        <v>16.14136537462119</v>
+        <v>16.09953198469374</v>
       </c>
       <c r="N4" t="n">
-        <v>381.2657033051685</v>
+        <v>379.6461645260948</v>
       </c>
       <c r="O4" t="n">
-        <v>19.52602630606567</v>
+        <v>19.48451088752537</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6884493874538</v>
+        <v>335.568502560225</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22771,28 +22892,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3523527398069189</v>
+        <v>-0.3468811468618347</v>
       </c>
       <c r="J5" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02314710426073863</v>
+        <v>0.02273026418625435</v>
       </c>
       <c r="M5" t="n">
-        <v>14.55866596619747</v>
+        <v>14.49665622170335</v>
       </c>
       <c r="N5" t="n">
-        <v>307.1077838909449</v>
+        <v>305.3913566864723</v>
       </c>
       <c r="O5" t="n">
-        <v>17.5244909738042</v>
+        <v>17.47545011398769</v>
       </c>
       <c r="P5" t="n">
-        <v>344.1150994723049</v>
+        <v>344.0645060081864</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22849,28 +22970,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4279308693685869</v>
+        <v>-0.4186915617903694</v>
       </c>
       <c r="J6" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K6" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03734160358020977</v>
+        <v>0.03619828825066262</v>
       </c>
       <c r="M6" t="n">
-        <v>13.57803992370988</v>
+        <v>13.53623284126007</v>
       </c>
       <c r="N6" t="n">
-        <v>282.2992618592741</v>
+        <v>281.0080276083839</v>
       </c>
       <c r="O6" t="n">
-        <v>16.80176365323813</v>
+        <v>16.76329405601369</v>
       </c>
       <c r="P6" t="n">
-        <v>356.6715692741576</v>
+        <v>356.5870744120665</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22921,28 +23042,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4195114544360636</v>
+        <v>-0.4102132008569376</v>
       </c>
       <c r="J7" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K7" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04217616866852536</v>
+        <v>0.04082329503218884</v>
       </c>
       <c r="M7" t="n">
-        <v>12.20165501940754</v>
+        <v>12.17187506209969</v>
       </c>
       <c r="N7" t="n">
-        <v>237.8291565132215</v>
+        <v>236.832052357569</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4217105573027</v>
+        <v>15.38934866580028</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8425793997531</v>
+        <v>369.7569555579159</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22999,28 +23120,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3736869958176796</v>
+        <v>-0.3572151832738653</v>
       </c>
       <c r="J8" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04131401283840652</v>
+        <v>0.03811693859983678</v>
       </c>
       <c r="M8" t="n">
-        <v>11.22578709387763</v>
+        <v>11.24646830286797</v>
       </c>
       <c r="N8" t="n">
-        <v>192.184668428188</v>
+        <v>192.2882955476961</v>
       </c>
       <c r="O8" t="n">
-        <v>13.86306850694275</v>
+        <v>13.86680552786748</v>
       </c>
       <c r="P8" t="n">
-        <v>386.8207069427344</v>
+        <v>386.6691094948195</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23077,28 +23198,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2730671795211277</v>
+        <v>-0.266035939287149</v>
       </c>
       <c r="J9" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K9" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02153616761641164</v>
+        <v>0.02069736237553044</v>
       </c>
       <c r="M9" t="n">
-        <v>11.19855808157834</v>
+        <v>11.16709654522578</v>
       </c>
       <c r="N9" t="n">
-        <v>200.4333845145399</v>
+        <v>199.4770645431417</v>
       </c>
       <c r="O9" t="n">
-        <v>14.15744978852264</v>
+        <v>14.12363496211728</v>
       </c>
       <c r="P9" t="n">
-        <v>396.114941380656</v>
+        <v>396.0501851813541</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23155,28 +23276,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2490622206795511</v>
+        <v>-0.2416602132522709</v>
       </c>
       <c r="J10" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K10" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02010963946957356</v>
+        <v>0.01914962135253706</v>
       </c>
       <c r="M10" t="n">
-        <v>10.2180561803317</v>
+        <v>10.19743417289841</v>
       </c>
       <c r="N10" t="n">
-        <v>180.5290293547267</v>
+        <v>179.7650065719041</v>
       </c>
       <c r="O10" t="n">
-        <v>13.43610915982476</v>
+        <v>13.40764731680783</v>
       </c>
       <c r="P10" t="n">
-        <v>385.9915110117204</v>
+        <v>385.9231701908768</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23233,28 +23354,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2598193741142829</v>
+        <v>-0.247338771213888</v>
       </c>
       <c r="J11" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0249593035045137</v>
+        <v>0.02281837747038329</v>
       </c>
       <c r="M11" t="n">
-        <v>9.703310270312722</v>
+        <v>9.716321461487006</v>
       </c>
       <c r="N11" t="n">
-        <v>156.6157271336155</v>
+        <v>156.5241926434448</v>
       </c>
       <c r="O11" t="n">
-        <v>12.51462053494294</v>
+        <v>12.5109628983322</v>
       </c>
       <c r="P11" t="n">
-        <v>378.215741930776</v>
+        <v>378.0996106492598</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23311,28 +23432,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2324370250623156</v>
+        <v>-0.2251942136815105</v>
       </c>
       <c r="J12" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K12" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02108463481360201</v>
+        <v>0.02001247734046152</v>
       </c>
       <c r="M12" t="n">
-        <v>9.602553362102585</v>
+        <v>9.587482001520709</v>
       </c>
       <c r="N12" t="n">
-        <v>148.858971705386</v>
+        <v>148.276862982582</v>
       </c>
       <c r="O12" t="n">
-        <v>12.20077750413415</v>
+        <v>12.17689874239669</v>
       </c>
       <c r="P12" t="n">
-        <v>371.050974221023</v>
+        <v>370.9836802597866</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23389,28 +23510,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1967608883150943</v>
+        <v>-0.1930699235919487</v>
       </c>
       <c r="J13" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K13" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01634121486854778</v>
+        <v>0.01591688678930403</v>
       </c>
       <c r="M13" t="n">
-        <v>9.150331981400969</v>
+        <v>9.117713306997874</v>
       </c>
       <c r="N13" t="n">
-        <v>138.5675454862011</v>
+        <v>137.8498427708353</v>
       </c>
       <c r="O13" t="n">
-        <v>11.77147167885991</v>
+        <v>11.74094726888914</v>
       </c>
       <c r="P13" t="n">
-        <v>364.1473696392218</v>
+        <v>364.1129789897565</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23467,28 +23588,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.09096369883152879</v>
+        <v>-0.08992282573812914</v>
       </c>
       <c r="J14" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K14" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004170159436709731</v>
+        <v>0.00412361499759617</v>
       </c>
       <c r="M14" t="n">
-        <v>8.18530914179331</v>
+        <v>8.144932353838687</v>
       </c>
       <c r="N14" t="n">
-        <v>115.951432194373</v>
+        <v>115.3017315184058</v>
       </c>
       <c r="O14" t="n">
-        <v>10.76807467444264</v>
+        <v>10.73786438349851</v>
       </c>
       <c r="P14" t="n">
-        <v>358.97250969674</v>
+        <v>358.962755922899</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23545,28 +23666,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08832139982910706</v>
+        <v>-0.09027682460902366</v>
       </c>
       <c r="J15" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K15" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003727062549171878</v>
+        <v>0.003938664292672978</v>
       </c>
       <c r="M15" t="n">
-        <v>8.695160720055927</v>
+        <v>8.657051153133532</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3632369182724</v>
+        <v>121.6909496666443</v>
       </c>
       <c r="O15" t="n">
-        <v>11.0617917589454</v>
+        <v>11.03136209480245</v>
       </c>
       <c r="P15" t="n">
-        <v>358.1263661140467</v>
+        <v>358.1446899339123</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23623,28 +23744,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04834742096883633</v>
+        <v>-0.04742665018753615</v>
       </c>
       <c r="J16" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K16" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001305448935902676</v>
+        <v>0.001271093034296955</v>
       </c>
       <c r="M16" t="n">
-        <v>8.128900597044115</v>
+        <v>8.087821109913497</v>
       </c>
       <c r="N16" t="n">
-        <v>104.9365625312075</v>
+        <v>104.3479201871141</v>
       </c>
       <c r="O16" t="n">
-        <v>10.24385486675829</v>
+        <v>10.21508297504793</v>
       </c>
       <c r="P16" t="n">
-        <v>357.8235261040038</v>
+        <v>357.8148977803233</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23701,28 +23822,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03611640097923607</v>
+        <v>-0.04197277494399616</v>
       </c>
       <c r="J17" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007021384464318547</v>
+        <v>0.0009577083012990428</v>
       </c>
       <c r="M17" t="n">
-        <v>8.398455679589292</v>
+        <v>8.382453473004821</v>
       </c>
       <c r="N17" t="n">
-        <v>108.5844567365486</v>
+        <v>108.1458331682889</v>
       </c>
       <c r="O17" t="n">
-        <v>10.42038659247096</v>
+        <v>10.39931888001752</v>
       </c>
       <c r="P17" t="n">
-        <v>352.2469102823697</v>
+        <v>352.3019766182014</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23779,28 +23900,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0198924487318137</v>
+        <v>0.0192292404696776</v>
       </c>
       <c r="J18" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000216611839215175</v>
+        <v>0.0002048007761622506</v>
       </c>
       <c r="M18" t="n">
-        <v>8.140350325146496</v>
+        <v>8.097917720974154</v>
       </c>
       <c r="N18" t="n">
-        <v>105.022871041261</v>
+        <v>104.4283020157716</v>
       </c>
       <c r="O18" t="n">
-        <v>10.24806669773675</v>
+        <v>10.21901668536516</v>
       </c>
       <c r="P18" t="n">
-        <v>347.3019441329023</v>
+        <v>347.3082855841233</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23857,28 +23978,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1283586512315228</v>
+        <v>0.1225726313431102</v>
       </c>
       <c r="J19" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K19" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007943292268396407</v>
+        <v>0.007323550103399024</v>
       </c>
       <c r="M19" t="n">
-        <v>8.568000996024837</v>
+        <v>8.547464022141035</v>
       </c>
       <c r="N19" t="n">
-        <v>116.7353003775794</v>
+        <v>116.2294876267506</v>
       </c>
       <c r="O19" t="n">
-        <v>10.80441115367142</v>
+        <v>10.78097804592657</v>
       </c>
       <c r="P19" t="n">
-        <v>342.7925583097401</v>
+        <v>342.8485726350718</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23935,28 +24056,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1251152131915263</v>
+        <v>0.1206426488249785</v>
       </c>
       <c r="J20" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K20" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005978442188153021</v>
+        <v>0.005622045225554428</v>
       </c>
       <c r="M20" t="n">
-        <v>9.497659559848403</v>
+        <v>9.464985947930252</v>
       </c>
       <c r="N20" t="n">
-        <v>146.4333266381377</v>
+        <v>145.711930812513</v>
       </c>
       <c r="O20" t="n">
-        <v>12.10096387227636</v>
+        <v>12.07111970003251</v>
       </c>
       <c r="P20" t="n">
-        <v>343.5730914180589</v>
+        <v>343.6165494879322</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24013,28 +24134,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09684697848109834</v>
+        <v>0.09345287641994333</v>
       </c>
       <c r="J21" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K21" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003434047234405768</v>
+        <v>0.003234536097980967</v>
       </c>
       <c r="M21" t="n">
-        <v>9.636824219807012</v>
+        <v>9.600575945621351</v>
       </c>
       <c r="N21" t="n">
-        <v>153.4741505319816</v>
+        <v>152.6772352903566</v>
       </c>
       <c r="O21" t="n">
-        <v>12.38846844981177</v>
+        <v>12.35626299859131</v>
       </c>
       <c r="P21" t="n">
-        <v>346.9433014011665</v>
+        <v>346.9761537163355</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24091,28 +24212,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.04396326910116946</v>
+        <v>-0.04561884779497345</v>
       </c>
       <c r="J22" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K22" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006511630716371508</v>
+        <v>0.0007090643922798012</v>
       </c>
       <c r="M22" t="n">
-        <v>10.06322844852138</v>
+        <v>10.01591107277827</v>
       </c>
       <c r="N22" t="n">
-        <v>169.2906176127196</v>
+        <v>168.3638465814627</v>
       </c>
       <c r="O22" t="n">
-        <v>13.01117279927984</v>
+        <v>12.97550949217266</v>
       </c>
       <c r="P22" t="n">
-        <v>353.7479908484282</v>
+        <v>353.7639637505347</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24169,28 +24290,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01651005252417125</v>
+        <v>-0.02007945402382383</v>
       </c>
       <c r="J23" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K23" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="n">
-        <v>8.650302322121828e-05</v>
+        <v>0.0001293636921785302</v>
       </c>
       <c r="M23" t="n">
-        <v>10.42588337183563</v>
+        <v>10.3848466211143</v>
       </c>
       <c r="N23" t="n">
-        <v>179.8264776091503</v>
+        <v>178.8912734955747</v>
       </c>
       <c r="O23" t="n">
-        <v>13.40993950803471</v>
+        <v>13.37502424280325</v>
       </c>
       <c r="P23" t="n">
-        <v>359.923785521087</v>
+        <v>359.9582228455984</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24247,28 +24368,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03706219087064633</v>
+        <v>0.02615405649901664</v>
       </c>
       <c r="J24" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K24" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003958748407267842</v>
+        <v>0.0001987804936434134</v>
       </c>
       <c r="M24" t="n">
-        <v>11.01117549897773</v>
+        <v>11.00263706181729</v>
       </c>
       <c r="N24" t="n">
-        <v>199.2773452985428</v>
+        <v>198.7820433984433</v>
       </c>
       <c r="O24" t="n">
-        <v>14.11656280043208</v>
+        <v>14.09900859629653</v>
       </c>
       <c r="P24" t="n">
-        <v>358.0210754133959</v>
+        <v>358.126315511465</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24325,28 +24446,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1038971578036221</v>
+        <v>0.09766333415616227</v>
       </c>
       <c r="J25" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K25" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002889344589747322</v>
+        <v>0.002580613056924697</v>
       </c>
       <c r="M25" t="n">
-        <v>11.33895553012014</v>
+        <v>11.30507164097436</v>
       </c>
       <c r="N25" t="n">
-        <v>213.608579709566</v>
+        <v>212.6113804891695</v>
       </c>
       <c r="O25" t="n">
-        <v>14.61535424509328</v>
+        <v>14.58119955590656</v>
       </c>
       <c r="P25" t="n">
-        <v>351.9532115454783</v>
+        <v>352.0132635808359</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24403,28 +24524,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1441253735743443</v>
+        <v>0.1368480277996398</v>
       </c>
       <c r="J26" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004409581779578509</v>
+        <v>0.004017725195942012</v>
       </c>
       <c r="M26" t="n">
-        <v>12.48570093476323</v>
+        <v>12.45865482335758</v>
       </c>
       <c r="N26" t="n">
-        <v>273.6812188612649</v>
+        <v>272.4538638045231</v>
       </c>
       <c r="O26" t="n">
-        <v>16.54331341845596</v>
+        <v>16.50617653499814</v>
       </c>
       <c r="P26" t="n">
-        <v>346.6230656223017</v>
+        <v>346.6921235738365</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24481,28 +24602,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2746012504139909</v>
+        <v>0.270897724763422</v>
       </c>
       <c r="J27" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01403662740784639</v>
+        <v>0.01381081594398204</v>
       </c>
       <c r="M27" t="n">
-        <v>13.52983262253154</v>
+        <v>13.47386689564548</v>
       </c>
       <c r="N27" t="n">
-        <v>310.0164010364559</v>
+        <v>308.3863399645322</v>
       </c>
       <c r="O27" t="n">
-        <v>17.60728261363621</v>
+        <v>17.56093220659234</v>
       </c>
       <c r="P27" t="n">
-        <v>342.2002084232046</v>
+        <v>342.2354799398092</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24559,28 +24680,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.448424992471801</v>
+        <v>0.4469229734391332</v>
       </c>
       <c r="J28" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K28" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03599080041049296</v>
+        <v>0.03615290984551278</v>
       </c>
       <c r="M28" t="n">
-        <v>13.89850341816</v>
+        <v>13.82835184590811</v>
       </c>
       <c r="N28" t="n">
-        <v>311.3761271411716</v>
+        <v>309.6576926507352</v>
       </c>
       <c r="O28" t="n">
-        <v>17.64585297289909</v>
+        <v>17.59709330118856</v>
       </c>
       <c r="P28" t="n">
-        <v>340.7263798393133</v>
+        <v>340.7407087401217</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24637,28 +24758,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4483528099520484</v>
+        <v>0.4404452165102887</v>
       </c>
       <c r="J29" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K29" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03170135152337539</v>
+        <v>0.03094338589594703</v>
       </c>
       <c r="M29" t="n">
-        <v>14.33624478733767</v>
+        <v>14.29549081419618</v>
       </c>
       <c r="N29" t="n">
-        <v>353.9172506335769</v>
+        <v>352.2424903039673</v>
       </c>
       <c r="O29" t="n">
-        <v>18.81268855410031</v>
+        <v>18.76812431501793</v>
       </c>
       <c r="P29" t="n">
-        <v>343.1763285784197</v>
+        <v>343.2520327622465</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24715,28 +24836,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6127206829818127</v>
+        <v>0.6000948968588752</v>
       </c>
       <c r="J30" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05620467018508324</v>
+        <v>0.0545397101860805</v>
       </c>
       <c r="M30" t="n">
-        <v>14.7746939273572</v>
+        <v>14.74153714240827</v>
       </c>
       <c r="N30" t="n">
-        <v>369.8469970252995</v>
+        <v>368.5049870220897</v>
       </c>
       <c r="O30" t="n">
-        <v>19.23140652748258</v>
+        <v>19.19648371504765</v>
       </c>
       <c r="P30" t="n">
-        <v>345.8778830172537</v>
+        <v>345.9964007471732</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24793,28 +24914,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4895670654093584</v>
+        <v>0.4838962104878641</v>
       </c>
       <c r="J31" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K31" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03592634544158557</v>
+        <v>0.03552074197984367</v>
       </c>
       <c r="M31" t="n">
-        <v>15.08528904962328</v>
+        <v>15.02066383233028</v>
       </c>
       <c r="N31" t="n">
-        <v>372.9281419430662</v>
+        <v>370.9160385384371</v>
       </c>
       <c r="O31" t="n">
-        <v>19.31134749164507</v>
+        <v>19.25918062998624</v>
       </c>
       <c r="P31" t="n">
-        <v>345.5189191261682</v>
+        <v>345.5728661764524</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24871,28 +24992,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.421644624523246</v>
+        <v>0.4176107147906643</v>
       </c>
       <c r="J32" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02588549185110167</v>
+        <v>0.02570159280941786</v>
       </c>
       <c r="M32" t="n">
-        <v>15.42014838052408</v>
+        <v>15.34599937510264</v>
       </c>
       <c r="N32" t="n">
-        <v>383.514578589242</v>
+        <v>381.3488452656003</v>
       </c>
       <c r="O32" t="n">
-        <v>19.5835282466986</v>
+        <v>19.52815519360701</v>
       </c>
       <c r="P32" t="n">
-        <v>346.0417978139379</v>
+        <v>346.0804586637096</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -24949,28 +25070,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4734123916389796</v>
+        <v>0.4668893649719707</v>
       </c>
       <c r="J33" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K33" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03264732744000998</v>
+        <v>0.03214781533694844</v>
       </c>
       <c r="M33" t="n">
-        <v>15.54578369838629</v>
+        <v>15.48199613697872</v>
       </c>
       <c r="N33" t="n">
-        <v>384.1825158912666</v>
+        <v>382.1484966161488</v>
       </c>
       <c r="O33" t="n">
-        <v>19.60057437656526</v>
+        <v>19.5486187904964</v>
       </c>
       <c r="P33" t="n">
-        <v>348.5687362286336</v>
+        <v>348.6303030759819</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25027,28 +25148,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.339788591023872</v>
+        <v>0.3341067313879132</v>
       </c>
       <c r="J34" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01635202341481157</v>
+        <v>0.01601072829439965</v>
       </c>
       <c r="M34" t="n">
-        <v>16.21632887865899</v>
+        <v>16.14265936939544</v>
       </c>
       <c r="N34" t="n">
-        <v>399.6639709940578</v>
+        <v>397.4318563317604</v>
       </c>
       <c r="O34" t="n">
-        <v>19.99159750980541</v>
+        <v>19.93569302361371</v>
       </c>
       <c r="P34" t="n">
-        <v>355.3410602114604</v>
+        <v>355.3948974740935</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -25086,7 +25207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI189"/>
+  <dimension ref="A1:AI190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56519,6 +56640,183 @@
         </is>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>-34.426052261938,172.96361321309686</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-34.42605450002396,172.96451169412126</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>-34.42603249864298,172.96540968937</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>-34.426006933211866,172.96630761300636</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>-34.42586737236216,172.96720324938968</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>-34.42573274809532,172.96809898309976</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>-34.42550130390522,172.96897492774346</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>-34.425380074867526,172.96977758904922</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>-34.425159113693,172.9705895709654</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>-34.424876279276816,172.97142049361446</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>-34.424662988392605,172.97228980584427</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>-34.4244315401257,172.97314909670882</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>-34.42416457058586,172.97398878058436</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>-34.42388609610278,172.97482277349746</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>-34.42354195195629,172.97562310649647</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>-34.42326354943045,172.97646861440663</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>-34.42288338311654,172.9772398826597</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>-34.42256500279176,172.97805399852805</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>-34.42218161582936,172.97882303567735</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>-34.42178428167544,172.97958240175305</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>-34.4213780092704,172.98033557018093</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>-34.42096751364253,172.9810922911274</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>-34.42057583869076,172.98186868444293</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>-34.420088840809306,172.98255358634503</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>-34.41964401952115,172.98327441378134</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>-34.41914529571945,172.98393941330318</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>-34.41862717920196,172.98458432902572</t>
+        </is>
+      </c>
+      <c r="AC190" t="inlineStr">
+        <is>
+          <t>-34.41816982644019,172.9852921854908</t>
+        </is>
+      </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>-34.417664950285335,172.98596133245798</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>-34.41710609723003,172.98656467897064</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>-34.416562124737304,172.98717586214926</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>-34.41601076037793,172.98777637908523</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>-34.41544327341571,172.9883560503663</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30396,7 +30396,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>-34.42043735652547,172.98173464183103</t>
+          <t>-34.420437356525476,172.98173464183103</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -34014,7 +34014,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>-34.41883780885088,172.98480249568755</t>
+          <t>-34.418837808850874,172.98480249568755</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -35763,7 +35763,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>-34.41710609723003,172.98656467897064</t>
+          <t>-34.41710609723004,172.98656467897064</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -42118,7 +42118,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-34.425953425249226,172.96810341202806</t>
+          <t>-34.42595342524922,172.96810341202806</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -42842,7 +42842,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>-34.420911329607996,172.98104767843174</t>
+          <t>-34.420911329608,172.98104767843174</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
@@ -44531,7 +44531,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>-34.42300836140226,172.9773265505709</t>
+          <t>-34.42300836140225,172.9773265505709</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -48867,7 +48867,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-34.42606877723009,172.96541041672197</t>
+          <t>-34.426068777230086,172.96541041672197</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -56793,7 +56793,7 @@
       </c>
       <c r="AE190" t="inlineStr">
         <is>
-          <t>-34.41710609723003,172.98656467897064</t>
+          <t>-34.41710609723004,172.98656467897064</t>
         </is>
       </c>
       <c r="AF190" t="inlineStr">

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI190"/>
+  <dimension ref="A1:AI191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20578,6 +20578,117 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>317.54</v>
+      </c>
+      <c r="C191" t="n">
+        <v>322.8209090909091</v>
+      </c>
+      <c r="D191" t="n">
+        <v>323.9566666666667</v>
+      </c>
+      <c r="E191" t="n">
+        <v>333.5486956521739</v>
+      </c>
+      <c r="F191" t="n">
+        <v>347.420909090909</v>
+      </c>
+      <c r="G191" t="n">
+        <v>357.5066666666667</v>
+      </c>
+      <c r="H191" t="n">
+        <v>377.3346153846153</v>
+      </c>
+      <c r="I191" t="n">
+        <v>389.7166666666667</v>
+      </c>
+      <c r="J191" t="n">
+        <v>374.6446153846153</v>
+      </c>
+      <c r="K191" t="n">
+        <v>365.2846153846153</v>
+      </c>
+      <c r="L191" t="n">
+        <v>354.5546153846154</v>
+      </c>
+      <c r="M191" t="n">
+        <v>349.6833333333333</v>
+      </c>
+      <c r="N191" t="n">
+        <v>346.465</v>
+      </c>
+      <c r="O191" t="n">
+        <v>348.2333333333333</v>
+      </c>
+      <c r="P191" t="n">
+        <v>344.8333333333333</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>339.875</v>
+      </c>
+      <c r="R191" t="n">
+        <v>333.0964705882353</v>
+      </c>
+      <c r="S191" t="n">
+        <v>334.4277777777777</v>
+      </c>
+      <c r="T191" t="n">
+        <v>330.8977777777778</v>
+      </c>
+      <c r="U191" t="n">
+        <v>335.8364705882353</v>
+      </c>
+      <c r="V191" t="n">
+        <v>343.76</v>
+      </c>
+      <c r="W191" t="n">
+        <v>344.4677777777778</v>
+      </c>
+      <c r="X191" t="n">
+        <v>341.6164705882353</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>333.0964705882353</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>326.3364705882353</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>333.51</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>327.62</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>328.53</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>333.66</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>333.0471428571428</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>333.5585185185185</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>335.71</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>341.78</v>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20589,7 +20700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22497,6 +22608,16 @@
       </c>
       <c r="B190" t="n">
         <v>-0.27</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -22670,28 +22791,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01039769131093831</v>
+        <v>-0.01822869489845939</v>
       </c>
       <c r="J2" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K2" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L2" t="n">
-        <v>1.074666384293099e-05</v>
+        <v>3.345062492632334e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>19.63442239688546</v>
+        <v>19.54879604554498</v>
       </c>
       <c r="N2" t="n">
-        <v>574.900740452443</v>
+        <v>571.2829603839987</v>
       </c>
       <c r="O2" t="n">
-        <v>23.9770878225952</v>
+        <v>23.90152631912863</v>
       </c>
       <c r="P2" t="n">
-        <v>324.1538424113031</v>
+        <v>324.2309294464417</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22742,28 +22863,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2008607154982441</v>
+        <v>-0.202477613440548</v>
       </c>
       <c r="J3" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K3" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004773119531083614</v>
+        <v>0.004912998187130646</v>
       </c>
       <c r="M3" t="n">
-        <v>17.93221675186121</v>
+        <v>17.83113621803578</v>
       </c>
       <c r="N3" t="n">
-        <v>493.7967595964842</v>
+        <v>490.7604275348584</v>
       </c>
       <c r="O3" t="n">
-        <v>22.2215381915043</v>
+        <v>22.15311326958038</v>
       </c>
       <c r="P3" t="n">
-        <v>329.4035328733135</v>
+        <v>329.4187368631346</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22820,28 +22941,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3059105728317654</v>
+        <v>-0.3102069763038124</v>
       </c>
       <c r="J4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01407621316637553</v>
+        <v>0.01465282090735409</v>
       </c>
       <c r="M4" t="n">
-        <v>16.09953198469374</v>
+        <v>16.02725002823737</v>
       </c>
       <c r="N4" t="n">
-        <v>379.6461645260948</v>
+        <v>377.4272128212557</v>
       </c>
       <c r="O4" t="n">
-        <v>19.48451088752537</v>
+        <v>19.42748601392511</v>
       </c>
       <c r="P4" t="n">
-        <v>335.568502560225</v>
+        <v>335.6090973225079</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22892,28 +23013,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3468811468618347</v>
+        <v>-0.348650666025024</v>
       </c>
       <c r="J5" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02273026418625435</v>
+        <v>0.02324894374218034</v>
       </c>
       <c r="M5" t="n">
-        <v>14.49665622170335</v>
+        <v>14.41995181728514</v>
       </c>
       <c r="N5" t="n">
-        <v>305.3913566864723</v>
+        <v>303.5769307819933</v>
       </c>
       <c r="O5" t="n">
-        <v>17.47545011398769</v>
+        <v>17.42345920826267</v>
       </c>
       <c r="P5" t="n">
-        <v>344.0645060081864</v>
+        <v>344.0809216601707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22970,28 +23091,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4186915617903694</v>
+        <v>-0.4168699319232805</v>
       </c>
       <c r="J6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K6" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03619828825066262</v>
+        <v>0.03633282793031378</v>
       </c>
       <c r="M6" t="n">
-        <v>13.53623284126007</v>
+        <v>13.46334886997405</v>
       </c>
       <c r="N6" t="n">
-        <v>281.0080276083839</v>
+        <v>279.351188174277</v>
       </c>
       <c r="O6" t="n">
-        <v>16.76329405601369</v>
+        <v>16.71380232545177</v>
       </c>
       <c r="P6" t="n">
-        <v>356.5870744120665</v>
+        <v>356.5703589339808</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23042,28 +23163,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4102132008569376</v>
+        <v>-0.412024255612577</v>
       </c>
       <c r="J7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K7" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04082329503218884</v>
+        <v>0.04165886985352141</v>
       </c>
       <c r="M7" t="n">
-        <v>12.17187506209969</v>
+        <v>12.11126170063554</v>
       </c>
       <c r="N7" t="n">
-        <v>236.832052357569</v>
+        <v>235.4547843615275</v>
       </c>
       <c r="O7" t="n">
-        <v>15.38934866580028</v>
+        <v>15.34453597739363</v>
       </c>
       <c r="P7" t="n">
-        <v>369.7569555579159</v>
+        <v>369.7736893041289</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23120,28 +23241,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3572151832738653</v>
+        <v>-0.3573375944401674</v>
       </c>
       <c r="J8" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03811693859983678</v>
+        <v>0.03860948513969797</v>
       </c>
       <c r="M8" t="n">
-        <v>11.24646830286797</v>
+        <v>11.18016399085151</v>
       </c>
       <c r="N8" t="n">
-        <v>192.2882955476961</v>
+        <v>191.1437930287604</v>
       </c>
       <c r="O8" t="n">
-        <v>13.86680552786748</v>
+        <v>13.82547623153577</v>
       </c>
       <c r="P8" t="n">
-        <v>386.6691094948195</v>
+        <v>386.6702398773761</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23198,28 +23319,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.266035939287149</v>
+        <v>-0.2654437010013885</v>
       </c>
       <c r="J9" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K9" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02069736237553044</v>
+        <v>0.02086242941349525</v>
       </c>
       <c r="M9" t="n">
-        <v>11.16709654522578</v>
+        <v>11.10430346112178</v>
       </c>
       <c r="N9" t="n">
-        <v>199.4770645431417</v>
+        <v>198.305331784042</v>
       </c>
       <c r="O9" t="n">
-        <v>14.12363496211728</v>
+        <v>14.0820925925106</v>
       </c>
       <c r="P9" t="n">
-        <v>396.0501851813541</v>
+        <v>396.0447126040916</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23276,28 +23397,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2416602132522709</v>
+        <v>-0.2469561378515813</v>
       </c>
       <c r="J10" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01914962135253706</v>
+        <v>0.02019835850874574</v>
       </c>
       <c r="M10" t="n">
-        <v>10.19743417289841</v>
+        <v>10.1688004725391</v>
       </c>
       <c r="N10" t="n">
-        <v>179.7650065719041</v>
+        <v>178.8802938511372</v>
       </c>
       <c r="O10" t="n">
-        <v>13.40764731680783</v>
+        <v>13.37461378325136</v>
       </c>
       <c r="P10" t="n">
-        <v>385.9231701908768</v>
+        <v>385.9722341913289</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23354,28 +23475,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.247338771213888</v>
+        <v>-0.2539755068368851</v>
       </c>
       <c r="J11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02281837747038329</v>
+        <v>0.02426683636677085</v>
       </c>
       <c r="M11" t="n">
-        <v>9.716321461487006</v>
+        <v>9.696959357981942</v>
       </c>
       <c r="N11" t="n">
-        <v>156.5241926434448</v>
+        <v>155.8730125544658</v>
       </c>
       <c r="O11" t="n">
-        <v>12.5109628983322</v>
+        <v>12.48491139553925</v>
       </c>
       <c r="P11" t="n">
-        <v>378.0996106492598</v>
+        <v>378.161577514534</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23432,28 +23553,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2251942136815105</v>
+        <v>-0.2362532549568298</v>
       </c>
       <c r="J12" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K12" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02001247734046152</v>
+        <v>0.02214263922994775</v>
       </c>
       <c r="M12" t="n">
-        <v>9.587482001520709</v>
+        <v>9.591602296616797</v>
       </c>
       <c r="N12" t="n">
-        <v>148.276862982582</v>
+        <v>148.0646523761666</v>
       </c>
       <c r="O12" t="n">
-        <v>12.17689874239669</v>
+        <v>12.16818196675931</v>
       </c>
       <c r="P12" t="n">
-        <v>370.9836802597866</v>
+        <v>371.0867829695491</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23510,28 +23631,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1930699235919487</v>
+        <v>-0.2028322386464674</v>
       </c>
       <c r="J13" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01591688678930403</v>
+        <v>0.01767496226531062</v>
       </c>
       <c r="M13" t="n">
-        <v>9.117713306997874</v>
+        <v>9.120467309802841</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8498427708353</v>
+        <v>137.5663345445552</v>
       </c>
       <c r="O13" t="n">
-        <v>11.74094726888914</v>
+        <v>11.72886757298228</v>
       </c>
       <c r="P13" t="n">
-        <v>364.1129789897565</v>
+        <v>364.2042545146642</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23588,28 +23709,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08992282573812914</v>
+        <v>-0.100548740980228</v>
       </c>
       <c r="J14" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K14" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00412361499759617</v>
+        <v>0.005184813908434616</v>
       </c>
       <c r="M14" t="n">
-        <v>8.144932353838687</v>
+        <v>8.152339070219302</v>
       </c>
       <c r="N14" t="n">
-        <v>115.3017315184058</v>
+        <v>115.2257002349894</v>
       </c>
       <c r="O14" t="n">
-        <v>10.73786438349851</v>
+        <v>10.73432346424261</v>
       </c>
       <c r="P14" t="n">
-        <v>358.962755922899</v>
+        <v>359.0626652138969</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23666,28 +23787,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09027682460902366</v>
+        <v>-0.09819234612851196</v>
       </c>
       <c r="J15" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003938664292672978</v>
+        <v>0.004698379874674918</v>
       </c>
       <c r="M15" t="n">
-        <v>8.657051153133532</v>
+        <v>8.652503212324111</v>
       </c>
       <c r="N15" t="n">
-        <v>121.6909496666443</v>
+        <v>121.3245548276048</v>
       </c>
       <c r="O15" t="n">
-        <v>11.03136209480245</v>
+        <v>11.01474261286231</v>
       </c>
       <c r="P15" t="n">
-        <v>358.1446899339123</v>
+        <v>358.2191149716501</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23744,28 +23865,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04742665018753615</v>
+        <v>-0.05970373852522182</v>
       </c>
       <c r="J16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K16" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001271093034296955</v>
+        <v>0.002021581355495572</v>
       </c>
       <c r="M16" t="n">
-        <v>8.087821109913497</v>
+        <v>8.108340240062873</v>
       </c>
       <c r="N16" t="n">
-        <v>104.3479201871141</v>
+        <v>104.524916368771</v>
       </c>
       <c r="O16" t="n">
-        <v>10.21508297504793</v>
+        <v>10.2237427769272</v>
       </c>
       <c r="P16" t="n">
-        <v>357.8148977803233</v>
+        <v>357.9303320900642</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23822,28 +23943,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04197277494399616</v>
+        <v>-0.05376241171284002</v>
       </c>
       <c r="J17" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0009577083012990428</v>
+        <v>0.00157822901130622</v>
       </c>
       <c r="M17" t="n">
-        <v>8.382453473004821</v>
+        <v>8.399225001416028</v>
       </c>
       <c r="N17" t="n">
-        <v>108.1458331682889</v>
+        <v>108.2482259157912</v>
       </c>
       <c r="O17" t="n">
-        <v>10.39931888001752</v>
+        <v>10.40424076594689</v>
       </c>
       <c r="P17" t="n">
-        <v>352.3019766182014</v>
+        <v>352.4132060965615</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23900,28 +24021,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0192292404696776</v>
+        <v>0.003692154556196553</v>
       </c>
       <c r="J18" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K18" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002048007761622506</v>
+        <v>7.552780876829424e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>8.097917720974154</v>
+        <v>8.140955650618432</v>
       </c>
       <c r="N18" t="n">
-        <v>104.4283020157716</v>
+        <v>105.0395970992228</v>
       </c>
       <c r="O18" t="n">
-        <v>10.21901668536516</v>
+        <v>10.24888272443503</v>
       </c>
       <c r="P18" t="n">
-        <v>347.3082855841233</v>
+        <v>347.45734395191</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23978,28 +24099,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1225726313431102</v>
+        <v>0.1102031319887691</v>
       </c>
       <c r="J19" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007323550103399024</v>
+        <v>0.005958973823249281</v>
       </c>
       <c r="M19" t="n">
-        <v>8.547464022141035</v>
+        <v>8.559681782296927</v>
       </c>
       <c r="N19" t="n">
-        <v>116.2294876267506</v>
+        <v>116.3186805474447</v>
       </c>
       <c r="O19" t="n">
-        <v>10.78097804592657</v>
+        <v>10.78511384026357</v>
       </c>
       <c r="P19" t="n">
-        <v>342.8485726350718</v>
+        <v>342.9687179231918</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24056,28 +24177,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1206426488249785</v>
+        <v>0.1039490066643449</v>
       </c>
       <c r="J20" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K20" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005622045225554428</v>
+        <v>0.004188688409843655</v>
       </c>
       <c r="M20" t="n">
-        <v>9.464985947930252</v>
+        <v>9.487558131551388</v>
       </c>
       <c r="N20" t="n">
-        <v>145.711930812513</v>
+        <v>146.2717089422167</v>
       </c>
       <c r="O20" t="n">
-        <v>12.07111970003251</v>
+        <v>12.09428414343804</v>
       </c>
       <c r="P20" t="n">
-        <v>343.6165494879322</v>
+        <v>343.7792838096583</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24134,28 +24255,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09345287641994333</v>
+        <v>0.07921041533308634</v>
       </c>
       <c r="J21" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K21" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003234536097980967</v>
+        <v>0.002337481777699435</v>
       </c>
       <c r="M21" t="n">
-        <v>9.600575945621351</v>
+        <v>9.620814111369112</v>
       </c>
       <c r="N21" t="n">
-        <v>152.6772352903566</v>
+        <v>152.8313521941986</v>
       </c>
       <c r="O21" t="n">
-        <v>12.35626299859131</v>
+        <v>12.36249781371866</v>
       </c>
       <c r="P21" t="n">
-        <v>346.9761537163355</v>
+        <v>347.114458129997</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24212,28 +24333,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.04561884779497345</v>
+        <v>-0.05473582611411416</v>
       </c>
       <c r="J22" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K22" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007090643922798012</v>
+        <v>0.001029442192990615</v>
       </c>
       <c r="M22" t="n">
-        <v>10.01591107277827</v>
+        <v>10.00731852352789</v>
       </c>
       <c r="N22" t="n">
-        <v>168.3638465814627</v>
+        <v>167.856853240245</v>
       </c>
       <c r="O22" t="n">
-        <v>12.97550949217266</v>
+        <v>12.95595821389699</v>
       </c>
       <c r="P22" t="n">
-        <v>353.7639637505347</v>
+        <v>353.8522173353205</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24290,28 +24411,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.02007945402382383</v>
+        <v>-0.03554510159524565</v>
       </c>
       <c r="J23" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K23" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001293636921785302</v>
+        <v>0.0004070819721243568</v>
       </c>
       <c r="M23" t="n">
-        <v>10.3848466211143</v>
+        <v>10.39974796933457</v>
       </c>
       <c r="N23" t="n">
-        <v>178.8912734955747</v>
+        <v>179.1207170596055</v>
       </c>
       <c r="O23" t="n">
-        <v>13.37502424280325</v>
+        <v>13.38359880822813</v>
       </c>
       <c r="P23" t="n">
-        <v>359.9582228455984</v>
+        <v>360.1079324085077</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24368,28 +24489,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02615405649901664</v>
+        <v>0.008624388425850074</v>
       </c>
       <c r="J24" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001987804936434134</v>
+        <v>2.168315502704132e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>11.00263706181729</v>
+        <v>11.02705804086897</v>
       </c>
       <c r="N24" t="n">
-        <v>198.7820433984433</v>
+        <v>199.2886021371224</v>
       </c>
       <c r="O24" t="n">
-        <v>14.09900859629653</v>
+        <v>14.11696150512292</v>
       </c>
       <c r="P24" t="n">
-        <v>358.126315511465</v>
+        <v>358.296014760462</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24446,28 +24567,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09766333415616227</v>
+        <v>0.07553773135484176</v>
       </c>
       <c r="J25" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K25" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002580613056924697</v>
+        <v>0.001544525175970923</v>
       </c>
       <c r="M25" t="n">
-        <v>11.30507164097436</v>
+        <v>11.35024929349763</v>
       </c>
       <c r="N25" t="n">
-        <v>212.6113804891695</v>
+        <v>213.9410812774145</v>
       </c>
       <c r="O25" t="n">
-        <v>14.58119955590656</v>
+        <v>14.62672489921836</v>
       </c>
       <c r="P25" t="n">
-        <v>352.0132635808359</v>
+        <v>352.2271238355302</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24524,28 +24645,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1368480277996398</v>
+        <v>0.1127938248017197</v>
       </c>
       <c r="J26" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004017725195942012</v>
+        <v>0.002732454803257678</v>
       </c>
       <c r="M26" t="n">
-        <v>12.45865482335758</v>
+        <v>12.53124256733023</v>
       </c>
       <c r="N26" t="n">
-        <v>272.4538638045231</v>
+        <v>274.0324893745221</v>
       </c>
       <c r="O26" t="n">
-        <v>16.50617653499814</v>
+        <v>16.55392670560439</v>
       </c>
       <c r="P26" t="n">
-        <v>346.6921235738365</v>
+        <v>346.9211650909398</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24602,28 +24723,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.270897724763422</v>
+        <v>0.2552514596621943</v>
       </c>
       <c r="J27" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01381081594398204</v>
+        <v>0.01235989868973586</v>
       </c>
       <c r="M27" t="n">
-        <v>13.47386689564548</v>
+        <v>13.48098980455308</v>
       </c>
       <c r="N27" t="n">
-        <v>308.3863399645322</v>
+        <v>308.0298471008671</v>
       </c>
       <c r="O27" t="n">
-        <v>17.56093220659234</v>
+        <v>17.55077910238936</v>
       </c>
       <c r="P27" t="n">
-        <v>342.2354799398092</v>
+        <v>342.3850098277423</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24680,28 +24801,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4469229734391332</v>
+        <v>0.4215946286741857</v>
       </c>
       <c r="J28" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03615290984551278</v>
+        <v>0.03231921582949959</v>
       </c>
       <c r="M28" t="n">
-        <v>13.82835184590811</v>
+        <v>13.87405960519098</v>
       </c>
       <c r="N28" t="n">
-        <v>309.6576926507352</v>
+        <v>311.2510324311529</v>
       </c>
       <c r="O28" t="n">
-        <v>17.59709330118856</v>
+        <v>17.64230802449478</v>
       </c>
       <c r="P28" t="n">
-        <v>340.7407087401217</v>
+        <v>340.9831497042182</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24758,28 +24879,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4404452165102887</v>
+        <v>0.4133562005339933</v>
       </c>
       <c r="J29" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03094338589594703</v>
+        <v>0.02737515692463133</v>
       </c>
       <c r="M29" t="n">
-        <v>14.29549081419618</v>
+        <v>14.35027445645557</v>
       </c>
       <c r="N29" t="n">
-        <v>352.2424903039673</v>
+        <v>354.0150349754447</v>
       </c>
       <c r="O29" t="n">
-        <v>18.76812431501793</v>
+        <v>18.81528726794902</v>
       </c>
       <c r="P29" t="n">
-        <v>343.2520327622465</v>
+        <v>343.5122467738856</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24836,28 +24957,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6000948968588752</v>
+        <v>0.5706075342743329</v>
       </c>
       <c r="J30" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0545397101860805</v>
+        <v>0.04957064781901999</v>
       </c>
       <c r="M30" t="n">
-        <v>14.74153714240827</v>
+        <v>14.77659287402982</v>
       </c>
       <c r="N30" t="n">
-        <v>368.5049870220897</v>
+        <v>370.748995877272</v>
       </c>
       <c r="O30" t="n">
-        <v>19.19648371504765</v>
+        <v>19.25484343943809</v>
       </c>
       <c r="P30" t="n">
-        <v>345.9964007471732</v>
+        <v>346.2741355752702</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -24914,28 +25035,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4838962104878641</v>
+        <v>0.4570658810371218</v>
       </c>
       <c r="J31" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K31" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03552074197984367</v>
+        <v>0.03188110405687816</v>
       </c>
       <c r="M31" t="n">
-        <v>15.02066383233028</v>
+        <v>15.04832948836614</v>
       </c>
       <c r="N31" t="n">
-        <v>370.9160385384371</v>
+        <v>372.3278009893201</v>
       </c>
       <c r="O31" t="n">
-        <v>19.25918062998624</v>
+        <v>19.2957974955512</v>
       </c>
       <c r="P31" t="n">
-        <v>345.5728661764524</v>
+        <v>345.8289669128449</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -24992,28 +25113,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4176107147906643</v>
+        <v>0.3922408336624764</v>
       </c>
       <c r="J32" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K32" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02570159280941786</v>
+        <v>0.02282761796597432</v>
       </c>
       <c r="M32" t="n">
-        <v>15.34599937510264</v>
+        <v>15.36030012832125</v>
       </c>
       <c r="N32" t="n">
-        <v>381.3488452656003</v>
+        <v>382.2339679362622</v>
       </c>
       <c r="O32" t="n">
-        <v>19.52815519360701</v>
+        <v>19.55080478998914</v>
       </c>
       <c r="P32" t="n">
-        <v>346.0804586637096</v>
+        <v>346.3244124819582</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25070,28 +25191,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4668893649719707</v>
+        <v>0.4396646634760899</v>
       </c>
       <c r="J33" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K33" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03214781533694844</v>
+        <v>0.02869313795055717</v>
       </c>
       <c r="M33" t="n">
-        <v>15.48199613697872</v>
+        <v>15.50515433453389</v>
       </c>
       <c r="N33" t="n">
-        <v>382.1484966161488</v>
+        <v>383.4813315933824</v>
       </c>
       <c r="O33" t="n">
-        <v>19.5486187904964</v>
+        <v>19.58267937728089</v>
       </c>
       <c r="P33" t="n">
-        <v>348.6303030759819</v>
+        <v>348.8881085100621</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25148,28 +25269,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3341067313879132</v>
+        <v>0.3092104858003845</v>
       </c>
       <c r="J34" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K34" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01601072829439965</v>
+        <v>0.01381644678934002</v>
       </c>
       <c r="M34" t="n">
-        <v>16.14265936939544</v>
+        <v>16.1462244613241</v>
       </c>
       <c r="N34" t="n">
-        <v>397.4318563317604</v>
+        <v>397.9541575751815</v>
       </c>
       <c r="O34" t="n">
-        <v>19.93569302361371</v>
+        <v>19.9487883736126</v>
       </c>
       <c r="P34" t="n">
-        <v>355.3948974740935</v>
+        <v>355.6315708795466</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -25207,7 +25328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI190"/>
+  <dimension ref="A1:AI191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56817,6 +56938,183 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>-34.42624495627056,172.96361707378315</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-34.42618488653852,172.96451430735235</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-34.4261621938395,172.96541228964108</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-34.426063250548324,172.9663087425057</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>-34.42592571264958,172.96720441986088</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-34.42582231741237,172.96810078072795</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>-34.42563142891205,172.96898699377647</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>-34.42542900564035,172.9697948713503</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>-34.42525663709108,172.9706434036383</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>-34.42502546907929,172.97150284695408</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>-34.42480553497411,172.97236849308294</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>-34.42453755189041,172.97320761701693</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>-34.42425601166242,172.97403925817648</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>-34.4239332750301,172.97484917719643</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>-34.42364284764836,172.9756865750573</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>-34.423309448221175,172.97650044330453</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>-34.42299361072981,172.97731632149845</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>-34.42261435912892,172.97808822561274</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>-34.422273117233466,172.97888648951476</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>-34.42186565578938,172.97963883292454</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>-34.4214348541759,172.9803749911056</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>-34.4210549956331,172.98116175597832</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>-34.42062351392954,172.98191483141304</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>-34.420195300032795,172.9826638538994</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>-34.41975930593794,172.98339382482283</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>-34.41922796031038,172.98402503556616</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>-34.418786006858944,172.9847488399126</t>
+        </is>
+      </c>
+      <c r="AC191" t="inlineStr">
+        <is>
+          <t>-34.418297517650295,172.98542444623186</t>
+        </is>
+      </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>-34.41777110092097,172.98608277581604</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>-34.417229018144525,172.9867217781516</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>-34.416683213098004,172.98733245679995</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>-34.41612851686225,172.9879286650015</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>-34.415549709136485,172.9884936959789</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI191"/>
+  <dimension ref="A1:AI193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20689,6 +20689,228 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>320.04</v>
+      </c>
+      <c r="C192" t="n">
+        <v>328.4518181818182</v>
+      </c>
+      <c r="D192" t="n">
+        <v>333.1566666666667</v>
+      </c>
+      <c r="E192" t="n">
+        <v>338.6221739130435</v>
+      </c>
+      <c r="F192" t="n">
+        <v>351.8018181818182</v>
+      </c>
+      <c r="G192" t="n">
+        <v>364.5266666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>375.7676923076923</v>
+      </c>
+      <c r="I192" t="n">
+        <v>390.5866666666667</v>
+      </c>
+      <c r="J192" t="n">
+        <v>383.2976923076923</v>
+      </c>
+      <c r="K192" t="n">
+        <v>373.5676923076923</v>
+      </c>
+      <c r="L192" t="n">
+        <v>365.0176923076923</v>
+      </c>
+      <c r="M192" t="n">
+        <v>357.1333333333333</v>
+      </c>
+      <c r="N192" t="n">
+        <v>351.835</v>
+      </c>
+      <c r="O192" t="n">
+        <v>353.8033333333333</v>
+      </c>
+      <c r="P192" t="n">
+        <v>351.0933333333334</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>343.935</v>
+      </c>
+      <c r="R192" t="n">
+        <v>344.5323529411764</v>
+      </c>
+      <c r="S192" t="n">
+        <v>338.6944444444445</v>
+      </c>
+      <c r="T192" t="n">
+        <v>329.9544444444444</v>
+      </c>
+      <c r="U192" t="n">
+        <v>336.6823529411765</v>
+      </c>
+      <c r="V192" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="W192" t="n">
+        <v>353.2844444444444</v>
+      </c>
+      <c r="X192" t="n">
+        <v>348.7123529411764</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>338.3623529411765</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>337.5723529411765</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>332.2</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>331.14</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>339.34</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>340.1557142857143</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>338.372962962963</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>340.84</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>347.44</v>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>314.67</v>
+      </c>
+      <c r="C193" t="n">
+        <v>331.8736363636364</v>
+      </c>
+      <c r="D193" t="n">
+        <v>334.4533333333333</v>
+      </c>
+      <c r="E193" t="n">
+        <v>339.208695652174</v>
+      </c>
+      <c r="F193" t="n">
+        <v>352.2336363636364</v>
+      </c>
+      <c r="G193" t="n">
+        <v>364.0333333333333</v>
+      </c>
+      <c r="H193" t="n">
+        <v>380.0107692307692</v>
+      </c>
+      <c r="I193" t="n">
+        <v>389.9133333333333</v>
+      </c>
+      <c r="J193" t="n">
+        <v>383.5907692307693</v>
+      </c>
+      <c r="K193" t="n">
+        <v>372.1807692307692</v>
+      </c>
+      <c r="L193" t="n">
+        <v>365.3707692307692</v>
+      </c>
+      <c r="M193" t="n">
+        <v>356.8666666666667</v>
+      </c>
+      <c r="N193" t="n">
+        <v>355.185</v>
+      </c>
+      <c r="O193" t="n">
+        <v>356.9266666666667</v>
+      </c>
+      <c r="P193" t="n">
+        <v>355.0966666666667</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>341.985</v>
+      </c>
+      <c r="R193" t="n">
+        <v>346.3029411764706</v>
+      </c>
+      <c r="S193" t="n">
+        <v>341.1855555555555</v>
+      </c>
+      <c r="T193" t="n">
+        <v>335.8855555555555</v>
+      </c>
+      <c r="U193" t="n">
+        <v>341.5429411764706</v>
+      </c>
+      <c r="V193" t="n">
+        <v>361.05</v>
+      </c>
+      <c r="W193" t="n">
+        <v>357.2555555555556</v>
+      </c>
+      <c r="X193" t="n">
+        <v>348.7529411764706</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>342.0129411764706</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>338.3629411764706</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>338.88</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>342</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>347.53</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>350.8057142857143</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>339.1237037037037</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>343.92</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20700,7 +20922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22618,6 +22840,26 @@
       </c>
       <c r="B191" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -22791,28 +23033,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01822869489845939</v>
+        <v>-0.0335608098008403</v>
       </c>
       <c r="J2" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K2" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L2" t="n">
-        <v>3.345062492632334e-05</v>
+        <v>0.0001161910233324903</v>
       </c>
       <c r="M2" t="n">
-        <v>19.54879604554498</v>
+        <v>19.37829249341201</v>
       </c>
       <c r="N2" t="n">
-        <v>571.2829603839987</v>
+        <v>564.2877412731402</v>
       </c>
       <c r="O2" t="n">
-        <v>23.90152631912863</v>
+        <v>23.75474144824861</v>
       </c>
       <c r="P2" t="n">
-        <v>324.2309294464417</v>
+        <v>324.3825768677992</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22863,28 +23105,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.202477613440548</v>
+        <v>-0.1890125953901008</v>
       </c>
       <c r="J3" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K3" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004912998187130646</v>
+        <v>0.004389646808880543</v>
       </c>
       <c r="M3" t="n">
-        <v>17.83113621803578</v>
+        <v>17.67789786496386</v>
       </c>
       <c r="N3" t="n">
-        <v>490.7604275348584</v>
+        <v>485.2326254265395</v>
       </c>
       <c r="O3" t="n">
-        <v>22.15311326958038</v>
+        <v>22.02799640063843</v>
       </c>
       <c r="P3" t="n">
-        <v>329.4187368631346</v>
+        <v>329.2915679804753</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22941,28 +23183,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3102069763038124</v>
+        <v>-0.2962168278095975</v>
       </c>
       <c r="J4" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01465282090735409</v>
+        <v>0.01370259142742392</v>
       </c>
       <c r="M4" t="n">
-        <v>16.02725002823737</v>
+        <v>15.8993332992962</v>
       </c>
       <c r="N4" t="n">
-        <v>377.4272128212557</v>
+        <v>373.3600498697938</v>
       </c>
       <c r="O4" t="n">
-        <v>19.42748601392511</v>
+        <v>19.32252700528049</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6090973225079</v>
+        <v>335.4763866451177</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23013,28 +23255,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.348650666025024</v>
+        <v>-0.3401343429629675</v>
       </c>
       <c r="J5" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K5" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02324894374218034</v>
+        <v>0.02269447573127248</v>
       </c>
       <c r="M5" t="n">
-        <v>14.41995181728514</v>
+        <v>14.28970412617789</v>
       </c>
       <c r="N5" t="n">
-        <v>303.5769307819933</v>
+        <v>300.1556881203131</v>
       </c>
       <c r="O5" t="n">
-        <v>17.42345920826267</v>
+        <v>17.32500182165396</v>
       </c>
       <c r="P5" t="n">
-        <v>344.0809216601707</v>
+        <v>344.0016027477733</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23091,28 +23333,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4168699319232805</v>
+        <v>-0.4034512227226926</v>
       </c>
       <c r="J6" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K6" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03633282793031378</v>
+        <v>0.03487850180153507</v>
       </c>
       <c r="M6" t="n">
-        <v>13.46334886997405</v>
+        <v>13.36166095628485</v>
       </c>
       <c r="N6" t="n">
-        <v>279.351188174277</v>
+        <v>276.5075980866463</v>
       </c>
       <c r="O6" t="n">
-        <v>16.71380232545177</v>
+        <v>16.62851761542941</v>
       </c>
       <c r="P6" t="n">
-        <v>356.5703589339808</v>
+        <v>356.4467318612433</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23163,28 +23405,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.412024255612577</v>
+        <v>-0.4010333563537343</v>
       </c>
       <c r="J7" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K7" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04165886985352141</v>
+        <v>0.0404334248095537</v>
       </c>
       <c r="M7" t="n">
-        <v>12.11126170063554</v>
+        <v>12.02108616255843</v>
       </c>
       <c r="N7" t="n">
-        <v>235.4547843615275</v>
+        <v>233.018305912953</v>
       </c>
       <c r="O7" t="n">
-        <v>15.34453597739363</v>
+        <v>15.26493714081237</v>
       </c>
       <c r="P7" t="n">
-        <v>369.7736893041289</v>
+        <v>369.6717416891371</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23241,28 +23483,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3573375944401674</v>
+        <v>-0.3562997542571618</v>
       </c>
       <c r="J8" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03860948513969797</v>
+        <v>0.03930753473998427</v>
       </c>
       <c r="M8" t="n">
-        <v>11.18016399085151</v>
+        <v>11.07385327804062</v>
       </c>
       <c r="N8" t="n">
-        <v>191.1437930287604</v>
+        <v>188.9511294599563</v>
       </c>
       <c r="O8" t="n">
-        <v>13.82547623153577</v>
+        <v>13.74594956559772</v>
       </c>
       <c r="P8" t="n">
-        <v>386.6702398773761</v>
+        <v>386.6605448254857</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23319,28 +23561,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2654437010013885</v>
+        <v>-0.2631297581531282</v>
       </c>
       <c r="J9" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02086242941349525</v>
+        <v>0.02100608760494549</v>
       </c>
       <c r="M9" t="n">
-        <v>11.10430346112178</v>
+        <v>10.98629378379798</v>
       </c>
       <c r="N9" t="n">
-        <v>198.305331784042</v>
+        <v>196.0137936140336</v>
       </c>
       <c r="O9" t="n">
-        <v>14.0820925925106</v>
+        <v>14.00049262040567</v>
       </c>
       <c r="P9" t="n">
-        <v>396.0447126040916</v>
+        <v>396.0232583986651</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23397,28 +23639,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2469561378515813</v>
+        <v>-0.2390447757183252</v>
       </c>
       <c r="J10" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K10" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02019835850874574</v>
+        <v>0.01936707885404043</v>
       </c>
       <c r="M10" t="n">
-        <v>10.1688004725391</v>
+        <v>10.09513804102256</v>
       </c>
       <c r="N10" t="n">
-        <v>178.8802938511372</v>
+        <v>177.0226491880715</v>
       </c>
       <c r="O10" t="n">
-        <v>13.37461378325136</v>
+        <v>13.3049858770339</v>
       </c>
       <c r="P10" t="n">
-        <v>385.9722341913289</v>
+        <v>385.8986399631184</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23475,28 +23717,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2539755068368851</v>
+        <v>-0.251385126397758</v>
       </c>
       <c r="J11" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02426683636677085</v>
+        <v>0.02431325161881315</v>
       </c>
       <c r="M11" t="n">
-        <v>9.696959357981942</v>
+        <v>9.603421649044215</v>
       </c>
       <c r="N11" t="n">
-        <v>155.8730125544658</v>
+        <v>154.1642002778758</v>
       </c>
       <c r="O11" t="n">
-        <v>12.48491139553925</v>
+        <v>12.41628770115592</v>
       </c>
       <c r="P11" t="n">
-        <v>378.161577514534</v>
+        <v>378.1373168557939</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23553,28 +23795,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2362532549568298</v>
+        <v>-0.2357929688596294</v>
       </c>
       <c r="J12" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K12" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02214263922994775</v>
+        <v>0.02255723298446721</v>
       </c>
       <c r="M12" t="n">
-        <v>9.591602296616797</v>
+        <v>9.48694579996709</v>
       </c>
       <c r="N12" t="n">
-        <v>148.0646523761666</v>
+        <v>146.4112317792486</v>
       </c>
       <c r="O12" t="n">
-        <v>12.16818196675931</v>
+        <v>12.10005089986189</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0867829695491</v>
+        <v>371.0824684679188</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23631,28 +23873,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2028322386464674</v>
+        <v>-0.2067594301190221</v>
       </c>
       <c r="J13" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K13" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01767496226531062</v>
+        <v>0.01875870206544494</v>
       </c>
       <c r="M13" t="n">
-        <v>9.120467309802841</v>
+        <v>9.040002397946576</v>
       </c>
       <c r="N13" t="n">
-        <v>137.5663345445552</v>
+        <v>136.0705708227323</v>
       </c>
       <c r="O13" t="n">
-        <v>11.72886757298228</v>
+        <v>11.66492909634398</v>
       </c>
       <c r="P13" t="n">
-        <v>364.2042545146642</v>
+        <v>364.2411255783216</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23709,28 +23951,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.100548740980228</v>
+        <v>-0.1065316688163352</v>
       </c>
       <c r="J14" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005184813908434616</v>
+        <v>0.005943715982127062</v>
       </c>
       <c r="M14" t="n">
-        <v>8.152339070219302</v>
+        <v>8.091388577460735</v>
       </c>
       <c r="N14" t="n">
-        <v>115.2257002349894</v>
+        <v>114.0700794737954</v>
       </c>
       <c r="O14" t="n">
-        <v>10.73432346424261</v>
+        <v>10.68035951987551</v>
       </c>
       <c r="P14" t="n">
-        <v>359.0626652138969</v>
+        <v>359.1190854094858</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23787,28 +24029,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09819234612851196</v>
+        <v>-0.09881484157241022</v>
       </c>
       <c r="J15" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K15" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004698379874674918</v>
+        <v>0.004866186508055148</v>
       </c>
       <c r="M15" t="n">
-        <v>8.652503212324111</v>
+        <v>8.573869367192717</v>
       </c>
       <c r="N15" t="n">
-        <v>121.3245548276048</v>
+        <v>120.0047530444164</v>
       </c>
       <c r="O15" t="n">
-        <v>11.01474261286231</v>
+        <v>10.95466809375877</v>
       </c>
       <c r="P15" t="n">
-        <v>358.2191149716501</v>
+        <v>358.2249390650723</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23865,28 +24107,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05970373852522182</v>
+        <v>-0.06637691566616608</v>
       </c>
       <c r="J16" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K16" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002021581355495572</v>
+        <v>0.002551195455535171</v>
       </c>
       <c r="M16" t="n">
-        <v>8.108340240062873</v>
+        <v>8.054205915473647</v>
       </c>
       <c r="N16" t="n">
-        <v>104.524916368771</v>
+        <v>103.524317268967</v>
       </c>
       <c r="O16" t="n">
-        <v>10.2237427769272</v>
+        <v>10.17469003306573</v>
       </c>
       <c r="P16" t="n">
-        <v>357.9303320900642</v>
+        <v>357.9932571005556</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23943,28 +24185,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.05376241171284002</v>
+        <v>-0.07008016643913302</v>
       </c>
       <c r="J17" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00157822901130622</v>
+        <v>0.002722162342690071</v>
       </c>
       <c r="M17" t="n">
-        <v>8.399225001416028</v>
+        <v>8.393591336821437</v>
       </c>
       <c r="N17" t="n">
-        <v>108.2482259157912</v>
+        <v>107.7566634612643</v>
       </c>
       <c r="O17" t="n">
-        <v>10.40424076594689</v>
+        <v>10.3805907086863</v>
       </c>
       <c r="P17" t="n">
-        <v>352.4132060965615</v>
+        <v>352.5677946084365</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24021,28 +24263,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003692154556196553</v>
+        <v>-0.0006933853507440439</v>
       </c>
       <c r="J18" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K18" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L18" t="n">
-        <v>7.552780876829424e-06</v>
+        <v>2.72367673415097e-07</v>
       </c>
       <c r="M18" t="n">
-        <v>8.140955650618432</v>
+        <v>8.075239945097113</v>
       </c>
       <c r="N18" t="n">
-        <v>105.0395970992228</v>
+        <v>103.9239686569834</v>
       </c>
       <c r="O18" t="n">
-        <v>10.24888272443503</v>
+        <v>10.19431060234008</v>
       </c>
       <c r="P18" t="n">
-        <v>347.45734395191</v>
+        <v>347.4995516674923</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24099,28 +24341,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1102031319887691</v>
+        <v>0.09798476151898558</v>
       </c>
       <c r="J19" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K19" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005958973823249281</v>
+        <v>0.004808834246201821</v>
       </c>
       <c r="M19" t="n">
-        <v>8.559681782296927</v>
+        <v>8.525234750773699</v>
       </c>
       <c r="N19" t="n">
-        <v>116.3186805474447</v>
+        <v>115.4048902855066</v>
       </c>
       <c r="O19" t="n">
-        <v>10.78511384026357</v>
+        <v>10.74266681441376</v>
       </c>
       <c r="P19" t="n">
-        <v>342.9687179231918</v>
+        <v>343.0878113973427</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24177,28 +24419,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1039490066643449</v>
+        <v>0.0761427425991363</v>
       </c>
       <c r="J20" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K20" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004188688409843655</v>
+        <v>0.002271116519230953</v>
       </c>
       <c r="M20" t="n">
-        <v>9.487558131551388</v>
+        <v>9.506964700515407</v>
       </c>
       <c r="N20" t="n">
-        <v>146.2717089422167</v>
+        <v>146.7121119729116</v>
       </c>
       <c r="O20" t="n">
-        <v>12.09428414343804</v>
+        <v>12.11247753240069</v>
       </c>
       <c r="P20" t="n">
-        <v>343.7792838096583</v>
+        <v>344.0512798997486</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24255,28 +24497,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07921041533308634</v>
+        <v>0.05865007598574447</v>
       </c>
       <c r="J21" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K21" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002337481777699435</v>
+        <v>0.001302436729741285</v>
       </c>
       <c r="M21" t="n">
-        <v>9.620814111369112</v>
+        <v>9.621320361573513</v>
       </c>
       <c r="N21" t="n">
-        <v>152.8313521941986</v>
+        <v>152.2935883374534</v>
       </c>
       <c r="O21" t="n">
-        <v>12.36249781371866</v>
+        <v>12.34072884141992</v>
       </c>
       <c r="P21" t="n">
-        <v>347.114458129997</v>
+        <v>347.3147909894327</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24333,28 +24575,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05473582611411416</v>
+        <v>-0.05421036166470866</v>
       </c>
       <c r="J22" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K22" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001029442192990615</v>
+        <v>0.001027608641267941</v>
       </c>
       <c r="M22" t="n">
-        <v>10.00731852352789</v>
+        <v>9.989669765988969</v>
       </c>
       <c r="N22" t="n">
-        <v>167.856853240245</v>
+        <v>166.7907444176738</v>
       </c>
       <c r="O22" t="n">
-        <v>12.95595821389699</v>
+        <v>12.91474910393825</v>
       </c>
       <c r="P22" t="n">
-        <v>353.8522173353205</v>
+        <v>353.8468310578983</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24411,28 +24653,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03554510159524565</v>
+        <v>-0.04341785645381348</v>
       </c>
       <c r="J23" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K23" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004070819721243568</v>
+        <v>0.0006201153006781812</v>
       </c>
       <c r="M23" t="n">
-        <v>10.39974796933457</v>
+        <v>10.32244763495833</v>
       </c>
       <c r="N23" t="n">
-        <v>179.1207170596055</v>
+        <v>177.3685080815113</v>
       </c>
       <c r="O23" t="n">
-        <v>13.38359880822813</v>
+        <v>13.31797687644453</v>
       </c>
       <c r="P23" t="n">
-        <v>360.1079324085077</v>
+        <v>360.184372309592</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24489,28 +24731,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>0.008624388425850074</v>
+        <v>-0.01083693636958275</v>
       </c>
       <c r="J24" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K24" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L24" t="n">
-        <v>2.168315502704132e-05</v>
+        <v>3.48079331152773e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>11.02705804086897</v>
+        <v>11.00031943805445</v>
       </c>
       <c r="N24" t="n">
-        <v>199.2886021371224</v>
+        <v>198.1236864316861</v>
       </c>
       <c r="O24" t="n">
-        <v>14.11696150512292</v>
+        <v>14.07564159929082</v>
       </c>
       <c r="P24" t="n">
-        <v>358.296014760462</v>
+        <v>358.4851610720061</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24567,28 +24809,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07553773135484176</v>
+        <v>0.04740250081182295</v>
       </c>
       <c r="J25" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K25" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001544525175970923</v>
+        <v>0.0006162087432729502</v>
       </c>
       <c r="M25" t="n">
-        <v>11.35024929349763</v>
+        <v>11.36069139031045</v>
       </c>
       <c r="N25" t="n">
-        <v>213.9410812774145</v>
+        <v>213.7091045132148</v>
       </c>
       <c r="O25" t="n">
-        <v>14.62672489921836</v>
+        <v>14.61879285417284</v>
       </c>
       <c r="P25" t="n">
-        <v>352.2271238355302</v>
+        <v>352.5000801894545</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24645,28 +24887,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1127938248017197</v>
+        <v>0.08948653115557584</v>
       </c>
       <c r="J26" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K26" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002732454803257678</v>
+        <v>0.001749857478649197</v>
       </c>
       <c r="M26" t="n">
-        <v>12.53124256733023</v>
+        <v>12.5324390703418</v>
       </c>
       <c r="N26" t="n">
-        <v>274.0324893745221</v>
+        <v>272.547207377286</v>
       </c>
       <c r="O26" t="n">
-        <v>16.55392670560439</v>
+        <v>16.50900382752654</v>
       </c>
       <c r="P26" t="n">
-        <v>346.9211650909398</v>
+        <v>347.14396721047</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24723,28 +24965,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2552514596621943</v>
+        <v>0.2291502951538717</v>
       </c>
       <c r="J27" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01235989868973586</v>
+        <v>0.01013168777068674</v>
       </c>
       <c r="M27" t="n">
-        <v>13.48098980455308</v>
+        <v>13.46818398012757</v>
       </c>
       <c r="N27" t="n">
-        <v>308.0298471008671</v>
+        <v>306.7153584147516</v>
       </c>
       <c r="O27" t="n">
-        <v>17.55077910238936</v>
+        <v>17.51329090761504</v>
       </c>
       <c r="P27" t="n">
-        <v>342.3850098277423</v>
+        <v>342.6353582596792</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -24801,28 +25043,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4215946286741857</v>
+        <v>0.3919031979617509</v>
       </c>
       <c r="J28" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03231921582949959</v>
+        <v>0.02842769573264603</v>
       </c>
       <c r="M28" t="n">
-        <v>13.87405960519098</v>
+        <v>13.87075921971996</v>
       </c>
       <c r="N28" t="n">
-        <v>311.2510324311529</v>
+        <v>310.4480717906434</v>
       </c>
       <c r="O28" t="n">
-        <v>17.64230802449478</v>
+        <v>17.61953665084991</v>
       </c>
       <c r="P28" t="n">
-        <v>340.9831497042182</v>
+        <v>341.2683084346189</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -24879,28 +25121,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4133562005339933</v>
+        <v>0.3833115773014538</v>
       </c>
       <c r="J29" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02737515692463133</v>
+        <v>0.02394386954514327</v>
       </c>
       <c r="M29" t="n">
-        <v>14.35027445645557</v>
+        <v>14.34060470957474</v>
       </c>
       <c r="N29" t="n">
-        <v>354.0150349754447</v>
+        <v>353.2102286562065</v>
       </c>
       <c r="O29" t="n">
-        <v>18.81528726794902</v>
+        <v>18.79388806650201</v>
       </c>
       <c r="P29" t="n">
-        <v>343.5122467738856</v>
+        <v>343.8017126585834</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -24957,28 +25199,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5706075342743329</v>
+        <v>0.5406431848804596</v>
       </c>
       <c r="J30" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K30" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04957064781901999</v>
+        <v>0.0453848652331873</v>
       </c>
       <c r="M30" t="n">
-        <v>14.77659287402982</v>
+        <v>14.73622620441756</v>
       </c>
       <c r="N30" t="n">
-        <v>370.748995877272</v>
+        <v>369.4488849407464</v>
       </c>
       <c r="O30" t="n">
-        <v>19.25484343943809</v>
+        <v>19.22105316939596</v>
       </c>
       <c r="P30" t="n">
-        <v>346.2741355752702</v>
+        <v>346.5572387614634</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -25035,28 +25277,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4570658810371218</v>
+        <v>0.4316769132380529</v>
       </c>
       <c r="J31" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K31" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03188110405687816</v>
+        <v>0.02903415440174972</v>
       </c>
       <c r="M31" t="n">
-        <v>15.04832948836614</v>
+        <v>14.98564198822073</v>
       </c>
       <c r="N31" t="n">
-        <v>372.3278009893201</v>
+        <v>370.0344008467789</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2957974955512</v>
+        <v>19.23627824831973</v>
       </c>
       <c r="P31" t="n">
-        <v>345.8289669128449</v>
+        <v>346.072082521115</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -25113,28 +25355,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3922408336624764</v>
+        <v>0.3546969299645436</v>
       </c>
       <c r="J32" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K32" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02282761796597432</v>
+        <v>0.01900850285326738</v>
       </c>
       <c r="M32" t="n">
-        <v>15.36030012832125</v>
+        <v>15.34022855026592</v>
       </c>
       <c r="N32" t="n">
-        <v>382.2339679362622</v>
+        <v>381.3329922017787</v>
       </c>
       <c r="O32" t="n">
-        <v>19.55080478998914</v>
+        <v>19.52774928663769</v>
       </c>
       <c r="P32" t="n">
-        <v>346.3244124819582</v>
+        <v>346.6868222904206</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25191,28 +25433,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4396646634760899</v>
+        <v>0.401756437054748</v>
       </c>
       <c r="J33" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K33" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02869313795055717</v>
+        <v>0.02441588312201426</v>
       </c>
       <c r="M33" t="n">
-        <v>15.50515433453389</v>
+        <v>15.48831390174171</v>
       </c>
       <c r="N33" t="n">
-        <v>383.4813315933824</v>
+        <v>382.6581632421463</v>
       </c>
       <c r="O33" t="n">
-        <v>19.58267937728089</v>
+        <v>19.56165032000486</v>
       </c>
       <c r="P33" t="n">
-        <v>348.8881085100621</v>
+        <v>349.248414870295</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25269,28 +25511,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3092104858003845</v>
+        <v>0.2766297174019441</v>
       </c>
       <c r="J34" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K34" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01381644678934002</v>
+        <v>0.01128769141207453</v>
       </c>
       <c r="M34" t="n">
-        <v>16.1462244613241</v>
+        <v>16.09018427147193</v>
       </c>
       <c r="N34" t="n">
-        <v>397.9541575751815</v>
+        <v>395.8512549482844</v>
       </c>
       <c r="O34" t="n">
-        <v>19.9487883736126</v>
+        <v>19.89601103106561</v>
       </c>
       <c r="P34" t="n">
-        <v>355.6315708795466</v>
+        <v>355.9424430643681</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -25328,7 +25570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI191"/>
+  <dimension ref="A1:AI193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57115,6 +57357,360 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>-34.42622241364891,172.96361662213437</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>-34.42613411236112,172.96451328972577</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>-34.42607923700496,172.96541062643087</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>-34.42601750275866,172.96630782498886</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>-34.42588620979099,172.96720362732162</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>-34.425759017754224,172.9680995103232</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>-34.425645518352034,172.9689883002428</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>-34.42542147561004,172.9697922117496</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>-34.425185672561256,172.97060423138078</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>-34.42495753911945,172.97146534931701</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>-34.42471972693481,172.9723211260913</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>-34.42447645434528,172.97317389010652</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>-34.42421197233054,172.97401494743008</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>-34.42388770509518,172.97482367396992</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>-34.42359278632912,172.97565508390028</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>-34.4232777022101,172.97647842876495</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>-34.42290419137081,172.97725431240883</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>-34.422580997339,172.97806509024392</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>-34.42228049329465,172.9788916046279</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>-34.42185904172891,172.9796342462132</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>-34.421430710049805,172.9803721172262</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>-34.420988574280464,172.98110901425693</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>-34.42057359583126,172.98186651348183</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>-34.42015926484282,172.98262652959136</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>-34.419682417478796,172.98331418546022</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>-34.41923692476153,172.98403432077205</t>
+        </is>
+      </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>-34.41875534992245,172.98471708593166</t>
+        </is>
+      </c>
+      <c r="AC192" t="inlineStr">
+        <is>
+          <t>-34.418279657312944,172.98540594671496</t>
+        </is>
+      </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>-34.417733928579125,172.986040248144</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>-34.41718500791683,172.98666553075927</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>-34.41665359272531,172.9872941508895</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>-34.416096955190135,172.987887848515</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>-34.41551488683122,172.98844866275164</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>-34.42627083520011,172.96361759227625</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-34.4261032576622,172.96451267133008</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-34.42606754490029,172.9654103920149</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>-34.42601221406481,172.96630771891898</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>-34.42588231606659,172.9672035492025</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>-34.425763466163275,172.96809959960137</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>-34.425607365504135,172.9689847624587</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>-34.42542730344959,172.96979427013784</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>-34.4251832690153,172.9706029046302</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>-34.424968913351144,172.9714716279383</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>-34.424716831338976,172.97231952769206</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>-34.424478641282185,172.9731750973329</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>-34.42418449900174,172.9739997815211</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>-34.42386215211305,172.97480937325</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>-34.42356077160452,172.97563494500642</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>-34.423292949678995,172.97648900224863</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>-34.42289034679866,172.97724471171287</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>-34.422561518916844,172.97805158257094</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>-34.422234117066445,172.97885944389625</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>-34.42182103617487,172.97960789018012</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>-34.421299661799914,172.98028123771465</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>-34.420958657459416,172.9810852589077</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>-34.420573310301165,172.9818662371049</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>-34.42013428333591,172.98260065442523</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>-34.419677007388906,172.9833085818165</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>-34.41919121289629,172.9839869733308</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>-34.418687603537464,172.98464691538635</t>
+        </is>
+      </c>
+      <c r="AC193" t="inlineStr">
+        <is>
+          <t>-34.41816749980371,172.98528977559891</t>
+        </is>
+      </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>-34.41764027777111,172.98593310553153</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>-34.41711907212681,172.98658126151466</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>-34.41664897386926,172.98728817765704</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>-34.41607800587549,172.98786334272495</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>-34.41549999813727,172.98842940827365</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI193"/>
+  <dimension ref="A1:AI194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20911,6 +20911,117 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>310.44</v>
+      </c>
+      <c r="C194" t="n">
+        <v>317.8254545454545</v>
+      </c>
+      <c r="D194" t="n">
+        <v>337.32</v>
+      </c>
+      <c r="E194" t="n">
+        <v>344.5117391304348</v>
+      </c>
+      <c r="F194" t="n">
+        <v>355.2254545454546</v>
+      </c>
+      <c r="G194" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="H194" t="n">
+        <v>377.7415384615384</v>
+      </c>
+      <c r="I194" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="J194" t="n">
+        <v>366.5415384615384</v>
+      </c>
+      <c r="K194" t="n">
+        <v>352.8615384615384</v>
+      </c>
+      <c r="L194" t="n">
+        <v>344.0715384615385</v>
+      </c>
+      <c r="M194" t="n">
+        <v>332.56</v>
+      </c>
+      <c r="N194" t="n">
+        <v>333.505</v>
+      </c>
+      <c r="O194" t="n">
+        <v>339.85</v>
+      </c>
+      <c r="P194" t="n">
+        <v>330.35</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>324.025</v>
+      </c>
+      <c r="R194" t="n">
+        <v>328.1429411764706</v>
+      </c>
+      <c r="S194" t="n">
+        <v>318.2233333333333</v>
+      </c>
+      <c r="T194" t="n">
+        <v>311.1333333333333</v>
+      </c>
+      <c r="U194" t="n">
+        <v>324.4929411764706</v>
+      </c>
+      <c r="V194" t="n">
+        <v>344.67</v>
+      </c>
+      <c r="W194" t="n">
+        <v>356.3933333333333</v>
+      </c>
+      <c r="X194" t="n">
+        <v>344.3529411764706</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>340.5929411764706</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>326.1529411764706</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>313.63</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>321.89</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>324.67</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>340.89</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>329.8542857142857</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>327.1022222222222</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>323.83</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>338.68</v>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20922,7 +21033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22860,6 +22971,16 @@
       </c>
       <c r="B193" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -23033,28 +23154,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0335608098008403</v>
+        <v>-0.04897305009375014</v>
       </c>
       <c r="J2" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001161910233324903</v>
+        <v>0.0002499840509000428</v>
       </c>
       <c r="M2" t="n">
-        <v>19.37829249341201</v>
+        <v>19.34271460831623</v>
       </c>
       <c r="N2" t="n">
-        <v>564.2877412731402</v>
+        <v>561.6608855878295</v>
       </c>
       <c r="O2" t="n">
-        <v>23.75474144824861</v>
+        <v>23.69938576393552</v>
       </c>
       <c r="P2" t="n">
-        <v>324.3825768677992</v>
+        <v>324.5353519785776</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23105,28 +23226,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1890125953901008</v>
+        <v>-0.1962833194014779</v>
       </c>
       <c r="J3" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K3" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004389646808880543</v>
+        <v>0.004788284176018176</v>
       </c>
       <c r="M3" t="n">
-        <v>17.67789786496386</v>
+        <v>17.61432115305476</v>
       </c>
       <c r="N3" t="n">
-        <v>485.2326254265395</v>
+        <v>482.5478907002965</v>
       </c>
       <c r="O3" t="n">
-        <v>22.02799640063843</v>
+        <v>21.9669727249864</v>
       </c>
       <c r="P3" t="n">
-        <v>329.2915679804753</v>
+        <v>329.3603967681989</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23183,28 +23304,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2962168278095975</v>
+        <v>-0.2856611609727815</v>
       </c>
       <c r="J4" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K4" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01370259142742392</v>
+        <v>0.01289463925052348</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8993332992962</v>
+        <v>15.85347556178638</v>
       </c>
       <c r="N4" t="n">
-        <v>373.3600498697938</v>
+        <v>371.6686328595268</v>
       </c>
       <c r="O4" t="n">
-        <v>19.32252700528049</v>
+        <v>19.27870931518827</v>
       </c>
       <c r="P4" t="n">
-        <v>335.4763866451177</v>
+        <v>335.3759962169823</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23255,28 +23376,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3401343429629675</v>
+        <v>-0.3299839216169576</v>
       </c>
       <c r="J5" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K5" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02269447573127248</v>
+        <v>0.02161255930053119</v>
       </c>
       <c r="M5" t="n">
-        <v>14.28970412617789</v>
+        <v>14.25327836936863</v>
       </c>
       <c r="N5" t="n">
-        <v>300.1556881203131</v>
+        <v>298.8937615180458</v>
       </c>
       <c r="O5" t="n">
-        <v>17.32500182165396</v>
+        <v>17.28854422784191</v>
       </c>
       <c r="P5" t="n">
-        <v>344.0016027477733</v>
+        <v>343.9068119522893</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23333,28 +23454,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4034512227226926</v>
+        <v>-0.3936416766388914</v>
       </c>
       <c r="J6" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03487850180153507</v>
+        <v>0.03358939059096133</v>
       </c>
       <c r="M6" t="n">
-        <v>13.36166095628485</v>
+        <v>13.32481159307654</v>
       </c>
       <c r="N6" t="n">
-        <v>276.5075980866463</v>
+        <v>275.382114670985</v>
       </c>
       <c r="O6" t="n">
-        <v>16.62851761542941</v>
+        <v>16.59464114318189</v>
       </c>
       <c r="P6" t="n">
-        <v>356.4467318612433</v>
+        <v>356.356100907907</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23405,28 +23526,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4010333563537343</v>
+        <v>-0.3929452074022075</v>
       </c>
       <c r="J7" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K7" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0404334248095537</v>
+        <v>0.03927035516649691</v>
       </c>
       <c r="M7" t="n">
-        <v>12.02108616255843</v>
+        <v>11.98843885785179</v>
       </c>
       <c r="N7" t="n">
-        <v>233.018305912953</v>
+        <v>232.0096040999692</v>
       </c>
       <c r="O7" t="n">
-        <v>15.26493714081237</v>
+        <v>15.23186147849202</v>
       </c>
       <c r="P7" t="n">
-        <v>369.6717416891371</v>
+        <v>369.5964965013872</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23483,28 +23604,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3562997542571618</v>
+        <v>-0.355949252067861</v>
       </c>
       <c r="J8" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K8" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03930753473998427</v>
+        <v>0.0396901784327226</v>
       </c>
       <c r="M8" t="n">
-        <v>11.07385327804062</v>
+        <v>11.01102440159193</v>
       </c>
       <c r="N8" t="n">
-        <v>188.9511294599563</v>
+        <v>187.8467726739615</v>
       </c>
       <c r="O8" t="n">
-        <v>13.74594956559772</v>
+        <v>13.70572043615225</v>
       </c>
       <c r="P8" t="n">
-        <v>386.6605448254857</v>
+        <v>386.657286186282</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23561,28 +23682,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2631297581531282</v>
+        <v>-0.2722765074705994</v>
       </c>
       <c r="J9" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K9" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02100608760494549</v>
+        <v>0.02267479879677148</v>
       </c>
       <c r="M9" t="n">
-        <v>10.98629378379798</v>
+        <v>10.97757710290866</v>
       </c>
       <c r="N9" t="n">
-        <v>196.0137936140336</v>
+        <v>195.3050332238465</v>
       </c>
       <c r="O9" t="n">
-        <v>14.00049262040567</v>
+        <v>13.97515771731562</v>
       </c>
       <c r="P9" t="n">
-        <v>396.0232583986651</v>
+        <v>396.1083499898569</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23639,28 +23760,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2390447757183252</v>
+        <v>-0.2523329386061746</v>
       </c>
       <c r="J10" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01936707885404043</v>
+        <v>0.02165694374870286</v>
       </c>
       <c r="M10" t="n">
-        <v>10.09513804102256</v>
+        <v>10.11537820956845</v>
       </c>
       <c r="N10" t="n">
-        <v>177.0226491880715</v>
+        <v>176.9836941637676</v>
       </c>
       <c r="O10" t="n">
-        <v>13.3049858770339</v>
+        <v>13.303521870684</v>
       </c>
       <c r="P10" t="n">
-        <v>385.8986399631184</v>
+        <v>386.0226036381803</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23717,28 +23838,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.251385126397758</v>
+        <v>-0.2700146329954984</v>
       </c>
       <c r="J11" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02431325161881315</v>
+        <v>0.0279094650662286</v>
       </c>
       <c r="M11" t="n">
-        <v>9.603421649044215</v>
+        <v>9.655912266329191</v>
       </c>
       <c r="N11" t="n">
-        <v>154.1642002778758</v>
+        <v>155.2230842057646</v>
       </c>
       <c r="O11" t="n">
-        <v>12.41628770115592</v>
+        <v>12.45885565394208</v>
       </c>
       <c r="P11" t="n">
-        <v>378.1373168557939</v>
+        <v>378.3124683917536</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23795,28 +23916,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2357929688596294</v>
+        <v>-0.2567275170782811</v>
       </c>
       <c r="J12" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K12" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02255723298446721</v>
+        <v>0.02649788093714178</v>
       </c>
       <c r="M12" t="n">
-        <v>9.48694579996709</v>
+        <v>9.549557830589105</v>
       </c>
       <c r="N12" t="n">
-        <v>146.4112317792486</v>
+        <v>147.9822069554884</v>
       </c>
       <c r="O12" t="n">
-        <v>12.10005089986189</v>
+        <v>12.16479374899092</v>
       </c>
       <c r="P12" t="n">
-        <v>371.0824684679188</v>
+        <v>371.2789897005148</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23873,28 +23994,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2067594301190221</v>
+        <v>-0.2329348827150609</v>
       </c>
       <c r="J13" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K13" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01875870206544494</v>
+        <v>0.02330934965708842</v>
       </c>
       <c r="M13" t="n">
-        <v>9.040002397946576</v>
+        <v>9.133019683667746</v>
       </c>
       <c r="N13" t="n">
-        <v>136.0705708227323</v>
+        <v>139.0983566317127</v>
       </c>
       <c r="O13" t="n">
-        <v>11.66492909634398</v>
+        <v>11.7939966352256</v>
       </c>
       <c r="P13" t="n">
-        <v>364.2411255783216</v>
+        <v>364.4875720393078</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23951,28 +24072,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1065316688163352</v>
+        <v>-0.1294827571971596</v>
       </c>
       <c r="J14" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005943715982127062</v>
+        <v>0.008639047600509153</v>
       </c>
       <c r="M14" t="n">
-        <v>8.091388577460735</v>
+        <v>8.163334852706043</v>
       </c>
       <c r="N14" t="n">
-        <v>114.0700794737954</v>
+        <v>116.2765077630227</v>
       </c>
       <c r="O14" t="n">
-        <v>10.68035951987551</v>
+        <v>10.78315852443164</v>
       </c>
       <c r="P14" t="n">
-        <v>359.1190854094858</v>
+        <v>359.3363542466236</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24029,28 +24150,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09881484157241022</v>
+        <v>-0.1146956462560763</v>
       </c>
       <c r="J15" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K15" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004866186508055148</v>
+        <v>0.006543918062119847</v>
       </c>
       <c r="M15" t="n">
-        <v>8.573869367192717</v>
+        <v>8.615670938319125</v>
       </c>
       <c r="N15" t="n">
-        <v>120.0047530444164</v>
+        <v>120.6998821367361</v>
       </c>
       <c r="O15" t="n">
-        <v>10.95466809375877</v>
+        <v>10.98634980950161</v>
       </c>
       <c r="P15" t="n">
-        <v>358.2249390650723</v>
+        <v>358.3752763348862</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24107,28 +24228,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.06637691566616608</v>
+        <v>-0.09241309808698382</v>
       </c>
       <c r="J16" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K16" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002551195455535171</v>
+        <v>0.004818397843329492</v>
       </c>
       <c r="M16" t="n">
-        <v>8.054205915473647</v>
+        <v>8.15108440689399</v>
       </c>
       <c r="N16" t="n">
-        <v>103.524317268967</v>
+        <v>106.6028714761644</v>
       </c>
       <c r="O16" t="n">
-        <v>10.17469003306573</v>
+        <v>10.32486665658034</v>
       </c>
       <c r="P16" t="n">
-        <v>357.9932571005556</v>
+        <v>358.2397312975179</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24185,28 +24306,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07008016643913302</v>
+        <v>-0.09680732059884042</v>
       </c>
       <c r="J17" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K17" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002722162342690071</v>
+        <v>0.005057903823513676</v>
       </c>
       <c r="M17" t="n">
-        <v>8.393591336821437</v>
+        <v>8.490058322702721</v>
       </c>
       <c r="N17" t="n">
-        <v>107.7566634612643</v>
+        <v>111.0239992632454</v>
       </c>
       <c r="O17" t="n">
-        <v>10.3805907086863</v>
+        <v>10.53679264592625</v>
       </c>
       <c r="P17" t="n">
-        <v>352.5677946084365</v>
+        <v>352.8216702261174</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24263,28 +24384,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0006933853507440439</v>
+        <v>-0.02034676170879812</v>
       </c>
       <c r="J18" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K18" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L18" t="n">
-        <v>2.72367673415097e-07</v>
+        <v>0.0002325019901167069</v>
       </c>
       <c r="M18" t="n">
-        <v>8.075239945097113</v>
+        <v>8.142727316056906</v>
       </c>
       <c r="N18" t="n">
-        <v>103.9239686569834</v>
+        <v>105.3898812485811</v>
       </c>
       <c r="O18" t="n">
-        <v>10.19431060234008</v>
+        <v>10.26595739561494</v>
       </c>
       <c r="P18" t="n">
-        <v>347.4995516674923</v>
+        <v>347.6893728021009</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24341,28 +24462,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09798476151898558</v>
+        <v>0.06983533833165509</v>
       </c>
       <c r="J19" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004808834246201821</v>
+        <v>0.002390163142106494</v>
       </c>
       <c r="M19" t="n">
-        <v>8.525234750773699</v>
+        <v>8.619425857583346</v>
       </c>
       <c r="N19" t="n">
-        <v>115.4048902855066</v>
+        <v>118.8869802505095</v>
       </c>
       <c r="O19" t="n">
-        <v>10.74266681441376</v>
+        <v>10.90353063234609</v>
       </c>
       <c r="P19" t="n">
-        <v>343.0878113973427</v>
+        <v>343.3630562579055</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24419,28 +24540,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0761427425991363</v>
+        <v>0.04072702093767058</v>
       </c>
       <c r="J20" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002271116519230953</v>
+        <v>0.0006297971550536241</v>
       </c>
       <c r="M20" t="n">
-        <v>9.506964700515407</v>
+        <v>9.626404408586035</v>
       </c>
       <c r="N20" t="n">
-        <v>146.7121119729116</v>
+        <v>152.4549840556198</v>
       </c>
       <c r="O20" t="n">
-        <v>12.11247753240069</v>
+        <v>12.34726625839177</v>
       </c>
       <c r="P20" t="n">
-        <v>344.0512798997486</v>
+        <v>344.3987964137243</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24497,28 +24618,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05865007598574447</v>
+        <v>0.03402217698379496</v>
       </c>
       <c r="J21" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K21" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001302436729741285</v>
+        <v>0.0004344420272347493</v>
       </c>
       <c r="M21" t="n">
-        <v>9.621320361573513</v>
+        <v>9.69819136203632</v>
       </c>
       <c r="N21" t="n">
-        <v>152.2935883374534</v>
+        <v>154.6340280099527</v>
       </c>
       <c r="O21" t="n">
-        <v>12.34072884141992</v>
+        <v>12.43519312314661</v>
       </c>
       <c r="P21" t="n">
-        <v>347.3147909894327</v>
+        <v>347.555515973586</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24575,28 +24696,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.05421036166470866</v>
+        <v>-0.06194313502615503</v>
       </c>
       <c r="J22" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K22" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001027608641267941</v>
+        <v>0.001353194277978309</v>
       </c>
       <c r="M22" t="n">
-        <v>9.989669765988969</v>
+        <v>9.975240355067582</v>
       </c>
       <c r="N22" t="n">
-        <v>166.7907444176738</v>
+        <v>166.2070776345701</v>
       </c>
       <c r="O22" t="n">
-        <v>12.91474910393825</v>
+        <v>12.89213239284216</v>
       </c>
       <c r="P22" t="n">
-        <v>353.8468310578983</v>
+        <v>353.9221897087677</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24653,28 +24774,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04341785645381348</v>
+        <v>-0.04606929310974751</v>
       </c>
       <c r="J23" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K23" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006201153006781812</v>
+        <v>0.0007055450607020841</v>
       </c>
       <c r="M23" t="n">
-        <v>10.32244763495833</v>
+        <v>10.27875577092607</v>
       </c>
       <c r="N23" t="n">
-        <v>177.3685080815113</v>
+        <v>176.4425005423121</v>
       </c>
       <c r="O23" t="n">
-        <v>13.31797687644453</v>
+        <v>13.28316605867412</v>
       </c>
       <c r="P23" t="n">
-        <v>360.184372309592</v>
+        <v>360.21021151112</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24731,28 +24852,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01083693636958275</v>
+        <v>-0.02445854588307758</v>
       </c>
       <c r="J24" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K24" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L24" t="n">
-        <v>3.48079331152773e-05</v>
+        <v>0.0001782460886523562</v>
       </c>
       <c r="M24" t="n">
-        <v>11.00031943805445</v>
+        <v>11.00544115058996</v>
       </c>
       <c r="N24" t="n">
-        <v>198.1236864316861</v>
+        <v>198.0729645033417</v>
       </c>
       <c r="O24" t="n">
-        <v>14.07564159929082</v>
+        <v>14.07383972138882</v>
       </c>
       <c r="P24" t="n">
-        <v>358.4851610720061</v>
+        <v>358.6179328464135</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24809,28 +24930,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04740250081182295</v>
+        <v>0.03433925005048594</v>
       </c>
       <c r="J25" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0006162087432729502</v>
+        <v>0.0003255552068047729</v>
       </c>
       <c r="M25" t="n">
-        <v>11.36069139031045</v>
+        <v>11.36067342382886</v>
       </c>
       <c r="N25" t="n">
-        <v>213.7091045132148</v>
+        <v>213.469211654411</v>
       </c>
       <c r="O25" t="n">
-        <v>14.61879285417284</v>
+        <v>14.61058560272007</v>
       </c>
       <c r="P25" t="n">
-        <v>352.5000801894545</v>
+        <v>352.6272052667044</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -24887,28 +25008,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08948653115557584</v>
+        <v>0.06685469401629023</v>
       </c>
       <c r="J26" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K26" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001749857478649197</v>
+        <v>0.0009775042055217842</v>
       </c>
       <c r="M26" t="n">
-        <v>12.5324390703418</v>
+        <v>12.59862796894019</v>
       </c>
       <c r="N26" t="n">
-        <v>272.547207377286</v>
+        <v>273.9576505836812</v>
       </c>
       <c r="O26" t="n">
-        <v>16.50900382752654</v>
+        <v>16.55166609691246</v>
       </c>
       <c r="P26" t="n">
-        <v>347.14396721047</v>
+        <v>347.3609517661957</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -24965,28 +25086,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2291502951538717</v>
+        <v>0.1955865603807937</v>
       </c>
       <c r="J27" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K27" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01013168777068674</v>
+        <v>0.007324270048872372</v>
       </c>
       <c r="M27" t="n">
-        <v>13.46818398012757</v>
+        <v>13.56826718193824</v>
       </c>
       <c r="N27" t="n">
-        <v>306.7153584147516</v>
+        <v>311.5316609963239</v>
       </c>
       <c r="O27" t="n">
-        <v>17.51329090761504</v>
+        <v>17.65025951640156</v>
       </c>
       <c r="P27" t="n">
-        <v>342.6353582596792</v>
+        <v>342.9583740044393</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -25043,28 +25164,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3919031979617509</v>
+        <v>0.3626670002129178</v>
       </c>
       <c r="J28" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K28" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02842769573264603</v>
+        <v>0.02434473620748123</v>
       </c>
       <c r="M28" t="n">
-        <v>13.87075921971996</v>
+        <v>13.94032396591806</v>
       </c>
       <c r="N28" t="n">
-        <v>310.4480717906434</v>
+        <v>313.4299313685723</v>
       </c>
       <c r="O28" t="n">
-        <v>17.61953665084991</v>
+        <v>17.70395242222968</v>
       </c>
       <c r="P28" t="n">
-        <v>341.2683084346189</v>
+        <v>341.5500595557464</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -25121,28 +25242,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3833115773014538</v>
+        <v>0.3542418949219501</v>
       </c>
       <c r="J29" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02394386954514327</v>
+        <v>0.02048085904740227</v>
       </c>
       <c r="M29" t="n">
-        <v>14.34060470957474</v>
+        <v>14.40431188626886</v>
       </c>
       <c r="N29" t="n">
-        <v>353.2102286562065</v>
+        <v>355.8404465027093</v>
       </c>
       <c r="O29" t="n">
-        <v>18.79388806650201</v>
+        <v>18.86373363103681</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8017126585834</v>
+        <v>344.0828536680588</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -25199,28 +25320,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5406431848804596</v>
+        <v>0.5205805871546119</v>
       </c>
       <c r="J30" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K30" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0453848652331873</v>
+        <v>0.04244013963678939</v>
       </c>
       <c r="M30" t="n">
-        <v>14.73622620441756</v>
+        <v>14.74005200421662</v>
       </c>
       <c r="N30" t="n">
-        <v>369.4488849407464</v>
+        <v>369.5169354250456</v>
       </c>
       <c r="O30" t="n">
-        <v>19.22105316939596</v>
+        <v>19.22282329485046</v>
       </c>
       <c r="P30" t="n">
-        <v>346.5572387614634</v>
+        <v>346.7474986037104</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -25277,28 +25398,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4316769132380529</v>
+        <v>0.4034134725060056</v>
       </c>
       <c r="J31" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K31" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02903415440174972</v>
+        <v>0.02544877068177087</v>
       </c>
       <c r="M31" t="n">
-        <v>14.98564198822073</v>
+        <v>15.02536004661344</v>
       </c>
       <c r="N31" t="n">
-        <v>370.0344008467789</v>
+        <v>372.132460196497</v>
       </c>
       <c r="O31" t="n">
-        <v>19.23627824831973</v>
+        <v>19.29073508699181</v>
       </c>
       <c r="P31" t="n">
-        <v>346.072082521115</v>
+        <v>346.3437060980349</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -25355,28 +25476,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3546969299645436</v>
+        <v>0.3245882490996072</v>
       </c>
       <c r="J32" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K32" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01900850285326738</v>
+        <v>0.01595561748608498</v>
       </c>
       <c r="M32" t="n">
-        <v>15.34022855026592</v>
+        <v>15.38631103051944</v>
       </c>
       <c r="N32" t="n">
-        <v>381.3329922017787</v>
+        <v>383.80992914902</v>
       </c>
       <c r="O32" t="n">
-        <v>19.52774928663769</v>
+        <v>19.59106758573968</v>
       </c>
       <c r="P32" t="n">
-        <v>346.6868222904206</v>
+        <v>346.9782936492753</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25433,28 +25554,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.401756437054748</v>
+        <v>0.3642470573553743</v>
       </c>
       <c r="J33" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K33" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02441588312201426</v>
+        <v>0.02001849513514797</v>
       </c>
       <c r="M33" t="n">
-        <v>15.48831390174171</v>
+        <v>15.56308399739915</v>
       </c>
       <c r="N33" t="n">
-        <v>382.6581632421463</v>
+        <v>387.6592562231816</v>
       </c>
       <c r="O33" t="n">
-        <v>19.56165032000486</v>
+        <v>19.68906438160995</v>
       </c>
       <c r="P33" t="n">
-        <v>349.248414870295</v>
+        <v>349.6059839370026</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25511,28 +25632,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2766297174019441</v>
+        <v>0.2503979222416557</v>
       </c>
       <c r="J34" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K34" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01128769141207453</v>
+        <v>0.009297484335461514</v>
       </c>
       <c r="M34" t="n">
-        <v>16.09018427147193</v>
+        <v>16.10279214518875</v>
       </c>
       <c r="N34" t="n">
-        <v>395.8512549482844</v>
+        <v>396.9621273055694</v>
       </c>
       <c r="O34" t="n">
-        <v>19.89601103106561</v>
+        <v>19.92390843448065</v>
       </c>
       <c r="P34" t="n">
-        <v>355.9424430643681</v>
+        <v>356.1934702586198</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -25570,7 +25691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI193"/>
+  <dimension ref="A1:AI194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57711,6 +57832,183 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>-34.42630897731557,172.96361835646704</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-34.42622993079144,172.96451521013964</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>-34.42604169603127,172.96540987376906</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>-34.42596439627448,172.96630675988743</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>-34.425855338704395,172.96720300796068</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>-34.425736895936204,172.96809906634556</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>-34.42562776994604,172.96898665449294</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>-34.42550834503603,172.96982289399207</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>-34.42532309101775,172.9706800861199</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>-34.425127351379125,172.97155908655867</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>-34.424891507014515,172.97241595071284</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>-34.42467798052825,172.97328513628057</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>-34.42436229650922,172.97409793002697</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>-34.424001861725806,172.9748875618175</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>-34.42375867106209,172.9757594341348</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>-34.42343338273238,172.97658638692485</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>-34.42303234331686,172.97734318119396</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>-34.42274106438549,172.97817609198296</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>-34.42242765826627,172.97899366005842</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>-34.421954352254886,172.9797003421329</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>-34.42142773878955,172.98037005670906</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>-34.42096515310983,172.98109041675488</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>-34.4206042634143,172.98189619798038</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>-34.42014400060337,172.98261071930435</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>-34.41976056185076,172.98339512567117</t>
+        </is>
+      </c>
+      <c r="AA194" t="inlineStr">
+        <is>
+          <t>-34.41936400091166,172.98416594409426</t>
+        </is>
+      </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>-34.41882521761595,172.98478945385506</t>
+        </is>
+      </c>
+      <c r="AC194" t="inlineStr">
+        <is>
+          <t>-34.418323931783846,172.98545180568507</t>
+        </is>
+      </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>-34.41772378471563,172.98602864288793</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>-34.41724878559156,172.98674704202165</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>-34.41672293477578,172.98738382607314</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>-34.41620160699745,172.9880231875091</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>-34.41556878141672,172.98851836083648</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI194"/>
+  <dimension ref="A1:AI195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21022,6 +21022,117 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>324.08</v>
+      </c>
+      <c r="C195" t="n">
+        <v>327.1590909090909</v>
+      </c>
+      <c r="D195" t="n">
+        <v>332.5966666666667</v>
+      </c>
+      <c r="E195" t="n">
+        <v>345.1508695652174</v>
+      </c>
+      <c r="F195" t="n">
+        <v>353.4690909090909</v>
+      </c>
+      <c r="G195" t="n">
+        <v>367.0266666666667</v>
+      </c>
+      <c r="H195" t="n">
+        <v>377.7153846153847</v>
+      </c>
+      <c r="I195" t="n">
+        <v>388.3466666666667</v>
+      </c>
+      <c r="J195" t="n">
+        <v>377.6953846153846</v>
+      </c>
+      <c r="K195" t="n">
+        <v>372.5153846153846</v>
+      </c>
+      <c r="L195" t="n">
+        <v>364.1253846153846</v>
+      </c>
+      <c r="M195" t="n">
+        <v>358.2333333333333</v>
+      </c>
+      <c r="N195" t="n">
+        <v>347.22</v>
+      </c>
+      <c r="O195" t="n">
+        <v>344.1133333333333</v>
+      </c>
+      <c r="P195" t="n">
+        <v>339.0833333333333</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="R195" t="n">
+        <v>333.2870588235294</v>
+      </c>
+      <c r="S195" t="n">
+        <v>333.4911111111111</v>
+      </c>
+      <c r="T195" t="n">
+        <v>328.7211111111111</v>
+      </c>
+      <c r="U195" t="n">
+        <v>332.3670588235294</v>
+      </c>
+      <c r="V195" t="n">
+        <v>344.71</v>
+      </c>
+      <c r="W195" t="n">
+        <v>347.7711111111111</v>
+      </c>
+      <c r="X195" t="n">
+        <v>343.3870588235294</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>337.3970588235294</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>332.7170588235294</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>331.86</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>331.14</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>327.29</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>333.66</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>326.8771428571428</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>326.1540740740741</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>331.81</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21033,7 +21144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22981,6 +23092,16 @@
       </c>
       <c r="B194" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -23154,28 +23275,28 @@
         <v>0.0679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04897305009375014</v>
+        <v>-0.04800674239868734</v>
       </c>
       <c r="J2" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K2" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002499840509000428</v>
+        <v>0.0002432363598841025</v>
       </c>
       <c r="M2" t="n">
-        <v>19.34271460831623</v>
+        <v>19.22034416738174</v>
       </c>
       <c r="N2" t="n">
-        <v>561.6608855878295</v>
+        <v>557.9701225969475</v>
       </c>
       <c r="O2" t="n">
-        <v>23.69938576393552</v>
+        <v>23.62139120790618</v>
       </c>
       <c r="P2" t="n">
-        <v>324.5353519785776</v>
+        <v>324.5256947125637</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23226,28 +23347,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1962833194014779</v>
+        <v>-0.193058435146803</v>
       </c>
       <c r="J3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004788284176018176</v>
+        <v>0.004690013993794984</v>
       </c>
       <c r="M3" t="n">
-        <v>17.61432115305476</v>
+        <v>17.52382997688056</v>
       </c>
       <c r="N3" t="n">
-        <v>482.5478907002965</v>
+        <v>479.6915144479458</v>
       </c>
       <c r="O3" t="n">
-        <v>21.9669727249864</v>
+        <v>21.90186098138571</v>
       </c>
       <c r="P3" t="n">
-        <v>329.3603967681989</v>
+        <v>329.3296261972453</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23304,28 +23425,28 @@
         <v>0.0776</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2856611609727815</v>
+        <v>-0.28050378834726</v>
       </c>
       <c r="J4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01289463925052348</v>
+        <v>0.01258854164444545</v>
       </c>
       <c r="M4" t="n">
-        <v>15.85347556178638</v>
+        <v>15.78300680207193</v>
       </c>
       <c r="N4" t="n">
-        <v>371.6686328595268</v>
+        <v>369.5965818099808</v>
       </c>
       <c r="O4" t="n">
-        <v>19.27870931518827</v>
+        <v>19.22489484522557</v>
       </c>
       <c r="P4" t="n">
-        <v>335.3759962169823</v>
+        <v>335.3265679330851</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23376,28 +23497,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3299839216169576</v>
+        <v>-0.3193167192857101</v>
       </c>
       <c r="J5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02161255930053119</v>
+        <v>0.02047497867562209</v>
       </c>
       <c r="M5" t="n">
-        <v>14.25327836936863</v>
+        <v>14.21895123063273</v>
       </c>
       <c r="N5" t="n">
-        <v>298.8937615180458</v>
+        <v>297.7040337345046</v>
       </c>
       <c r="O5" t="n">
-        <v>17.28854422784191</v>
+        <v>17.25410193937965</v>
       </c>
       <c r="P5" t="n">
-        <v>343.9068119522893</v>
+        <v>343.8064158766298</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23454,28 +23575,28 @@
         <v>0.0664</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3936416766388914</v>
+        <v>-0.385838191033671</v>
       </c>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03358939059096133</v>
+        <v>0.03265677253650467</v>
       </c>
       <c r="M6" t="n">
-        <v>13.32481159307654</v>
+        <v>13.27946239821671</v>
       </c>
       <c r="N6" t="n">
-        <v>275.382114670985</v>
+        <v>274.0929579935845</v>
       </c>
       <c r="O6" t="n">
-        <v>16.59464114318189</v>
+        <v>16.55575301801717</v>
       </c>
       <c r="P6" t="n">
-        <v>356.356100907907</v>
+        <v>356.2834229983763</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23526,28 +23647,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.3929452074022075</v>
+        <v>-0.3849179061034015</v>
       </c>
       <c r="J7" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K7" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03927035516649691</v>
+        <v>0.03812210107942293</v>
       </c>
       <c r="M7" t="n">
-        <v>11.98843885785179</v>
+        <v>11.95646326080565</v>
       </c>
       <c r="N7" t="n">
-        <v>232.0096040999692</v>
+        <v>231.0100763477495</v>
       </c>
       <c r="O7" t="n">
-        <v>15.23186147849202</v>
+        <v>15.19901563745987</v>
       </c>
       <c r="P7" t="n">
-        <v>369.5964965013872</v>
+        <v>369.5212161711873</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23604,28 +23725,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.355949252067861</v>
+        <v>-0.3555762780335791</v>
       </c>
       <c r="J8" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K8" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0396901784327226</v>
+        <v>0.04007305451757892</v>
       </c>
       <c r="M8" t="n">
-        <v>11.01102440159193</v>
+        <v>10.94901984876027</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8467726739615</v>
+        <v>186.7553449260641</v>
       </c>
       <c r="O8" t="n">
-        <v>13.70572043615225</v>
+        <v>13.66584592793524</v>
       </c>
       <c r="P8" t="n">
-        <v>386.657286186282</v>
+        <v>386.65379093892</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23682,28 +23803,28 @@
         <v>0.0722</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2722765074705994</v>
+        <v>-0.2729646748710389</v>
       </c>
       <c r="J9" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02267479879677148</v>
+        <v>0.02305597310789786</v>
       </c>
       <c r="M9" t="n">
-        <v>10.97757710290866</v>
+        <v>10.91853570005679</v>
       </c>
       <c r="N9" t="n">
-        <v>195.3050332238465</v>
+        <v>194.1849982828122</v>
       </c>
       <c r="O9" t="n">
-        <v>13.97515771731562</v>
+        <v>13.93502774603668</v>
       </c>
       <c r="P9" t="n">
-        <v>396.1083499898569</v>
+        <v>396.1148027765415</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23760,28 +23881,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2523329386061746</v>
+        <v>-0.2540845009337895</v>
       </c>
       <c r="J10" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02165694374870286</v>
+        <v>0.02219525311154691</v>
       </c>
       <c r="M10" t="n">
-        <v>10.11537820956845</v>
+        <v>10.06885746517738</v>
       </c>
       <c r="N10" t="n">
-        <v>176.9836941637676</v>
+        <v>176.0115740208827</v>
       </c>
       <c r="O10" t="n">
-        <v>13.303521870684</v>
+        <v>13.26693536657516</v>
       </c>
       <c r="P10" t="n">
-        <v>386.0226036381803</v>
+        <v>386.0390768649586</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23838,28 +23959,28 @@
         <v>0.076</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2700146329954984</v>
+        <v>-0.2687736908856481</v>
       </c>
       <c r="J11" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0279094650662286</v>
+        <v>0.02795932564590009</v>
       </c>
       <c r="M11" t="n">
-        <v>9.655912266329191</v>
+        <v>9.609295886847983</v>
       </c>
       <c r="N11" t="n">
-        <v>155.2230842057646</v>
+        <v>154.3786876030487</v>
       </c>
       <c r="O11" t="n">
-        <v>12.45885565394208</v>
+        <v>12.42492203609538</v>
       </c>
       <c r="P11" t="n">
-        <v>378.3124683917536</v>
+        <v>378.300706329933</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23916,28 +24037,28 @@
         <v>0.0805</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2567275170782811</v>
+        <v>-0.2571780493072337</v>
       </c>
       <c r="J12" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K12" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02649788093714178</v>
+        <v>0.02688048876257132</v>
       </c>
       <c r="M12" t="n">
-        <v>9.549557830589105</v>
+        <v>9.499241475120057</v>
       </c>
       <c r="N12" t="n">
-        <v>147.9822069554884</v>
+        <v>147.1657304121696</v>
       </c>
       <c r="O12" t="n">
-        <v>12.16479374899092</v>
+        <v>12.13118833470858</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2789897005148</v>
+        <v>371.2832532956666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23994,28 +24115,28 @@
         <v>0.0945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2329348827150609</v>
+        <v>-0.2331062425103877</v>
       </c>
       <c r="J13" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K13" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02330934965708842</v>
+        <v>0.02359677435631935</v>
       </c>
       <c r="M13" t="n">
-        <v>9.133019683667746</v>
+        <v>9.083501621551708</v>
       </c>
       <c r="N13" t="n">
-        <v>139.0983566317127</v>
+        <v>138.3300195652641</v>
       </c>
       <c r="O13" t="n">
-        <v>11.7939966352256</v>
+        <v>11.76137830210661</v>
       </c>
       <c r="P13" t="n">
-        <v>364.4875720393078</v>
+        <v>364.4891986319045</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24072,28 +24193,28 @@
         <v>0.0956</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1294827571971596</v>
+        <v>-0.138232374879642</v>
       </c>
       <c r="J14" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008639047600509153</v>
+        <v>0.009909058366837309</v>
       </c>
       <c r="M14" t="n">
-        <v>8.163334852706043</v>
+        <v>8.164415893055278</v>
       </c>
       <c r="N14" t="n">
-        <v>116.2765077630227</v>
+        <v>116.049977423748</v>
       </c>
       <c r="O14" t="n">
-        <v>10.78315852443164</v>
+        <v>10.77264950807126</v>
       </c>
       <c r="P14" t="n">
-        <v>359.3363542466236</v>
+        <v>359.4198456795287</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24150,28 +24271,28 @@
         <v>0.0864</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1146956462560763</v>
+        <v>-0.1259809212309486</v>
       </c>
       <c r="J15" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K15" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006543918062119847</v>
+        <v>0.007927693300765482</v>
       </c>
       <c r="M15" t="n">
-        <v>8.615670938319125</v>
+        <v>8.630703718413784</v>
       </c>
       <c r="N15" t="n">
-        <v>120.6998821367361</v>
+        <v>120.722679663368</v>
       </c>
       <c r="O15" t="n">
-        <v>10.98634980950161</v>
+        <v>10.98738729923397</v>
       </c>
       <c r="P15" t="n">
-        <v>358.3752763348862</v>
+        <v>358.4829637576485</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24228,28 +24349,28 @@
         <v>0.0858</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.09241309808698382</v>
+        <v>-0.1091832461465012</v>
       </c>
       <c r="J16" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004818397843329492</v>
+        <v>0.006693304590396743</v>
       </c>
       <c r="M16" t="n">
-        <v>8.15108440689399</v>
+        <v>8.199065254708913</v>
       </c>
       <c r="N16" t="n">
-        <v>106.6028714761644</v>
+        <v>107.5319693093803</v>
       </c>
       <c r="O16" t="n">
-        <v>10.32486665658034</v>
+        <v>10.36976225905784</v>
       </c>
       <c r="P16" t="n">
-        <v>358.2397312975179</v>
+        <v>358.3997569971921</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24306,28 +24427,28 @@
         <v>0.0916</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09680732059884042</v>
+        <v>-0.1098972444124054</v>
       </c>
       <c r="J17" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K17" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005057903823513676</v>
+        <v>0.006526825082233678</v>
       </c>
       <c r="M17" t="n">
-        <v>8.490058322702721</v>
+        <v>8.512457668616735</v>
       </c>
       <c r="N17" t="n">
-        <v>111.0239992632454</v>
+        <v>111.3430185060425</v>
       </c>
       <c r="O17" t="n">
-        <v>10.53679264592625</v>
+        <v>10.55192013360803</v>
       </c>
       <c r="P17" t="n">
-        <v>352.8216702261174</v>
+        <v>352.9470005885389</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24384,28 +24505,28 @@
         <v>0.0975</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02034676170879812</v>
+        <v>-0.03440594773135099</v>
       </c>
       <c r="J18" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002325019901167069</v>
+        <v>0.0006653749118119556</v>
       </c>
       <c r="M18" t="n">
-        <v>8.142727316056906</v>
+        <v>8.179999892169006</v>
       </c>
       <c r="N18" t="n">
-        <v>105.3898812485811</v>
+        <v>105.8529994500956</v>
       </c>
       <c r="O18" t="n">
-        <v>10.26595739561494</v>
+        <v>10.28848868639586</v>
       </c>
       <c r="P18" t="n">
-        <v>347.6893728021009</v>
+        <v>347.8262356066099</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24462,28 +24583,28 @@
         <v>0.1023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06983533833165509</v>
+        <v>0.05785493481802387</v>
       </c>
       <c r="J19" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002390163142106494</v>
+        <v>0.001649742745874927</v>
       </c>
       <c r="M19" t="n">
-        <v>8.619425857583346</v>
+        <v>8.632441726436785</v>
       </c>
       <c r="N19" t="n">
-        <v>118.8869802505095</v>
+        <v>118.9737233605446</v>
       </c>
       <c r="O19" t="n">
-        <v>10.90353063234609</v>
+        <v>10.90750766034774</v>
       </c>
       <c r="P19" t="n">
-        <v>343.3630562579055</v>
+        <v>343.4811179610867</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24540,28 +24661,28 @@
         <v>0.1055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04072702093767058</v>
+        <v>0.0237767038833029</v>
       </c>
       <c r="J20" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006297971550536241</v>
+        <v>0.0002150174752271194</v>
       </c>
       <c r="M20" t="n">
-        <v>9.626404408586035</v>
+        <v>9.660667581135941</v>
       </c>
       <c r="N20" t="n">
-        <v>152.4549840556198</v>
+        <v>153.1245664879258</v>
       </c>
       <c r="O20" t="n">
-        <v>12.34726625839177</v>
+        <v>12.37435115421919</v>
       </c>
       <c r="P20" t="n">
-        <v>344.3987964137243</v>
+        <v>344.5664035848355</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24618,28 +24739,28 @@
         <v>0.1071</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03402217698379496</v>
+        <v>0.01779797324927317</v>
       </c>
       <c r="J21" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004344420272347493</v>
+        <v>0.000119193761937253</v>
       </c>
       <c r="M21" t="n">
-        <v>9.69819136203632</v>
+        <v>9.730288705453514</v>
       </c>
       <c r="N21" t="n">
-        <v>154.6340280099527</v>
+        <v>155.1723303619982</v>
       </c>
       <c r="O21" t="n">
-        <v>12.43519312314661</v>
+        <v>12.45681862924873</v>
       </c>
       <c r="P21" t="n">
-        <v>347.555515973586</v>
+        <v>347.7153182803892</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24696,28 +24817,28 @@
         <v>0.1321</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06194313502615503</v>
+        <v>-0.06948572265096367</v>
       </c>
       <c r="J22" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K22" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001353194277978309</v>
+        <v>0.001717627235779506</v>
       </c>
       <c r="M22" t="n">
-        <v>9.975240355067582</v>
+        <v>9.95941570937795</v>
       </c>
       <c r="N22" t="n">
-        <v>166.2070776345701</v>
+        <v>165.6154210249245</v>
       </c>
       <c r="O22" t="n">
-        <v>12.89213239284216</v>
+        <v>12.86916551392997</v>
       </c>
       <c r="P22" t="n">
-        <v>353.9221897087677</v>
+        <v>353.9962741871944</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24774,28 +24895,28 @@
         <v>0.1099</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04606929310974751</v>
+        <v>-0.05722811399453815</v>
       </c>
       <c r="J23" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K23" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007055450607020841</v>
+        <v>0.001096023838336069</v>
       </c>
       <c r="M23" t="n">
-        <v>10.27875577092607</v>
+        <v>10.27529719340268</v>
       </c>
       <c r="N23" t="n">
-        <v>176.4425005423121</v>
+        <v>176.1601778793406</v>
       </c>
       <c r="O23" t="n">
-        <v>13.28316605867412</v>
+        <v>13.27253471946262</v>
       </c>
       <c r="P23" t="n">
-        <v>360.21021151112</v>
+        <v>360.3198151996988</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -24852,28 +24973,28 @@
         <v>0.1039</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02445854588307758</v>
+        <v>-0.03878256054766022</v>
       </c>
       <c r="J24" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001782460886523562</v>
+        <v>0.0004502642989154815</v>
       </c>
       <c r="M24" t="n">
-        <v>11.00544115058996</v>
+        <v>11.0127464344499</v>
       </c>
       <c r="N24" t="n">
-        <v>198.0729645033417</v>
+        <v>198.1349051205081</v>
       </c>
       <c r="O24" t="n">
-        <v>14.07383972138882</v>
+        <v>14.07604010794613</v>
       </c>
       <c r="P24" t="n">
-        <v>358.6179328464135</v>
+        <v>358.7586712195711</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -24930,28 +25051,28 @@
         <v>0.0977</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03433925005048594</v>
+        <v>0.01833753794140921</v>
       </c>
       <c r="J25" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K25" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003255552068047729</v>
+        <v>9.326211168403375e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>11.36067342382886</v>
+        <v>11.37439257030038</v>
       </c>
       <c r="N25" t="n">
-        <v>213.469211654411</v>
+        <v>213.6996167130246</v>
       </c>
       <c r="O25" t="n">
-        <v>14.61058560272007</v>
+        <v>14.61846834360647</v>
       </c>
       <c r="P25" t="n">
-        <v>352.6272052667044</v>
+        <v>352.7841650740202</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -25008,28 +25129,28 @@
         <v>0.1084</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06685469401629023</v>
+        <v>0.05097643121313657</v>
       </c>
       <c r="J26" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K26" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009775042055217842</v>
+        <v>0.0005717004870053888</v>
       </c>
       <c r="M26" t="n">
-        <v>12.59862796894019</v>
+        <v>12.62317738442919</v>
       </c>
       <c r="N26" t="n">
-        <v>273.9576505836812</v>
+        <v>273.9061740149514</v>
       </c>
       <c r="O26" t="n">
-        <v>16.55166609691246</v>
+        <v>16.55011099705834</v>
       </c>
       <c r="P26" t="n">
-        <v>347.3609517661957</v>
+        <v>347.5144135693144</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -25086,28 +25207,28 @@
         <v>0.1331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1955865603807937</v>
+        <v>0.1800517489300073</v>
       </c>
       <c r="J27" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007324270048872372</v>
+        <v>0.006251339635969244</v>
       </c>
       <c r="M27" t="n">
-        <v>13.56826718193824</v>
+        <v>13.57734780454118</v>
       </c>
       <c r="N27" t="n">
-        <v>311.5316609963239</v>
+        <v>311.2478816686228</v>
       </c>
       <c r="O27" t="n">
-        <v>17.65025951640156</v>
+        <v>17.64221872862432</v>
       </c>
       <c r="P27" t="n">
-        <v>342.9583740044393</v>
+        <v>343.1091053458371</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -25164,28 +25285,28 @@
         <v>0.1354</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3626670002129178</v>
+        <v>0.3430437667433512</v>
       </c>
       <c r="J28" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02434473620748123</v>
+        <v>0.02192690295091493</v>
       </c>
       <c r="M28" t="n">
-        <v>13.94032396591806</v>
+        <v>13.96307322142211</v>
       </c>
       <c r="N28" t="n">
-        <v>313.4299313685723</v>
+        <v>313.8371450465074</v>
       </c>
       <c r="O28" t="n">
-        <v>17.70395242222968</v>
+        <v>17.7154493323344</v>
       </c>
       <c r="P28" t="n">
-        <v>341.5500595557464</v>
+        <v>341.7406753739945</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -25242,28 +25363,28 @@
         <v>0.1497</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3542418949219501</v>
+        <v>0.3282708884151369</v>
       </c>
       <c r="J29" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02048085904740227</v>
+        <v>0.01765142145725862</v>
       </c>
       <c r="M29" t="n">
-        <v>14.40431188626886</v>
+        <v>14.45024813657075</v>
       </c>
       <c r="N29" t="n">
-        <v>355.8404465027093</v>
+        <v>357.5412785828025</v>
       </c>
       <c r="O29" t="n">
-        <v>18.86373363103681</v>
+        <v>18.90876195267164</v>
       </c>
       <c r="P29" t="n">
-        <v>344.0828536680588</v>
+        <v>344.3360270568309</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -25320,28 +25441,28 @@
         <v>0.1533</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5205805871546119</v>
+        <v>0.4934926714711931</v>
       </c>
       <c r="J30" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04244013963678939</v>
+        <v>0.03833114481338595</v>
       </c>
       <c r="M30" t="n">
-        <v>14.74005200421662</v>
+        <v>14.77363647130893</v>
       </c>
       <c r="N30" t="n">
-        <v>369.5169354250456</v>
+        <v>371.3621142437978</v>
       </c>
       <c r="O30" t="n">
-        <v>19.22282329485046</v>
+        <v>19.27075800906124</v>
       </c>
       <c r="P30" t="n">
-        <v>346.7474986037104</v>
+        <v>347.0064440842133</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -25398,28 +25519,28 @@
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4034134725060056</v>
+        <v>0.3725853870310897</v>
       </c>
       <c r="J31" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K31" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02544877068177087</v>
+        <v>0.02174542614682196</v>
       </c>
       <c r="M31" t="n">
-        <v>15.02536004661344</v>
+        <v>15.07389043663705</v>
       </c>
       <c r="N31" t="n">
-        <v>372.132460196497</v>
+        <v>375.0286064166227</v>
       </c>
       <c r="O31" t="n">
-        <v>19.29073508699181</v>
+        <v>19.36565533145271</v>
       </c>
       <c r="P31" t="n">
-        <v>346.3437060980349</v>
+        <v>346.6423489161615</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -25476,28 +25597,28 @@
         <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3245882490996072</v>
+        <v>0.2940435398390784</v>
       </c>
       <c r="J32" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K32" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01595561748608498</v>
+        <v>0.01311874053074336</v>
       </c>
       <c r="M32" t="n">
-        <v>15.38631103051944</v>
+        <v>15.43479046654311</v>
       </c>
       <c r="N32" t="n">
-        <v>383.80992914902</v>
+        <v>386.4233730773067</v>
       </c>
       <c r="O32" t="n">
-        <v>19.59106758573968</v>
+        <v>19.65765431269221</v>
       </c>
       <c r="P32" t="n">
-        <v>346.9782936492753</v>
+        <v>347.2763201065271</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -25554,28 +25675,28 @@
         <v>0.1503</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3642470573553743</v>
+        <v>0.3357740664586535</v>
       </c>
       <c r="J33" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K33" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02001849513514797</v>
+        <v>0.01707935985836639</v>
       </c>
       <c r="M33" t="n">
-        <v>15.56308399739915</v>
+        <v>15.59801340926386</v>
       </c>
       <c r="N33" t="n">
-        <v>387.6592562231816</v>
+        <v>389.6090782811028</v>
       </c>
       <c r="O33" t="n">
-        <v>19.68906438160995</v>
+        <v>19.73851763129903</v>
       </c>
       <c r="P33" t="n">
-        <v>349.6059839370026</v>
+        <v>349.8795377593161</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -25632,28 +25753,28 @@
         <v>0.157</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2503979222416557</v>
+        <v>0.222248588404186</v>
       </c>
       <c r="J34" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K34" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L34" t="n">
-        <v>0.009297484335461514</v>
+        <v>0.007353882666447209</v>
       </c>
       <c r="M34" t="n">
-        <v>16.10279214518875</v>
+        <v>16.12966630871657</v>
       </c>
       <c r="N34" t="n">
-        <v>396.9621273055694</v>
+        <v>398.6046183427379</v>
       </c>
       <c r="O34" t="n">
-        <v>19.92390843448065</v>
+        <v>19.96508498210659</v>
       </c>
       <c r="P34" t="n">
-        <v>356.1934702586198</v>
+        <v>356.4649498088791</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -25691,7 +25812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI194"/>
+  <dimension ref="A1:AI195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58009,6 +58130,183 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>-34.42618598477216,172.96361589227038</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-34.426145768945,172.96451352334935</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-34.42608428655143,172.96541072766965</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-34.42595863320553,172.96630664430367</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>-34.425871175916114,172.9672033256997</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-34.42573647514075,172.96809905790033</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>-34.425628005115875,172.9689866762994</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>-34.42544086327414,172.96979905945813</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>-34.4252316175064,172.9706295928766</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>-34.42496616915217,172.97147011312936</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>-34.42472704478041,172.97232516561922</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>-34.42446743323039,172.97316891029843</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>-34.424249819913086,172.97403584018357</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>-34.42396698205192,172.97486804136022</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>-34.42368883048206,172.9757155006739</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>-34.423330599194266,172.97651511063629</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>-34.42299212048409,172.9773152880657</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>-34.422621683083776,172.97809330455163</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>-34.422290136907876,172.97889829223297</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>-34.42189278355433,172.97965764546575</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>-34.42142742602532,172.98036983981254</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>-34.42103010960165,172.98114199527066</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>-34.42061105820097,172.9819027749563</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>-34.4201658704901,172.9826333715449</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>-34.41971564283168,172.98334859952007</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>-34.419239251412854,172.9840367306731</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>-34.418761919266686,172.9847238903542</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>-34.418306003020305,172.98543323527713</t>
+        </is>
+      </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>-34.41777110092097,172.98608277581604</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>-34.417267217515054,172.9867705990369</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>-34.41672876815478,172.9873913699815</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>-34.41615251110671,172.98795969509948</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>-34.415582808767994,172.9885365014486</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0001/nzd0001.xlsx
+++ b/data/nzd0001/nzd0001.xlsx
@@ -23266,13 +23266,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397</v>
+        <v>0.0636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0679</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.04800674239868728</v>
@@ -23343,9 +23343,15 @@
       <c r="E3" t="n">
         <v>0.9687278939015731</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.1931154215473095</v>
       </c>
@@ -23416,13 +23422,13 @@
         <v>0.9374557878043063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0478</v>
+        <v>0.0757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2805125119116255</v>
@@ -23493,9 +23499,15 @@
       <c r="E5" t="n">
         <v>0.9061836817070442</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0759</v>
+      </c>
       <c r="I5" t="n">
         <v>-0.319369704220235</v>
       </c>
@@ -23566,13 +23578,13 @@
         <v>0.8749115756086124</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.045</v>
+        <v>0.0567</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0664</v>
+        <v>0.0788</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3858886746465036</v>
@@ -23643,9 +23655,15 @@
       <c r="E7" t="n">
         <v>0.8436394695113504</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0851</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.3849345781447092</v>
       </c>
@@ -23716,13 +23734,13 @@
         <v>0.8123673634129187</v>
       </c>
       <c r="F8" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.065</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.0571</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0916</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3555615266396187</v>
@@ -23794,13 +23812,13 @@
         <v>0.7816450504320696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0525</v>
+        <v>0.063</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0722</v>
+        <v>0.0885</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2729819206469458</v>
@@ -23872,13 +23890,13 @@
         <v>0.7503729443345427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.054</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2540737872909737</v>
@@ -23950,13 +23968,13 @@
         <v>0.7191008382369553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0561</v>
+        <v>0.0687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.076</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2687612205850651</v>
@@ -24028,13 +24046,13 @@
         <v>0.6878287321393679</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0572</v>
+        <v>0.068</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0805</v>
+        <v>0.0915</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2571659270862445</v>
@@ -24106,13 +24124,13 @@
         <v>0.6565566260419015</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0945</v>
+        <v>0.0859</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2330910679456993</v>
@@ -24184,13 +24202,13 @@
         <v>0.6252845199441931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0694</v>
+        <v>0.068</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0956</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1382018101204556</v>
@@ -24262,13 +24280,13 @@
         <v>0.5940124138467268</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0645</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0864</v>
+        <v>0.0979</v>
       </c>
       <c r="I15" t="n">
         <v>-0.125964421061364</v>
@@ -24340,13 +24358,13 @@
         <v>0.5627536669221561</v>
       </c>
       <c r="F16" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0644</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0858</v>
+        <v>0.1065</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1091667459769166</v>
@@ -24418,13 +24436,13 @@
         <v>0.5314815608238754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0698</v>
+        <v>0.0694</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0916</v>
+        <v>0.0872</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1098658734969039</v>
@@ -24499,10 +24517,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.0747</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0975</v>
+        <v>0.093</v>
       </c>
       <c r="I18" t="n">
         <v>-0.03439301670562504</v>
@@ -24577,10 +24595,10 @@
         <v>0.09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0775</v>
+        <v>0.0784</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1023</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
         <v>0.05781367581033135</v>
@@ -24652,13 +24670,13 @@
         <v>0.4376652425311265</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0752</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1055</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>0.02374047639677126</v>
@@ -24730,13 +24748,13 @@
         <v>0.4063931364329183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0733</v>
+        <v>0.0649</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1071</v>
+        <v>0.0994</v>
       </c>
       <c r="I21" t="n">
         <v>0.01781775453439549</v>
@@ -24808,13 +24826,13 @@
         <v>0.3751210303355755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0828</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1321</v>
+        <v>0.1052</v>
       </c>
       <c r="I22" t="n">
         <v>-0.06948572265096395</v>
@@ -24886,13 +24904,13 @@
         <v>0.3438489242383777</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0731</v>
+        <v>0.073</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1099</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>-0.05726440516009759</v>
@@ -24964,13 +24982,13 @@
         <v>0.3127028338592166</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0699</v>
+        <v>0.0839</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1039</v>
+        <v>0.1149</v>
       </c>
       <c r="I24" t="n">
         <v>-0.03875453405679951</v>
@@ -25042,13 +25060,13 @@
         <v>0.2814307277619801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0722</v>
+        <v>0.0784</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0977</v>
+        <v>0.118</v>
       </c>
       <c r="I25" t="n">
         <v>0.01836350131854391</v>
@@ -25120,13 +25138,13 @@
         <v>0.2501586216640487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.0815</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1084</v>
+        <v>0.1168</v>
       </c>
       <c r="I26" t="n">
         <v>0.05099870044464118</v>
@@ -25198,13 +25216,13 @@
         <v>0.2188865155659276</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0785</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1331</v>
+        <v>0.1255</v>
       </c>
       <c r="I27" t="n">
         <v>0.1800517489300072</v>
@@ -25279,10 +25297,10 @@
         <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0818</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1354</v>
+        <v>0.1322</v>
       </c>
       <c r="I28" t="n">
         <v>0.343043766743351</v>
@@ -25354,13 +25372,13 @@
         <v>0.1563423033703806</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="G29" t="n">
-        <v>0.073</v>
+        <v>0.0912</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1497</v>
+        <v>0.1531</v>
       </c>
       <c r="I29" t="n">
         <v>0.3282708884151369</v>
@@ -25432,13 +25450,13 @@
         <v>0.1250701972734284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0771</v>
+        <v>0.1068</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1533</v>
+        <v>0.2</v>
       </c>
       <c r="I30" t="n">
         <v>0.4934926714711931</v>
@@ -25510,13 +25528,13 @@
         <v>0.09381631829357515</v>
       </c>
       <c r="F31" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0915</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.1867</v>
       </c>
       <c r="I31" t="n">
         <v>0.3726128033776709</v>
@@ -25588,13 +25606,13 @@
         <v>0.06254421219578769</v>
       </c>
       <c r="F32" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0885</v>
+        <v>0.0901</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.1705</v>
       </c>
       <c r="I32" t="n">
         <v>0.2939980916304272</v>
@@ -25666,13 +25684,13 @@
         <v>0.03127210609789385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0725</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1503</v>
+        <v>0.154</v>
       </c>
       <c r="I33" t="n">
         <v>0.3357740664586535</v>
@@ -25744,13 +25762,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0742</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0.157</v>
+        <v>0.1518</v>
       </c>
       <c r="I34" t="n">
         <v>0.2222485884041857</v>
